--- a/third_times_a_charm/excel_to_empty_report/Engineering Report Test Parameter List 6-2025 Arrays.xlsx
+++ b/third_times_a_charm/excel_to_empty_report/Engineering Report Test Parameter List 6-2025 Arrays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enfxm\Desktop\Python Testing\Test Report Template\Test-Report-Generator\third_times_a_charm\excel_to_empty_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09974BC4-40D0-47EB-93CE-5CD824FCBA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6996FAB6-3452-47B2-8F99-F5F631740B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" tabRatio="771" activeTab="1" xr2:uid="{F97DC384-B943-4F3B-9436-FF2DE7277B38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="771" activeTab="2" xr2:uid="{F97DC384-B943-4F3B-9436-FF2DE7277B38}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Definitions (3)" sheetId="15" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="434">
   <si>
     <t>Test Item</t>
   </si>
@@ -1212,9 +1212,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Input Voltages</t>
-  </si>
-  <si>
     <t>Specified Low</t>
   </si>
   <si>
@@ -1281,6 +1278,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Input Voltage</t>
+  </si>
+  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -1308,12 +1308,6 @@
     <t>Equations</t>
   </si>
   <si>
-    <t>R_Name</t>
-  </si>
-  <si>
-    <t>R_Unit</t>
-  </si>
-  <si>
     <t>R_VAL1</t>
   </si>
   <si>
@@ -1408,13 +1402,65 @@
   </si>
   <si>
     <t>Connection</t>
+  </si>
+  <si>
+    <t>R_Name
+(R_Unit)</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>vin_SL</t>
+  </si>
+  <si>
+    <t>vin_NL</t>
+  </si>
+  <si>
+    <t>vin_NH</t>
+  </si>
+  <si>
+    <t>vin_SH</t>
+  </si>
+  <si>
+    <t>CPN</t>
+  </si>
+  <si>
+    <t>GPN</t>
+  </si>
+  <si>
+    <t>GMN</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>gndCFG_F2</t>
+  </si>
+  <si>
+    <t>gndCFG_F1</t>
+  </si>
+  <si>
+    <t>gndCFG_F3</t>
+  </si>
+  <si>
+    <t>Number of Outputs</t>
+  </si>
+  <si>
+    <t>num_out</t>
+  </si>
+  <si>
+    <t>iout_L</t>
+  </si>
+  <si>
+    <t>iout_H</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1477,26 +1523,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
-      <sz val="11"/>
-      <color theme="2" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="2" tint="-0.499984740745262"/>
       <name val="Calibri"/>
@@ -1507,6 +1534,12 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1595,7 +1628,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="72">
+  <borders count="83">
     <border>
       <left/>
       <right/>
@@ -2392,40 +2425,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2433,29 +2438,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2472,13 +2455,35 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2526,11 +2531,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2909,45 +3069,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2997,10 +3129,14 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3008,7 +3144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3018,16 +3154,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3037,24 +3170,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3072,7 +3187,9 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3083,12 +3200,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3118,10 +3229,127 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3162,43 +3390,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp100.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp102.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B14" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B13" lockText="1" noThreeD="1"/>
+<file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B15" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B14" lockText="1" noThreeD="1"/>
+<file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B16" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B15" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3206,43 +3434,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B18" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B17" lockText="1" noThreeD="1"/>
+<file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B19" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B18" lockText="1" noThreeD="1"/>
+<file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B20" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B19" lockText="1" noThreeD="1"/>
+<file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B21" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp117.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp117.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B20" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp118.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp119.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3250,43 +3478,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B23" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B22" lockText="1" noThreeD="1"/>
+<file path=xl/ctrlProps/ctrlProp122.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B24" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp122.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp123.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp123.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B23" lockText="1" noThreeD="1"/>
+<file path=xl/ctrlProps/ctrlProp124.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B25" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp124.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp125.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp125.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B24" lockText="1" noThreeD="1"/>
+<file path=xl/ctrlProps/ctrlProp126.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B26" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp126.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp127.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp127.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B25" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp128.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B27" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp129.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B26" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3294,26 +3522,14 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp130.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B28" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp131.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp131.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B27" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp132.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp133.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B28" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp134.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp135.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B29" noThreeD="1"/>
 </file>
 
@@ -3454,23 +3670,23 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$B$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$B$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$18" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$B$3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B$6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$B$4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3478,43 +3694,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B$6" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B10" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B11" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B12" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B8" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B9" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B10" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3522,43 +3738,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B15" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B14" lockText="1" noThreeD="1"/>
+<file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B16" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B15" lockText="1" noThreeD="1"/>
+<file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B17" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B16" lockText="1" noThreeD="1"/>
+<file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B18" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp67.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp67.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B17" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B18" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3566,43 +3782,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B20" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp71.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp71.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B19" lockText="1" noThreeD="1"/>
+<file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B21" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B20" lockText="1" noThreeD="1"/>
+<file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B22" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B21" lockText="1" noThreeD="1"/>
+<file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B23" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B22" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3610,43 +3826,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B25" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B24" lockText="1" noThreeD="1"/>
+<file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B26" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B25" lockText="1" noThreeD="1"/>
+<file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B27" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B26" lockText="1" noThreeD="1"/>
+<file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B28" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp87.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp87.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B27" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B29" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B28" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$B$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3654,43 +3870,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$B$4" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B$5" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp92.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B$6" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp93.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B29" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp92.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$B$3" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp93.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$B$4" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B$6" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp96.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B8" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp98.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp99.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6652,259 +6868,6 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>607742</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>13939</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1012903</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>173077</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6145" name="Check Box 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6145"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D450754-87CD-4B13-9DE8-E447E4BC0E1C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="41148" rIns="0" bIns="41148" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>F1</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>607742</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>13939</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="405161" cy="159138"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6146" name="Check Box 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6146"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{438418FF-F749-4E12-B0F8-91A9827963C7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="41148" rIns="0" bIns="41148" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>F2</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>607742</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>13939</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="405161" cy="159138"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6147" name="Check Box 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6147"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BDD5E4-8E7B-4780-95D9-050B688DBBB3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="41148" rIns="0" bIns="41148" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>F3</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>1000125</xdr:colOff>
           <xdr:row>1</xdr:row>
@@ -9852,7 +9815,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -12805,7 +12768,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13055,7 +13018,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13305,7 +13268,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13857,52 +13820,52 @@
       <c r="Q2" s="99" t="s">
         <v>321</v>
       </c>
-      <c r="R2" s="163" t="s">
+      <c r="R2" s="149" t="s">
         <v>334</v>
       </c>
-      <c r="S2" s="164" t="s">
+      <c r="S2" s="150" t="s">
         <v>333</v>
       </c>
-      <c r="T2" s="164" t="s">
+      <c r="T2" s="150" t="s">
         <v>331</v>
       </c>
-      <c r="U2" s="164" t="s">
+      <c r="U2" s="150" t="s">
         <v>330</v>
       </c>
-      <c r="V2" s="165" t="s">
+      <c r="V2" s="151" t="s">
         <v>332</v>
       </c>
-      <c r="W2" s="166" t="s">
+      <c r="W2" s="152" t="s">
         <v>335</v>
       </c>
-      <c r="X2" s="164" t="s">
+      <c r="X2" s="150" t="s">
         <v>324</v>
       </c>
-      <c r="Y2" s="164" t="s">
+      <c r="Y2" s="150" t="s">
         <v>325</v>
       </c>
-      <c r="Z2" s="164" t="s">
+      <c r="Z2" s="150" t="s">
         <v>326</v>
       </c>
-      <c r="AA2" s="167" t="s">
+      <c r="AA2" s="153" t="s">
         <v>327</v>
       </c>
-      <c r="AB2" s="163" t="s">
+      <c r="AB2" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="AC2" s="164" t="s">
+      <c r="AC2" s="150" t="s">
         <v>162</v>
       </c>
-      <c r="AD2" s="164" t="s">
+      <c r="AD2" s="150" t="s">
         <v>322</v>
       </c>
-      <c r="AE2" s="164" t="s">
+      <c r="AE2" s="150" t="s">
         <v>163</v>
       </c>
-      <c r="AF2" s="164" t="s">
+      <c r="AF2" s="150" t="s">
         <v>164</v>
       </c>
-      <c r="AG2" s="167" t="s">
+      <c r="AG2" s="153" t="s">
         <v>323</v>
       </c>
     </row>
@@ -13920,7 +13883,7 @@
         <v>68</v>
       </c>
       <c r="E3" s="88" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F3" s="87" t="s">
         <v>8</v>
@@ -13974,7 +13937,7 @@
         <v>68</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F4" s="83" t="s">
         <v>8</v>
@@ -17188,7 +17151,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G26" s="119" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H26" s="120"/>
       <c r="I26" s="120"/>
@@ -17202,14 +17165,14 @@
       <c r="H27" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="I27" s="168" t="s">
-        <v>365</v>
+      <c r="I27" s="154" t="s">
+        <v>364</v>
       </c>
       <c r="J27" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="K27" s="168" t="s">
-        <v>365</v>
+      <c r="K27" s="154" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -17333,7 +17296,7 @@
     </row>
     <row r="38" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G38" s="119" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H38" s="120"/>
       <c r="I38" s="120"/>
@@ -17343,23 +17306,23 @@
         <v>66</v>
       </c>
       <c r="H39" s="35"/>
-      <c r="I39" s="168"/>
+      <c r="I39" s="154"/>
     </row>
     <row r="40" spans="7:11" ht="45" x14ac:dyDescent="0.25">
       <c r="G40" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="H40" s="169" t="s">
+      <c r="H40" s="155" t="s">
         <v>188</v>
       </c>
-      <c r="I40" s="172" t="s">
-        <v>367</v>
-      </c>
-      <c r="J40" s="171" t="s">
+      <c r="I40" s="158" t="s">
+        <v>366</v>
+      </c>
+      <c r="J40" s="157" t="s">
         <v>188</v>
       </c>
-      <c r="K40" s="170" t="s">
-        <v>367</v>
+      <c r="K40" s="156" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="41" spans="7:11" x14ac:dyDescent="0.25">
@@ -17470,7 +17433,7 @@
       <c r="I48" s="120"/>
     </row>
     <row r="49" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G49" s="171"/>
+      <c r="G49" s="157"/>
     </row>
     <row r="50" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G50" s="50"/>
@@ -19647,22 +19610,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0245BEA6-77AE-458A-98C6-B34309021EAD}">
-  <dimension ref="A2:W34"/>
+  <dimension ref="A2:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -19670,49 +19638,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="160" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2" s="161" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2" s="161" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2" s="161" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="164" t="s">
         <v>369</v>
       </c>
-      <c r="B2" s="175" t="s">
-        <v>375</v>
-      </c>
-      <c r="C2" s="175" t="s">
-        <v>376</v>
-      </c>
-      <c r="D2" s="175" t="s">
+      <c r="B5" s="165" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" s="165" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" s="165" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="178" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="162" t="s">
         <v>370</v>
       </c>
-      <c r="B5" s="179" t="s">
+      <c r="B8" s="163" t="s">
         <v>378</v>
       </c>
-      <c r="C5" s="179" t="s">
+      <c r="C8" s="163" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="179" t="s">
+      <c r="D8" s="163" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="176" t="s">
-        <v>371</v>
-      </c>
-      <c r="B8" s="177" t="s">
-        <v>378</v>
-      </c>
-      <c r="C8" s="177" t="s">
-        <v>379</v>
-      </c>
-      <c r="D8" s="177" t="s">
-        <v>377</v>
-      </c>
-    </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="173" t="s">
+      <c r="A9" s="159" t="s">
         <v>383</v>
       </c>
       <c r="B9" t="s">
@@ -19726,808 +19702,844 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="180" t="s">
-        <v>372</v>
-      </c>
-      <c r="B11" s="181" t="s">
-        <v>375</v>
-      </c>
-      <c r="C11" s="181" t="s">
+      <c r="A11" s="166" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" s="167" t="s">
+        <v>374</v>
+      </c>
+      <c r="C11" s="167" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="185" t="s">
-        <v>374</v>
-      </c>
-      <c r="B14" s="185" t="s">
+      <c r="A14" s="173" t="s">
+        <v>373</v>
+      </c>
+      <c r="B14" s="173" t="s">
         <v>378</v>
       </c>
-      <c r="C14" s="185" t="s">
+      <c r="C14" s="173" t="s">
         <v>379</v>
       </c>
-      <c r="D14" s="185" t="s">
+      <c r="D14" s="173" t="s">
         <v>377</v>
       </c>
-      <c r="E14" s="185" t="s">
-        <v>418</v>
-      </c>
-      <c r="F14" s="185" t="s">
+      <c r="E14" s="173" t="s">
+        <v>416</v>
+      </c>
+      <c r="F14" s="173" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="172" t="s">
+        <v>372</v>
+      </c>
+      <c r="B17" s="172" t="s">
+        <v>378</v>
+      </c>
+      <c r="C17" s="172" t="s">
+        <v>379</v>
+      </c>
+      <c r="D17" s="172" t="s">
+        <v>384</v>
+      </c>
+      <c r="E17" s="172" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C20" s="209" t="s">
+        <v>394</v>
+      </c>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="210"/>
+      <c r="J20" s="210"/>
+      <c r="K20" s="210"/>
+      <c r="L20" s="210"/>
+      <c r="M20" s="210"/>
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="210"/>
+      <c r="Q20" s="210"/>
+      <c r="R20" s="211"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="223" t="s">
+        <v>395</v>
+      </c>
+      <c r="D21" s="224"/>
+      <c r="E21" s="224"/>
+      <c r="F21" s="224"/>
+      <c r="G21" s="224"/>
+      <c r="H21" s="224"/>
+      <c r="I21" s="224"/>
+      <c r="J21" s="224"/>
+      <c r="K21" s="224"/>
+      <c r="L21" s="224"/>
+      <c r="M21" s="224"/>
+      <c r="N21" s="224"/>
+      <c r="O21" s="224"/>
+      <c r="P21" s="224"/>
+      <c r="Q21" s="224"/>
+      <c r="R21" s="225"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C22" s="214"/>
+      <c r="D22" s="215"/>
+      <c r="E22" s="191" t="s">
+        <v>392</v>
+      </c>
+      <c r="F22" s="185"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="204"/>
+      <c r="J22" s="197" t="s">
+        <v>400</v>
+      </c>
+      <c r="K22" s="185" t="s">
+        <v>392</v>
+      </c>
+      <c r="L22" s="185"/>
+      <c r="M22" s="185"/>
+      <c r="N22" s="185"/>
+      <c r="O22" s="200"/>
+      <c r="P22" s="197" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q22" s="200"/>
+      <c r="R22" s="201" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C23" s="212"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="192" t="s">
+        <v>388</v>
+      </c>
+      <c r="F23" s="186" t="s">
+        <v>389</v>
+      </c>
+      <c r="G23" s="186" t="s">
+        <v>390</v>
+      </c>
+      <c r="H23" s="186" t="s">
+        <v>393</v>
+      </c>
+      <c r="I23" s="195" t="s">
+        <v>396</v>
+      </c>
+      <c r="J23" s="198" t="s">
+        <v>401</v>
+      </c>
+      <c r="K23" s="186" t="s">
+        <v>388</v>
+      </c>
+      <c r="L23" s="186" t="s">
+        <v>389</v>
+      </c>
+      <c r="M23" s="186" t="s">
+        <v>390</v>
+      </c>
+      <c r="N23" s="186" t="s">
+        <v>393</v>
+      </c>
+      <c r="O23" s="195" t="s">
+        <v>396</v>
+      </c>
+      <c r="P23" s="198" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q23" s="195" t="s">
+        <v>399</v>
+      </c>
+      <c r="R23" s="202" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="216"/>
+      <c r="D24" s="217"/>
+      <c r="E24" s="193" t="s">
+        <v>391</v>
+      </c>
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="196" t="s">
+        <v>397</v>
+      </c>
+      <c r="J24" s="199" t="s">
+        <v>402</v>
+      </c>
+      <c r="K24" s="194" t="s">
+        <v>391</v>
+      </c>
+      <c r="L24" s="194"/>
+      <c r="M24" s="194"/>
+      <c r="N24" s="194"/>
+      <c r="O24" s="196" t="s">
+        <v>397</v>
+      </c>
+      <c r="P24" s="199" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q24" s="196" t="s">
+        <v>406</v>
+      </c>
+      <c r="R24" s="203" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C25" s="222" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="184" t="s">
-        <v>373</v>
-      </c>
-      <c r="B17" s="184" t="s">
-        <v>378</v>
-      </c>
-      <c r="C17" s="184" t="s">
-        <v>379</v>
-      </c>
-      <c r="D17" s="184" t="s">
-        <v>384</v>
-      </c>
-      <c r="E17" s="184" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+      <c r="D25" s="181" t="s">
+        <v>385</v>
+      </c>
+      <c r="E25" s="71"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="184" t="s">
+        <v>398</v>
+      </c>
+      <c r="J25" s="187" t="s">
+        <v>411</v>
+      </c>
+      <c r="K25" s="174"/>
+      <c r="L25" s="174"/>
+      <c r="M25" s="174"/>
+      <c r="N25" s="174"/>
+      <c r="O25" s="184" t="s">
+        <v>398</v>
+      </c>
+      <c r="P25" s="187" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q25" s="184" t="s">
+        <v>398</v>
+      </c>
+      <c r="R25" s="187" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C26" s="205"/>
+      <c r="D26" s="179" t="s">
+        <v>386</v>
+      </c>
+      <c r="E26" s="177"/>
+      <c r="F26" s="169"/>
+      <c r="G26" s="169"/>
+      <c r="H26" s="169"/>
+      <c r="I26" s="182" t="s">
+        <v>398</v>
+      </c>
+      <c r="J26" s="188" t="s">
+        <v>412</v>
+      </c>
+      <c r="K26" s="169"/>
+      <c r="L26" s="169"/>
+      <c r="M26" s="169"/>
+      <c r="N26" s="169"/>
+      <c r="O26" s="182" t="s">
+        <v>398</v>
+      </c>
+      <c r="P26" s="188" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q26" s="182" t="s">
+        <v>398</v>
+      </c>
+      <c r="R26" s="188" t="s">
         <v>409</v>
       </c>
-      <c r="I18" s="198" t="s">
+    </row>
+    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="213"/>
+      <c r="D27" s="180" t="s">
+        <v>387</v>
+      </c>
+      <c r="E27" s="178"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="183" t="s">
+        <v>398</v>
+      </c>
+      <c r="J27" s="189" t="s">
+        <v>413</v>
+      </c>
+      <c r="K27" s="170"/>
+      <c r="L27" s="170"/>
+      <c r="M27" s="170"/>
+      <c r="N27" s="170"/>
+      <c r="O27" s="183" t="s">
+        <v>398</v>
+      </c>
+      <c r="P27" s="189" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q27" s="183" t="s">
+        <v>398</v>
+      </c>
+      <c r="R27" s="189" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C29" s="209" t="s">
+        <v>394</v>
+      </c>
+      <c r="D29" s="210"/>
+      <c r="E29" s="210"/>
+      <c r="F29" s="210"/>
+      <c r="G29" s="210"/>
+      <c r="H29" s="210"/>
+      <c r="I29" s="210"/>
+      <c r="J29" s="210"/>
+      <c r="K29" s="210"/>
+      <c r="L29" s="210"/>
+      <c r="M29" s="210"/>
+      <c r="N29" s="210"/>
+      <c r="O29" s="210"/>
+      <c r="P29" s="210"/>
+      <c r="Q29" s="210"/>
+      <c r="R29" s="211"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="206" t="s">
+        <v>414</v>
+      </c>
+      <c r="D30" s="207"/>
+      <c r="E30" s="207"/>
+      <c r="F30" s="207"/>
+      <c r="G30" s="207"/>
+      <c r="H30" s="207"/>
+      <c r="I30" s="207"/>
+      <c r="J30" s="207"/>
+      <c r="K30" s="207"/>
+      <c r="L30" s="207"/>
+      <c r="M30" s="207"/>
+      <c r="N30" s="207"/>
+      <c r="O30" s="207"/>
+      <c r="P30" s="207"/>
+      <c r="Q30" s="207"/>
+      <c r="R30" s="208"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C31" s="214"/>
+      <c r="D31" s="215"/>
+      <c r="E31" s="191" t="s">
+        <v>392</v>
+      </c>
+      <c r="F31" s="185"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="197" t="s">
+        <v>400</v>
+      </c>
+      <c r="K31" s="185" t="s">
+        <v>392</v>
+      </c>
+      <c r="L31" s="185"/>
+      <c r="M31" s="185"/>
+      <c r="N31" s="185"/>
+      <c r="O31" s="176"/>
+      <c r="P31" s="197" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q31" s="200"/>
+      <c r="R31" s="201" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C32" s="212"/>
+      <c r="D32" s="190"/>
+      <c r="E32" s="192" t="s">
+        <v>388</v>
+      </c>
+      <c r="F32" s="186" t="s">
+        <v>389</v>
+      </c>
+      <c r="G32" s="186" t="s">
+        <v>390</v>
+      </c>
+      <c r="H32" s="186" t="s">
+        <v>393</v>
+      </c>
+      <c r="I32" s="195" t="s">
         <v>396</v>
       </c>
-      <c r="J18" s="199"/>
-      <c r="K18" s="199"/>
-      <c r="L18" s="199"/>
-      <c r="M18" s="199"/>
-      <c r="N18" s="199"/>
-      <c r="O18" s="199"/>
-      <c r="P18" s="199"/>
-      <c r="Q18" s="199"/>
-      <c r="R18" s="199"/>
-      <c r="S18" s="199"/>
-      <c r="T18" s="199"/>
-      <c r="U18" s="199"/>
-      <c r="V18" s="199"/>
-      <c r="W18" s="200"/>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="201" t="s">
+      <c r="J32" s="198" t="s">
+        <v>401</v>
+      </c>
+      <c r="K32" s="186" t="s">
+        <v>388</v>
+      </c>
+      <c r="L32" s="186" t="s">
+        <v>389</v>
+      </c>
+      <c r="M32" s="186" t="s">
+        <v>390</v>
+      </c>
+      <c r="N32" s="186" t="s">
+        <v>393</v>
+      </c>
+      <c r="O32" s="195" t="s">
+        <v>396</v>
+      </c>
+      <c r="P32" s="198" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q32" s="195" t="s">
+        <v>399</v>
+      </c>
+      <c r="R32" s="202" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="216"/>
+      <c r="D33" s="217"/>
+      <c r="E33" s="193" t="s">
+        <v>391</v>
+      </c>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="196" t="s">
         <v>397</v>
       </c>
-      <c r="J19" s="202"/>
-      <c r="K19" s="202"/>
-      <c r="L19" s="202"/>
-      <c r="M19" s="202"/>
-      <c r="N19" s="202"/>
-      <c r="O19" s="202"/>
-      <c r="P19" s="202"/>
-      <c r="Q19" s="202"/>
-      <c r="R19" s="202"/>
-      <c r="S19" s="202"/>
-      <c r="T19" s="202"/>
-      <c r="U19" s="202"/>
-      <c r="V19" s="202"/>
-      <c r="W19" s="203"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I20" s="225"/>
-      <c r="J20" s="210" t="s">
-        <v>394</v>
-      </c>
-      <c r="K20" s="204"/>
-      <c r="L20" s="204"/>
-      <c r="M20" s="204"/>
-      <c r="N20" s="226"/>
-      <c r="O20" s="218" t="s">
+      <c r="J33" s="199" t="s">
         <v>402</v>
       </c>
-      <c r="P20" s="204" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q20" s="204"/>
-      <c r="R20" s="204"/>
-      <c r="S20" s="204"/>
-      <c r="T20" s="221"/>
-      <c r="U20" s="218" t="s">
+      <c r="K33" s="194" t="s">
+        <v>391</v>
+      </c>
+      <c r="L33" s="194"/>
+      <c r="M33" s="194"/>
+      <c r="N33" s="194"/>
+      <c r="O33" s="196" t="s">
+        <v>397</v>
+      </c>
+      <c r="P33" s="199" t="s">
         <v>402</v>
       </c>
-      <c r="V20" s="221"/>
-      <c r="W20" s="222" t="s">
+      <c r="Q33" s="196" t="s">
+        <v>406</v>
+      </c>
+      <c r="R33" s="203" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I21" s="214" t="s">
+    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C34" s="222" t="s">
+        <v>417</v>
+      </c>
+      <c r="D34" s="181" t="s">
         <v>385</v>
       </c>
-      <c r="J21" s="211" t="s">
-        <v>390</v>
-      </c>
-      <c r="K21" s="205" t="s">
-        <v>391</v>
-      </c>
-      <c r="L21" s="205" t="s">
-        <v>392</v>
-      </c>
-      <c r="M21" s="205" t="s">
-        <v>395</v>
-      </c>
-      <c r="N21" s="216" t="s">
+      <c r="E34" s="71"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="174"/>
+      <c r="I34" s="184" t="s">
         <v>398</v>
       </c>
-      <c r="O21" s="219" t="s">
-        <v>403</v>
-      </c>
-      <c r="P21" s="205" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q21" s="205" t="s">
-        <v>391</v>
-      </c>
-      <c r="R21" s="205" t="s">
-        <v>392</v>
-      </c>
-      <c r="S21" s="205" t="s">
-        <v>395</v>
-      </c>
-      <c r="T21" s="216" t="s">
+      <c r="J34" s="187" t="s">
+        <v>411</v>
+      </c>
+      <c r="K34" s="174"/>
+      <c r="L34" s="174"/>
+      <c r="M34" s="174"/>
+      <c r="N34" s="174"/>
+      <c r="O34" s="184" t="s">
         <v>398</v>
       </c>
-      <c r="U21" s="219" t="s">
-        <v>403</v>
-      </c>
-      <c r="V21" s="216" t="s">
-        <v>401</v>
-      </c>
-      <c r="W21" s="223" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I22" s="215" t="s">
+      <c r="P34" s="187" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q34" s="184" t="s">
+        <v>398</v>
+      </c>
+      <c r="R34" s="187" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C35" s="205"/>
+      <c r="D35" s="179" t="s">
         <v>386</v>
       </c>
-      <c r="J22" s="212" t="s">
-        <v>393</v>
-      </c>
-      <c r="K22" s="213"/>
-      <c r="L22" s="213"/>
-      <c r="M22" s="213"/>
-      <c r="N22" s="217" t="s">
-        <v>399</v>
-      </c>
-      <c r="O22" s="220" t="s">
-        <v>404</v>
-      </c>
-      <c r="P22" s="213" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q22" s="213"/>
-      <c r="R22" s="213"/>
-      <c r="S22" s="213"/>
-      <c r="T22" s="217" t="s">
-        <v>399</v>
-      </c>
-      <c r="U22" s="220" t="s">
-        <v>404</v>
-      </c>
-      <c r="V22" s="217" t="s">
-        <v>408</v>
-      </c>
-      <c r="W22" s="224" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I23" s="194" t="s">
+      <c r="E35" s="177"/>
+      <c r="F35" s="169"/>
+      <c r="G35" s="169"/>
+      <c r="H35" s="169"/>
+      <c r="I35" s="182" t="s">
+        <v>398</v>
+      </c>
+      <c r="J35" s="188" t="s">
+        <v>412</v>
+      </c>
+      <c r="K35" s="169"/>
+      <c r="L35" s="169"/>
+      <c r="M35" s="169"/>
+      <c r="N35" s="169"/>
+      <c r="O35" s="182" t="s">
+        <v>398</v>
+      </c>
+      <c r="P35" s="188" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q35" s="182" t="s">
+        <v>398</v>
+      </c>
+      <c r="R35" s="188" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="213"/>
+      <c r="D36" s="180" t="s">
         <v>387</v>
       </c>
-      <c r="J23" s="71"/>
-      <c r="K23" s="186"/>
-      <c r="L23" s="186"/>
-      <c r="M23" s="186"/>
-      <c r="N23" s="197" t="s">
-        <v>400</v>
-      </c>
-      <c r="O23" s="206" t="s">
+      <c r="E36" s="178"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="170"/>
+      <c r="I36" s="183" t="s">
+        <v>398</v>
+      </c>
+      <c r="J36" s="189" t="s">
         <v>413</v>
       </c>
-      <c r="P23" s="186"/>
-      <c r="Q23" s="186"/>
-      <c r="R23" s="186"/>
-      <c r="S23" s="186"/>
-      <c r="T23" s="197" t="s">
-        <v>400</v>
-      </c>
-      <c r="U23" s="206" t="s">
+      <c r="K36" s="170"/>
+      <c r="L36" s="170"/>
+      <c r="M36" s="170"/>
+      <c r="N36" s="170"/>
+      <c r="O36" s="183" t="s">
+        <v>398</v>
+      </c>
+      <c r="P36" s="189" t="s">
         <v>413</v>
       </c>
-      <c r="V23" s="197" t="s">
-        <v>400</v>
-      </c>
-      <c r="W23" s="206" t="s">
+      <c r="Q36" s="183" t="s">
+        <v>398</v>
+      </c>
+      <c r="R36" s="189" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I24" s="192" t="s">
-        <v>388</v>
-      </c>
-      <c r="J24" s="189"/>
-      <c r="K24" s="182"/>
-      <c r="L24" s="182"/>
-      <c r="M24" s="182"/>
-      <c r="N24" s="195" t="s">
-        <v>400</v>
-      </c>
-      <c r="O24" s="207" t="s">
-        <v>414</v>
-      </c>
-      <c r="P24" s="182"/>
-      <c r="Q24" s="182"/>
-      <c r="R24" s="182"/>
-      <c r="S24" s="182"/>
-      <c r="T24" s="195" t="s">
-        <v>400</v>
-      </c>
-      <c r="U24" s="207" t="s">
-        <v>414</v>
-      </c>
-      <c r="V24" s="195" t="s">
-        <v>400</v>
-      </c>
-      <c r="W24" s="207" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="193" t="s">
-        <v>389</v>
-      </c>
-      <c r="J25" s="190"/>
-      <c r="K25" s="183"/>
-      <c r="L25" s="183"/>
-      <c r="M25" s="183"/>
-      <c r="N25" s="196" t="s">
-        <v>400</v>
-      </c>
-      <c r="O25" s="208" t="s">
-        <v>415</v>
-      </c>
-      <c r="P25" s="183"/>
-      <c r="Q25" s="183"/>
-      <c r="R25" s="183"/>
-      <c r="S25" s="183"/>
-      <c r="T25" s="196" t="s">
-        <v>400</v>
-      </c>
-      <c r="U25" s="208" t="s">
-        <v>415</v>
-      </c>
-      <c r="V25" s="196" t="s">
-        <v>400</v>
-      </c>
-      <c r="W25" s="208" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I27" s="198" t="s">
-        <v>396</v>
-      </c>
-      <c r="J27" s="199"/>
-      <c r="K27" s="199"/>
-      <c r="L27" s="199"/>
-      <c r="M27" s="199"/>
-      <c r="N27" s="199"/>
-      <c r="O27" s="199"/>
-      <c r="P27" s="199"/>
-      <c r="Q27" s="199"/>
-      <c r="R27" s="199"/>
-      <c r="S27" s="199"/>
-      <c r="T27" s="199"/>
-      <c r="U27" s="199"/>
-      <c r="V27" s="199"/>
-      <c r="W27" s="200"/>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I28" s="201" t="s">
-        <v>416</v>
-      </c>
-      <c r="J28" s="202"/>
-      <c r="K28" s="202"/>
-      <c r="L28" s="202"/>
-      <c r="M28" s="202"/>
-      <c r="N28" s="202"/>
-      <c r="O28" s="202"/>
-      <c r="P28" s="202"/>
-      <c r="Q28" s="202"/>
-      <c r="R28" s="202"/>
-      <c r="S28" s="202"/>
-      <c r="T28" s="202"/>
-      <c r="U28" s="202"/>
-      <c r="V28" s="202"/>
-      <c r="W28" s="203"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I29" s="191"/>
-      <c r="J29" s="210" t="s">
-        <v>394</v>
-      </c>
-      <c r="K29" s="204"/>
-      <c r="L29" s="204"/>
-      <c r="M29" s="204"/>
-      <c r="N29" s="187"/>
-      <c r="O29" s="218" t="s">
-        <v>402</v>
-      </c>
-      <c r="P29" s="204" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q29" s="204"/>
-      <c r="R29" s="204"/>
-      <c r="S29" s="204"/>
-      <c r="T29" s="188"/>
-      <c r="U29" s="218" t="s">
-        <v>402</v>
-      </c>
-      <c r="V29" s="221"/>
-      <c r="W29" s="222" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H30" s="209"/>
-      <c r="I30" s="214" t="s">
-        <v>385</v>
-      </c>
-      <c r="J30" s="211" t="s">
-        <v>390</v>
-      </c>
-      <c r="K30" s="205" t="s">
-        <v>391</v>
-      </c>
-      <c r="L30" s="205" t="s">
-        <v>392</v>
-      </c>
-      <c r="M30" s="205" t="s">
-        <v>395</v>
-      </c>
-      <c r="N30" s="216" t="s">
-        <v>398</v>
-      </c>
-      <c r="O30" s="219" t="s">
-        <v>403</v>
-      </c>
-      <c r="P30" s="205" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q30" s="205" t="s">
-        <v>391</v>
-      </c>
-      <c r="R30" s="205" t="s">
-        <v>392</v>
-      </c>
-      <c r="S30" s="205" t="s">
-        <v>395</v>
-      </c>
-      <c r="T30" s="216" t="s">
-        <v>398</v>
-      </c>
-      <c r="U30" s="219" t="s">
-        <v>403</v>
-      </c>
-      <c r="V30" s="216" t="s">
-        <v>401</v>
-      </c>
-      <c r="W30" s="223" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="209"/>
-      <c r="I31" s="215" t="s">
-        <v>386</v>
-      </c>
-      <c r="J31" s="212" t="s">
-        <v>393</v>
-      </c>
-      <c r="K31" s="213"/>
-      <c r="L31" s="213"/>
-      <c r="M31" s="213"/>
-      <c r="N31" s="217" t="s">
-        <v>399</v>
-      </c>
-      <c r="O31" s="220" t="s">
-        <v>404</v>
-      </c>
-      <c r="P31" s="213" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q31" s="213"/>
-      <c r="R31" s="213"/>
-      <c r="S31" s="213"/>
-      <c r="T31" s="217" t="s">
-        <v>399</v>
-      </c>
-      <c r="U31" s="220" t="s">
-        <v>404</v>
-      </c>
-      <c r="V31" s="217" t="s">
-        <v>408</v>
-      </c>
-      <c r="W31" s="224" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H32" s="209"/>
-      <c r="I32" s="194" t="s">
-        <v>387</v>
-      </c>
-      <c r="J32" s="71"/>
-      <c r="K32" s="186"/>
-      <c r="L32" s="186"/>
-      <c r="M32" s="186"/>
-      <c r="N32" s="197" t="s">
-        <v>400</v>
-      </c>
-      <c r="O32" s="206" t="s">
-        <v>413</v>
-      </c>
-      <c r="P32" s="186"/>
-      <c r="Q32" s="186"/>
-      <c r="R32" s="186"/>
-      <c r="S32" s="186"/>
-      <c r="T32" s="197" t="s">
-        <v>400</v>
-      </c>
-      <c r="U32" s="206" t="s">
-        <v>413</v>
-      </c>
-      <c r="V32" s="197" t="s">
-        <v>400</v>
-      </c>
-      <c r="W32" s="206" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="33" spans="8:23" x14ac:dyDescent="0.25">
-      <c r="H33" s="209"/>
-      <c r="I33" s="192" t="s">
-        <v>388</v>
-      </c>
-      <c r="J33" s="189"/>
-      <c r="K33" s="182"/>
-      <c r="L33" s="182"/>
-      <c r="M33" s="182"/>
-      <c r="N33" s="195" t="s">
-        <v>400</v>
-      </c>
-      <c r="O33" s="207" t="s">
-        <v>414</v>
-      </c>
-      <c r="P33" s="182"/>
-      <c r="Q33" s="182"/>
-      <c r="R33" s="182"/>
-      <c r="S33" s="182"/>
-      <c r="T33" s="195" t="s">
-        <v>400</v>
-      </c>
-      <c r="U33" s="207" t="s">
-        <v>414</v>
-      </c>
-      <c r="V33" s="195" t="s">
-        <v>400</v>
-      </c>
-      <c r="W33" s="207" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="34" spans="8:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H34" s="209"/>
-      <c r="I34" s="193" t="s">
-        <v>389</v>
-      </c>
-      <c r="J34" s="190"/>
-      <c r="K34" s="183"/>
-      <c r="L34" s="183"/>
-      <c r="M34" s="183"/>
-      <c r="N34" s="196" t="s">
-        <v>400</v>
-      </c>
-      <c r="O34" s="208" t="s">
-        <v>415</v>
-      </c>
-      <c r="P34" s="183"/>
-      <c r="Q34" s="183"/>
-      <c r="R34" s="183"/>
-      <c r="S34" s="183"/>
-      <c r="T34" s="196" t="s">
-        <v>400</v>
-      </c>
-      <c r="U34" s="208" t="s">
-        <v>415</v>
-      </c>
-      <c r="V34" s="196" t="s">
-        <v>400</v>
-      </c>
-      <c r="W34" s="208" t="s">
-        <v>412</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="I27:W27"/>
-    <mergeCell ref="I28:W28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="I19:W19"/>
-    <mergeCell ref="I18:W18"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="P22:S22"/>
+  <mergeCells count="16">
+    <mergeCell ref="C20:R20"/>
+    <mergeCell ref="C21:R21"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C31:D33"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="C29:R29"/>
+    <mergeCell ref="C30:R30"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="C22:D24"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5025FE7-4AD3-425C-B5F3-BA76CEF9320F}">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5025FE7-4AD3-425C-B5F3-BA76CEF9320F}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="238" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="145"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="146" t="s">
+      <c r="B1" s="239"/>
+      <c r="C1" s="240"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="243" t="s">
+        <v>418</v>
+      </c>
+      <c r="B2" s="241" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="C2" s="242" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="147" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="228" t="s">
+        <v>425</v>
+      </c>
+      <c r="B3" s="226" t="s">
         <v>347</v>
       </c>
-      <c r="B3" s="148"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="147" t="s">
+      <c r="C3" s="227"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="146" t="s">
+        <v>424</v>
+      </c>
+      <c r="B4" s="219" t="s">
         <v>348</v>
       </c>
-      <c r="B4" s="148"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="149" t="s">
+      <c r="C4" s="145"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="229" t="s">
+        <v>423</v>
+      </c>
+      <c r="B5" s="221" t="s">
         <v>349</v>
       </c>
-      <c r="B5" s="150"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="144" t="s">
+      <c r="C5" s="168"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="238" t="s">
         <v>350</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="145"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="146" t="s">
+      <c r="B6" s="239"/>
+      <c r="C6" s="239"/>
+      <c r="D6" s="240"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="243" t="s">
+        <v>418</v>
+      </c>
+      <c r="B7" s="241" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="C7" s="241" t="s">
         <v>352</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="D7" s="242" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="147" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="231" t="s">
+        <v>419</v>
+      </c>
+      <c r="B8" s="244" t="s">
+        <v>375</v>
+      </c>
+      <c r="C8" s="68" t="s">
         <v>353</v>
       </c>
-      <c r="B8" s="152" t="s">
+      <c r="D8" s="218" t="s">
         <v>354</v>
       </c>
-      <c r="C8" s="153" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="144" t="s">
+        <v>420</v>
+      </c>
+      <c r="B9" s="244" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" s="60" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="147"/>
-      <c r="B9" s="152" t="s">
+      <c r="D9" s="147" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="232" t="s">
+        <v>421</v>
+      </c>
+      <c r="B10" s="244" t="s">
+        <v>375</v>
+      </c>
+      <c r="C10" s="60" t="s">
         <v>356</v>
       </c>
-      <c r="C9" s="153" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="147"/>
-      <c r="B10" s="152" t="s">
+      <c r="D10" s="147" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="232" t="s">
+        <v>422</v>
+      </c>
+      <c r="B11" s="244" t="s">
+        <v>375</v>
+      </c>
+      <c r="C11" s="60" t="s">
         <v>357</v>
       </c>
-      <c r="C10" s="153" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="147"/>
-      <c r="B11" s="152" t="s">
+      <c r="D11" s="147" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="148" t="s">
         <v>358</v>
       </c>
-      <c r="C11" s="153" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="154" t="s">
+      <c r="B12" s="220"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="230"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="144" t="s">
+        <v>432</v>
+      </c>
+      <c r="B13" s="245" t="s">
         <v>359</v>
       </c>
-      <c r="B12" s="155"/>
-      <c r="C12" s="156"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="147" t="s">
+      <c r="C13" s="60" t="s">
         <v>360</v>
       </c>
-      <c r="B13" s="152" t="s">
+      <c r="D13" s="147" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="144" t="s">
+        <v>433</v>
+      </c>
+      <c r="B14" s="245" t="s">
+        <v>359</v>
+      </c>
+      <c r="C14" s="60" t="s">
         <v>361</v>
       </c>
-      <c r="C13" s="157" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="147"/>
-      <c r="B14" s="152" t="s">
+      <c r="D14" s="147" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="148" t="s">
+        <v>358</v>
+      </c>
+      <c r="B15" s="220"/>
+      <c r="C15" s="220"/>
+      <c r="D15" s="230"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="144" t="s">
+        <v>428</v>
+      </c>
+      <c r="B16" s="245" t="s">
         <v>362</v>
       </c>
-      <c r="C14" s="158"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="154" t="s">
-        <v>359</v>
-      </c>
-      <c r="B15" s="155"/>
-      <c r="C15" s="156"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="147" t="s">
-        <v>363</v>
-      </c>
-      <c r="B16" s="152"/>
-      <c r="C16" s="159" t="b">
+      <c r="C16" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="233" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="144" t="s">
+        <v>427</v>
+      </c>
+      <c r="B17" s="245" t="s">
+        <v>362</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="233" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="147"/>
-      <c r="B17" s="152"/>
-      <c r="C17" s="159" t="b">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="144" t="s">
+        <v>429</v>
+      </c>
+      <c r="B18" s="246" t="s">
+        <v>362</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>426</v>
+      </c>
+      <c r="D18" s="233" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="160"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="162" t="b">
-        <v>0</v>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="236" t="s">
+        <v>358</v>
+      </c>
+      <c r="B19" s="234"/>
+      <c r="C19" s="234"/>
+      <c r="D19" s="235"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="237" t="s">
+        <v>431</v>
+      </c>
+      <c r="B20" s="247" t="s">
+        <v>430</v>
+      </c>
+      <c r="C20" s="248"/>
+      <c r="D20" s="171">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A15:C15"/>
+  <mergeCells count="6">
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="6145" r:id="rId3" name="Check Box 1">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>609600</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>1009650</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="6146" r:id="rId4" name="Check Box 2">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>609600</xdr:colOff>
-                    <xdr:row>16</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>1009650</xdr:colOff>
-                    <xdr:row>16</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="6147" r:id="rId5" name="Check Box 3">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>609600</xdr:colOff>
-                    <xdr:row>17</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>1009650</xdr:colOff>
-                    <xdr:row>17</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -20537,7 +20549,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB1" sqref="AB1:AG1"/>
+      <selection pane="topRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20659,52 +20671,52 @@
       <c r="Q2" s="99" t="s">
         <v>321</v>
       </c>
-      <c r="R2" s="163" t="s">
+      <c r="R2" s="149" t="s">
         <v>334</v>
       </c>
-      <c r="S2" s="164" t="s">
+      <c r="S2" s="150" t="s">
         <v>333</v>
       </c>
-      <c r="T2" s="164" t="s">
+      <c r="T2" s="150" t="s">
         <v>331</v>
       </c>
-      <c r="U2" s="164" t="s">
+      <c r="U2" s="150" t="s">
         <v>330</v>
       </c>
-      <c r="V2" s="165" t="s">
+      <c r="V2" s="151" t="s">
         <v>332</v>
       </c>
-      <c r="W2" s="166" t="s">
+      <c r="W2" s="152" t="s">
         <v>335</v>
       </c>
-      <c r="X2" s="164" t="s">
+      <c r="X2" s="150" t="s">
         <v>324</v>
       </c>
-      <c r="Y2" s="164" t="s">
+      <c r="Y2" s="150" t="s">
         <v>325</v>
       </c>
-      <c r="Z2" s="164" t="s">
+      <c r="Z2" s="150" t="s">
         <v>326</v>
       </c>
-      <c r="AA2" s="167" t="s">
+      <c r="AA2" s="153" t="s">
         <v>327</v>
       </c>
-      <c r="AB2" s="163" t="s">
+      <c r="AB2" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="AC2" s="164" t="s">
+      <c r="AC2" s="150" t="s">
         <v>162</v>
       </c>
-      <c r="AD2" s="164" t="s">
+      <c r="AD2" s="150" t="s">
         <v>322</v>
       </c>
-      <c r="AE2" s="164" t="s">
+      <c r="AE2" s="150" t="s">
         <v>163</v>
       </c>
-      <c r="AF2" s="164" t="s">
+      <c r="AF2" s="150" t="s">
         <v>164</v>
       </c>
-      <c r="AG2" s="167" t="s">
+      <c r="AG2" s="153" t="s">
         <v>323</v>
       </c>
     </row>
@@ -20722,7 +20734,7 @@
         <v>68</v>
       </c>
       <c r="E3" s="88" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F3" s="87" t="s">
         <v>8</v>
@@ -20776,7 +20788,7 @@
         <v>68</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F4" s="83" t="s">
         <v>8</v>
@@ -26033,8 +26045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30EC27B-2E93-4144-8490-FDCCDA7D8747}">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/third_times_a_charm/excel_to_empty_report/Engineering Report Test Parameter List 6-2025 Arrays.xlsx
+++ b/third_times_a_charm/excel_to_empty_report/Engineering Report Test Parameter List 6-2025 Arrays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enfxm\Desktop\Python Testing\Test Report Template\Test-Report-Generator\third_times_a_charm\excel_to_empty_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6996FAB6-3452-47B2-8F99-F5F631740B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1095668F-A17C-4EFE-9E7E-A46AE5992FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="771" activeTab="2" xr2:uid="{F97DC384-B943-4F3B-9436-FF2DE7277B38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="771" firstSheet="5" activeTab="8" xr2:uid="{F97DC384-B943-4F3B-9436-FF2DE7277B38}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Definitions (3)" sheetId="15" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="484">
   <si>
     <t>Test Item</t>
   </si>
@@ -1281,9 +1281,6 @@
     <t>Input Voltage</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
     <t>Values</t>
   </si>
   <si>
@@ -1327,9 +1324,6 @@
   </si>
   <si>
     <t>Result_Name (Result_Units)</t>
-  </si>
-  <si>
-    <t>C_Name (C_Unit)</t>
   </si>
   <si>
     <t>C_VAL4</t>
@@ -1454,13 +1448,171 @@
   </si>
   <si>
     <t>iout_H</t>
+  </si>
+  <si>
+    <t>C_Name1 (C_Unit)</t>
+  </si>
+  <si>
+    <t>C_Name2 (C_Unit)</t>
+  </si>
+  <si>
+    <t>*from cover page</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>P/F</t>
+  </si>
+  <si>
+    <t>min/max/neither</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>table cond</t>
+  </si>
+  <si>
+    <t>col/spec name</t>
+  </si>
+  <si>
+    <t>R_Name2
+(R_Unit2)</t>
+  </si>
+  <si>
+    <t>R_Name1
+(R_Unit1)</t>
+  </si>
+  <si>
+    <t>TC_Name21 = TC_Value21 (TC_Unit21), TC_Name22 = TC_Value22 (TC_Unit22)</t>
+  </si>
+  <si>
+    <t>C_VAL[1][1]</t>
+  </si>
+  <si>
+    <t>C_VAL[1][2]</t>
+  </si>
+  <si>
+    <t>C_VAL[1][3]</t>
+  </si>
+  <si>
+    <t>C_VAL[1][4]</t>
+  </si>
+  <si>
+    <t>C_VAL[2][1]</t>
+  </si>
+  <si>
+    <t>C_VAL[2][2]</t>
+  </si>
+  <si>
+    <t>C_VAL[2][3]</t>
+  </si>
+  <si>
+    <t>C_VAL[2][4]</t>
+  </si>
+  <si>
+    <t>Output Current (A)</t>
+  </si>
+  <si>
+    <t>Input Current (A)</t>
+  </si>
+  <si>
+    <t>Input Voltage (Vac)</t>
+  </si>
+  <si>
+    <t>c_name (units)</t>
+  </si>
+  <si>
+    <t>row_name</t>
+  </si>
+  <si>
+    <t>row_val1</t>
+  </si>
+  <si>
+    <t>row_val2</t>
+  </si>
+  <si>
+    <t>row_val3</t>
+  </si>
+  <si>
+    <t>col_name</t>
+  </si>
+  <si>
+    <t>col_val1</t>
+  </si>
+  <si>
+    <t>col_val2</t>
+  </si>
+  <si>
+    <t>col_val3</t>
+  </si>
+  <si>
+    <t>result_name</t>
+  </si>
+  <si>
+    <t>spec_name</t>
+  </si>
+  <si>
+    <t>calc_name</t>
+  </si>
+  <si>
+    <t>h(x)</t>
+  </si>
+  <si>
+    <t>g(x)</t>
+  </si>
+  <si>
+    <t>Specification % Deviation (%ΔV, max)</t>
+  </si>
+  <si>
+    <t>Specification t_recovery (Δt, max)</t>
+  </si>
+  <si>
+    <t>CFG_GND</t>
+  </si>
+  <si>
+    <t>Specification Output Touch Current (uA, max)</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>CA1</t>
+  </si>
+  <si>
+    <t>SP1</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>4-Point Efficiency (%)</t>
+  </si>
+  <si>
+    <t>Specification 4-point Efficiency (%, min)</t>
+  </si>
+  <si>
+    <t>\-&gt;C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">either simple equation referencing columns, or connecting to specific condition to do an equation with all the </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1541,8 +1693,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3B3B3B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1627,8 +1792,92 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="83">
+  <borders count="92">
     <border>
       <left/>
       <right/>
@@ -2425,6 +2674,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -2676,6 +2940,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2686,11 +2963,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="399">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2949,6 +3311,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3016,9 +3390,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3133,6 +3504,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3144,7 +3518,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3154,15 +3531,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3187,86 +3564,86 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -3277,20 +3654,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3305,19 +3686,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3326,15 +3713,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3347,9 +3737,407 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="63" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="77" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="79" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="18" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="25" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13697,8 +14485,8 @@
   <dimension ref="A1:AP41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13728,46 +14516,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="120.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="108"/>
-      <c r="F1" s="104" t="s">
+      <c r="E1" s="112"/>
+      <c r="F1" s="108" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="104" t="s">
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="108" t="s">
         <v>328</v>
       </c>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="104" t="s">
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="108" t="s">
         <v>343</v>
       </c>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="109" t="s">
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="113" t="s">
         <v>337</v>
       </c>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="108"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="112"/>
       <c r="AH1"/>
     </row>
     <row r="2" spans="1:42" s="9" customFormat="1" ht="61.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13820,57 +14608,57 @@
       <c r="Q2" s="99" t="s">
         <v>321</v>
       </c>
-      <c r="R2" s="149" t="s">
+      <c r="R2" s="152" t="s">
         <v>334</v>
       </c>
-      <c r="S2" s="150" t="s">
+      <c r="S2" s="153" t="s">
         <v>333</v>
       </c>
-      <c r="T2" s="150" t="s">
+      <c r="T2" s="153" t="s">
         <v>331</v>
       </c>
-      <c r="U2" s="150" t="s">
+      <c r="U2" s="153" t="s">
         <v>330</v>
       </c>
-      <c r="V2" s="151" t="s">
+      <c r="V2" s="154" t="s">
         <v>332</v>
       </c>
-      <c r="W2" s="152" t="s">
+      <c r="W2" s="155" t="s">
         <v>335</v>
       </c>
-      <c r="X2" s="150" t="s">
+      <c r="X2" s="153" t="s">
         <v>324</v>
       </c>
-      <c r="Y2" s="150" t="s">
+      <c r="Y2" s="153" t="s">
         <v>325</v>
       </c>
-      <c r="Z2" s="150" t="s">
+      <c r="Z2" s="153" t="s">
         <v>326</v>
       </c>
-      <c r="AA2" s="153" t="s">
+      <c r="AA2" s="156" t="s">
         <v>327</v>
       </c>
-      <c r="AB2" s="149" t="s">
+      <c r="AB2" s="152" t="s">
         <v>161</v>
       </c>
-      <c r="AC2" s="150" t="s">
+      <c r="AC2" s="153" t="s">
         <v>162</v>
       </c>
-      <c r="AD2" s="150" t="s">
+      <c r="AD2" s="153" t="s">
         <v>322</v>
       </c>
-      <c r="AE2" s="150" t="s">
+      <c r="AE2" s="153" t="s">
         <v>163</v>
       </c>
-      <c r="AF2" s="150" t="s">
+      <c r="AF2" s="153" t="s">
         <v>164</v>
       </c>
-      <c r="AG2" s="153" t="s">
+      <c r="AG2" s="156" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="115" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="71" t="b">
@@ -13926,7 +14714,7 @@
       <c r="AH3"/>
     </row>
     <row r="4" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="112"/>
+      <c r="A4" s="116"/>
       <c r="B4" s="70" t="b">
         <v>1</v>
       </c>
@@ -13980,7 +14768,7 @@
       <c r="AH4"/>
     </row>
     <row r="5" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="112"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="70" t="b">
         <v>0</v>
       </c>
@@ -14034,7 +14822,7 @@
       <c r="AH5"/>
     </row>
     <row r="6" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="112"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="70" t="b">
         <v>0</v>
       </c>
@@ -14092,7 +14880,7 @@
       <c r="AH6"/>
     </row>
     <row r="7" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="113"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="70" t="b">
         <v>0</v>
       </c>
@@ -14146,7 +14934,7 @@
       <c r="AH7"/>
     </row>
     <row r="8" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="118" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="70" t="b">
@@ -14202,7 +14990,7 @@
       <c r="AH8"/>
     </row>
     <row r="9" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="112"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="70" t="b">
         <v>0</v>
       </c>
@@ -14264,7 +15052,7 @@
       <c r="AH9"/>
     </row>
     <row r="10" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="112"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="70" t="b">
         <v>0</v>
       </c>
@@ -14326,7 +15114,7 @@
       <c r="AH10"/>
     </row>
     <row r="11" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="112"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="70" t="b">
         <v>0</v>
       </c>
@@ -14384,7 +15172,7 @@
       <c r="AH11"/>
     </row>
     <row r="12" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="112"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="70" t="b">
         <v>0</v>
       </c>
@@ -14447,7 +15235,7 @@
       <c r="AH12"/>
     </row>
     <row r="13" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="112"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="70" t="b">
         <v>0</v>
       </c>
@@ -14510,7 +15298,7 @@
       <c r="AH13"/>
     </row>
     <row r="14" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="112"/>
+      <c r="A14" s="116"/>
       <c r="B14" s="70"/>
       <c r="C14" s="13" t="s">
         <v>41</v>
@@ -14569,7 +15357,7 @@
       </c>
     </row>
     <row r="15" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="113"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="70"/>
       <c r="C15" s="78" t="s">
         <v>43</v>
@@ -14621,7 +15409,7 @@
       <c r="AH15"/>
     </row>
     <row r="16" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="118" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="70" t="b">
@@ -14679,7 +15467,7 @@
       <c r="AH16"/>
     </row>
     <row r="17" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="112"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="70" t="b">
         <v>0</v>
       </c>
@@ -14737,7 +15525,7 @@
       <c r="AH17"/>
     </row>
     <row r="18" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="112"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="70" t="b">
         <v>0</v>
       </c>
@@ -14791,7 +15579,7 @@
       <c r="AH18"/>
     </row>
     <row r="19" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="112"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="70" t="b">
         <v>0</v>
       </c>
@@ -14841,7 +15629,7 @@
       <c r="AH19"/>
     </row>
     <row r="20" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="113"/>
+      <c r="A20" s="117"/>
       <c r="B20" s="70"/>
       <c r="C20" s="78" t="s">
         <v>50</v>
@@ -14897,7 +15685,7 @@
       <c r="AH20"/>
     </row>
     <row r="21" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="115" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="70"/>
@@ -14951,7 +15739,7 @@
       <c r="AH21"/>
     </row>
     <row r="22" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="112"/>
+      <c r="A22" s="116"/>
       <c r="B22" s="70"/>
       <c r="C22" s="13" t="s">
         <v>60</v>
@@ -15007,7 +15795,7 @@
       <c r="AH22"/>
     </row>
     <row r="23" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="115"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="70"/>
       <c r="C23" s="80" t="s">
         <v>61</v>
@@ -15063,7 +15851,7 @@
       <c r="AH23"/>
     </row>
     <row r="24" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="141" t="s">
+      <c r="A24" s="144" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="70"/>
@@ -15135,7 +15923,7 @@
       <c r="AH24"/>
     </row>
     <row r="25" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="142"/>
+      <c r="A25" s="145"/>
       <c r="B25" s="70"/>
       <c r="C25" s="13" t="s">
         <v>65</v>
@@ -15205,7 +15993,7 @@
       <c r="AH25"/>
     </row>
     <row r="26" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="142"/>
+      <c r="A26" s="145"/>
       <c r="B26" s="70"/>
       <c r="C26" s="13" t="s">
         <v>88</v>
@@ -15269,7 +16057,7 @@
       <c r="AH26"/>
     </row>
     <row r="27" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="142"/>
+      <c r="A27" s="145"/>
       <c r="B27" s="70" t="b">
         <v>0</v>
       </c>
@@ -15335,7 +16123,7 @@
       <c r="AH27"/>
     </row>
     <row r="28" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="142"/>
+      <c r="A28" s="145"/>
       <c r="B28" s="70"/>
       <c r="C28" s="13" t="s">
         <v>82</v>
@@ -15395,7 +16183,7 @@
       <c r="AH28"/>
     </row>
     <row r="29" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="143"/>
+      <c r="A29" s="146"/>
       <c r="B29" s="70" t="b">
         <v>0</v>
       </c>
@@ -16556,17 +17344,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B79AD87-3375-45AC-BDAF-4A8B55D7568E}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
@@ -16618,34 +17408,34 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="121"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="125"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="137" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="134"/>
+      <c r="C12" s="137"/>
       <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
-      <c r="B13" s="126" t="s">
+      <c r="B13" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="126"/>
+      <c r="C13" s="130"/>
       <c r="D13" s="21" t="s">
         <v>168</v>
       </c>
@@ -16666,10 +17456,10 @@
       <c r="A15" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="133" t="s">
+      <c r="B15" s="136" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="133"/>
+      <c r="C15" s="136"/>
       <c r="D15" s="28" t="s">
         <v>186</v>
       </c>
@@ -16759,24 +17549,24 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G26" s="119" t="s">
+      <c r="G26" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="121"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="125"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G27" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="131" t="s">
+      <c r="H27" s="134" t="s">
         <v>187</v>
       </c>
-      <c r="I27" s="131"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="132"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="134"/>
+      <c r="K27" s="135"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G28" s="34"/>
@@ -16845,7 +17635,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G33" s="50" t="s">
         <v>178</v>
       </c>
@@ -16862,7 +17652,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G34" s="50" t="s">
         <v>179</v>
       </c>
@@ -16879,7 +17669,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G35" s="50" t="s">
         <v>180</v>
       </c>
@@ -16896,7 +17686,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G36" s="50" t="s">
         <v>181</v>
       </c>
@@ -16913,7 +17703,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G37" s="51" t="s">
         <v>182</v>
       </c>
@@ -16930,8 +17720,173 @@
         <v>169</v>
       </c>
     </row>
+    <row r="43" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="366" t="s">
+        <v>472</v>
+      </c>
+      <c r="C44" s="357" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="352" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="361" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="354" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="358" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="350" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" s="362" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="355"/>
+      <c r="C46" s="359" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" s="363" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="355"/>
+      <c r="C47" s="359" t="s">
+        <v>179</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" s="363" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="355"/>
+      <c r="C48" s="359" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E48" s="363" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="355"/>
+      <c r="C49" s="359" t="s">
+        <v>181</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="363" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="356"/>
+      <c r="C50" s="360" t="s">
+        <v>182</v>
+      </c>
+      <c r="D50" s="351" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" s="364" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="354" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="358" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="350" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" s="362" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="355"/>
+      <c r="C52" s="359" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E52" s="363" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="355"/>
+      <c r="C53" s="359" t="s">
+        <v>179</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E53" s="363" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="355"/>
+      <c r="C54" s="359" t="s">
+        <v>180</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E54" s="363" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="355"/>
+      <c r="C55" s="359" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="363" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="356"/>
+      <c r="C56" s="360" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" s="351" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" s="364" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B51:B56"/>
     <mergeCell ref="G26:K26"/>
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="B10:D10"/>
@@ -16940,6 +17895,7 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B12:C12"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -17009,34 +17965,34 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="121"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="125"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="137" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="134"/>
+      <c r="C12" s="137"/>
       <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
-      <c r="B13" s="126" t="s">
+      <c r="B13" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="126"/>
+      <c r="C13" s="130"/>
       <c r="D13" s="21" t="s">
         <v>168</v>
       </c>
@@ -17057,10 +18013,10 @@
       <c r="A15" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="133" t="s">
+      <c r="B15" s="136" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="133"/>
+      <c r="C15" s="136"/>
       <c r="D15" s="28" t="s">
         <v>186</v>
       </c>
@@ -17150,13 +18106,13 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G26" s="119" t="s">
+      <c r="G26" s="123" t="s">
         <v>363</v>
       </c>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="121"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="125"/>
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="G27" s="34" t="s">
@@ -17165,13 +18121,13 @@
       <c r="H27" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="I27" s="154" t="s">
+      <c r="I27" s="157" t="s">
         <v>364</v>
       </c>
       <c r="J27" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="K27" s="154" t="s">
+      <c r="K27" s="157" t="s">
         <v>364</v>
       </c>
     </row>
@@ -17295,33 +18251,33 @@
       </c>
     </row>
     <row r="38" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G38" s="119" t="s">
+      <c r="G38" s="123" t="s">
         <v>365</v>
       </c>
-      <c r="H38" s="120"/>
-      <c r="I38" s="120"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="124"/>
     </row>
     <row r="39" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G39" s="34" t="s">
         <v>66</v>
       </c>
       <c r="H39" s="35"/>
-      <c r="I39" s="154"/>
+      <c r="I39" s="157"/>
     </row>
     <row r="40" spans="7:11" ht="45" x14ac:dyDescent="0.25">
       <c r="G40" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="H40" s="155" t="s">
+      <c r="H40" s="158" t="s">
         <v>188</v>
       </c>
-      <c r="I40" s="158" t="s">
+      <c r="I40" s="161" t="s">
         <v>366</v>
       </c>
-      <c r="J40" s="157" t="s">
+      <c r="J40" s="160" t="s">
         <v>188</v>
       </c>
-      <c r="K40" s="156" t="s">
+      <c r="K40" s="159" t="s">
         <v>366</v>
       </c>
     </row>
@@ -17428,12 +18384,12 @@
       </c>
     </row>
     <row r="48" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G48" s="119"/>
-      <c r="H48" s="120"/>
-      <c r="I48" s="120"/>
+      <c r="G48" s="123"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="124"/>
     </row>
     <row r="49" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G49" s="157"/>
+      <c r="G49" s="160"/>
     </row>
     <row r="50" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G50" s="50"/>
@@ -17471,10 +18427,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99D9526-7311-4214-9AE3-0C9B31845C56}">
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:K17"/>
+    <sheetView topLeftCell="H11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17487,14 +18443,19 @@
     <col min="8" max="9" width="22.28515625" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>79</v>
       </c>
@@ -17505,21 +18466,21 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>191</v>
       </c>
@@ -17530,7 +18491,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" t="s">
         <v>20</v>
@@ -17542,10 +18503,10 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>192</v>
       </c>
@@ -17553,17 +18514,17 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>225</v>
       </c>
@@ -17577,45 +18538,59 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="135" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="136"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="137"/>
-      <c r="G16" s="135" t="s">
+      <c r="B16" s="139"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="140"/>
+      <c r="G16" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="136"/>
-      <c r="K16" s="137"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="138" t="s">
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="140"/>
+      <c r="O16" s="138" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="139"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="140"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="141" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
-      <c r="G17" s="138" t="s">
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="143"/>
+      <c r="G17" s="141" t="s">
         <v>210</v>
       </c>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="140"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="143"/>
+      <c r="O17" s="141" t="s">
+        <v>210</v>
+      </c>
+      <c r="P17" s="142"/>
+      <c r="Q17" s="142"/>
+      <c r="R17" s="142"/>
+      <c r="S17" s="143"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
         <v>66</v>
       </c>
@@ -17630,8 +18605,15 @@
       <c r="I18" s="46"/>
       <c r="J18" s="40"/>
       <c r="K18" s="46"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O18" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="46"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="39"/>
       <c r="C19" s="21" t="s">
@@ -17650,8 +18632,17 @@
       <c r="K19" s="21" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O19" s="20"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="R19" s="39"/>
+      <c r="S19" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="42"/>
       <c r="C20" s="26" t="s">
@@ -17670,8 +18661,17 @@
       <c r="K20" s="26" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O20" s="18"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="R20" s="42"/>
+      <c r="S20" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
         <v>194</v>
       </c>
@@ -17702,8 +18702,23 @@
       <c r="K21" s="28" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O21" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="P21" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q21" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="R21" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="S21" s="28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
         <v>195</v>
       </c>
@@ -17734,8 +18749,23 @@
       <c r="K22" s="44">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O22" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q22" s="44">
+        <v>3</v>
+      </c>
+      <c r="R22" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="S22" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
         <v>195</v>
       </c>
@@ -17766,8 +18796,23 @@
       <c r="K23" s="44">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O23" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q23" s="44">
+        <v>3</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="S23" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
         <v>196</v>
       </c>
@@ -17798,8 +18843,23 @@
       <c r="K24" s="44">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O24" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q24" s="44">
+        <v>3</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="S24" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>195</v>
       </c>
@@ -17830,40 +18890,55 @@
       <c r="K25" s="44">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="135" t="s">
+      <c r="O25" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q25" s="44">
+        <v>3</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="S25" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="136"/>
-      <c r="C28" s="136"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="137"/>
-      <c r="G28" s="135" t="s">
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="140"/>
+      <c r="G28" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="137"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="138" t="s">
+      <c r="H28" s="139"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="140"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="141" t="s">
         <v>211</v>
       </c>
-      <c r="B29" s="139"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="140"/>
-      <c r="G29" s="138" t="s">
+      <c r="B29" s="142"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="143"/>
+      <c r="G29" s="141" t="s">
         <v>212</v>
       </c>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="140"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H29" s="142"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="143"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
         <v>66</v>
       </c>
@@ -17879,7 +18954,7 @@
       <c r="J30" s="40"/>
       <c r="K30" s="46"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="39"/>
       <c r="C31" s="21" t="s">
@@ -17899,7 +18974,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="42"/>
       <c r="C32" s="26" t="s">
@@ -18080,36 +19155,36 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="135" t="s">
+      <c r="A39" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="136"/>
-      <c r="C39" s="136"/>
-      <c r="D39" s="136"/>
-      <c r="E39" s="137"/>
-      <c r="G39" s="135" t="s">
+      <c r="B39" s="139"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="140"/>
+      <c r="G39" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="136"/>
-      <c r="I39" s="136"/>
-      <c r="J39" s="136"/>
-      <c r="K39" s="137"/>
+      <c r="H39" s="139"/>
+      <c r="I39" s="139"/>
+      <c r="J39" s="139"/>
+      <c r="K39" s="140"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="138" t="s">
+      <c r="A40" s="141" t="s">
         <v>213</v>
       </c>
-      <c r="B40" s="139"/>
-      <c r="C40" s="139"/>
-      <c r="D40" s="139"/>
-      <c r="E40" s="140"/>
-      <c r="G40" s="138" t="s">
+      <c r="B40" s="142"/>
+      <c r="C40" s="142"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="143"/>
+      <c r="G40" s="141" t="s">
         <v>214</v>
       </c>
-      <c r="H40" s="139"/>
-      <c r="I40" s="139"/>
-      <c r="J40" s="139"/>
-      <c r="K40" s="140"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="142"/>
+      <c r="K40" s="143"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="34" t="s">
@@ -18328,36 +19403,36 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="135" t="s">
+      <c r="A50" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="136"/>
-      <c r="C50" s="136"/>
-      <c r="D50" s="136"/>
-      <c r="E50" s="137"/>
-      <c r="G50" s="135" t="s">
+      <c r="B50" s="139"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="140"/>
+      <c r="G50" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="H50" s="136"/>
-      <c r="I50" s="136"/>
-      <c r="J50" s="136"/>
-      <c r="K50" s="137"/>
+      <c r="H50" s="139"/>
+      <c r="I50" s="139"/>
+      <c r="J50" s="139"/>
+      <c r="K50" s="140"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="138" t="s">
+      <c r="A51" s="141" t="s">
         <v>215</v>
       </c>
-      <c r="B51" s="139"/>
-      <c r="C51" s="139"/>
-      <c r="D51" s="139"/>
-      <c r="E51" s="140"/>
-      <c r="G51" s="138" t="s">
+      <c r="B51" s="142"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="142"/>
+      <c r="E51" s="143"/>
+      <c r="G51" s="141" t="s">
         <v>216</v>
       </c>
-      <c r="H51" s="139"/>
-      <c r="I51" s="139"/>
-      <c r="J51" s="139"/>
-      <c r="K51" s="140"/>
+      <c r="H51" s="142"/>
+      <c r="I51" s="142"/>
+      <c r="J51" s="142"/>
+      <c r="K51" s="143"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="34" t="s">
@@ -18576,36 +19651,36 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="135" t="s">
+      <c r="A62" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="136"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="136"/>
-      <c r="E62" s="137"/>
-      <c r="G62" s="135" t="s">
+      <c r="B62" s="139"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="140"/>
+      <c r="G62" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="H62" s="136"/>
-      <c r="I62" s="136"/>
-      <c r="J62" s="136"/>
-      <c r="K62" s="137"/>
+      <c r="H62" s="139"/>
+      <c r="I62" s="139"/>
+      <c r="J62" s="139"/>
+      <c r="K62" s="140"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="138" t="s">
+      <c r="A63" s="141" t="s">
         <v>217</v>
       </c>
-      <c r="B63" s="139"/>
-      <c r="C63" s="139"/>
-      <c r="D63" s="139"/>
-      <c r="E63" s="140"/>
-      <c r="G63" s="138" t="s">
+      <c r="B63" s="142"/>
+      <c r="C63" s="142"/>
+      <c r="D63" s="142"/>
+      <c r="E63" s="143"/>
+      <c r="G63" s="141" t="s">
         <v>218</v>
       </c>
-      <c r="H63" s="139"/>
-      <c r="I63" s="139"/>
-      <c r="J63" s="139"/>
-      <c r="K63" s="140"/>
+      <c r="H63" s="142"/>
+      <c r="I63" s="142"/>
+      <c r="J63" s="142"/>
+      <c r="K63" s="143"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="34" t="s">
@@ -18824,36 +19899,36 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="135" t="s">
+      <c r="A74" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="B74" s="136"/>
-      <c r="C74" s="136"/>
-      <c r="D74" s="136"/>
-      <c r="E74" s="137"/>
-      <c r="G74" s="135" t="s">
+      <c r="B74" s="139"/>
+      <c r="C74" s="139"/>
+      <c r="D74" s="139"/>
+      <c r="E74" s="140"/>
+      <c r="G74" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="H74" s="136"/>
-      <c r="I74" s="136"/>
-      <c r="J74" s="136"/>
-      <c r="K74" s="137"/>
+      <c r="H74" s="139"/>
+      <c r="I74" s="139"/>
+      <c r="J74" s="139"/>
+      <c r="K74" s="140"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="138" t="s">
+      <c r="A75" s="141" t="s">
         <v>220</v>
       </c>
-      <c r="B75" s="139"/>
-      <c r="C75" s="139"/>
-      <c r="D75" s="139"/>
-      <c r="E75" s="140"/>
-      <c r="G75" s="138" t="s">
+      <c r="B75" s="142"/>
+      <c r="C75" s="142"/>
+      <c r="D75" s="142"/>
+      <c r="E75" s="143"/>
+      <c r="G75" s="141" t="s">
         <v>219</v>
       </c>
-      <c r="H75" s="139"/>
-      <c r="I75" s="139"/>
-      <c r="J75" s="139"/>
-      <c r="K75" s="140"/>
+      <c r="H75" s="142"/>
+      <c r="I75" s="142"/>
+      <c r="J75" s="142"/>
+      <c r="K75" s="143"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="34" t="s">
@@ -19072,36 +20147,36 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="135" t="s">
+      <c r="A85" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="B85" s="136"/>
-      <c r="C85" s="136"/>
-      <c r="D85" s="136"/>
-      <c r="E85" s="137"/>
-      <c r="G85" s="135" t="s">
+      <c r="B85" s="139"/>
+      <c r="C85" s="139"/>
+      <c r="D85" s="139"/>
+      <c r="E85" s="140"/>
+      <c r="G85" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="H85" s="136"/>
-      <c r="I85" s="136"/>
-      <c r="J85" s="136"/>
-      <c r="K85" s="137"/>
+      <c r="H85" s="139"/>
+      <c r="I85" s="139"/>
+      <c r="J85" s="139"/>
+      <c r="K85" s="140"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="138" t="s">
+      <c r="A86" s="141" t="s">
         <v>221</v>
       </c>
-      <c r="B86" s="139"/>
-      <c r="C86" s="139"/>
-      <c r="D86" s="139"/>
-      <c r="E86" s="140"/>
-      <c r="G86" s="138" t="s">
+      <c r="B86" s="142"/>
+      <c r="C86" s="142"/>
+      <c r="D86" s="142"/>
+      <c r="E86" s="143"/>
+      <c r="G86" s="141" t="s">
         <v>222</v>
       </c>
-      <c r="H86" s="139"/>
-      <c r="I86" s="139"/>
-      <c r="J86" s="139"/>
-      <c r="K86" s="140"/>
+      <c r="H86" s="142"/>
+      <c r="I86" s="142"/>
+      <c r="J86" s="142"/>
+      <c r="K86" s="143"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="34" t="s">
@@ -19320,36 +20395,36 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="135" t="s">
+      <c r="A96" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="B96" s="136"/>
-      <c r="C96" s="136"/>
-      <c r="D96" s="136"/>
-      <c r="E96" s="137"/>
-      <c r="G96" s="135" t="s">
+      <c r="B96" s="139"/>
+      <c r="C96" s="139"/>
+      <c r="D96" s="139"/>
+      <c r="E96" s="140"/>
+      <c r="G96" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="H96" s="136"/>
-      <c r="I96" s="136"/>
-      <c r="J96" s="136"/>
-      <c r="K96" s="137"/>
+      <c r="H96" s="139"/>
+      <c r="I96" s="139"/>
+      <c r="J96" s="139"/>
+      <c r="K96" s="140"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="138" t="s">
+      <c r="A97" s="141" t="s">
         <v>223</v>
       </c>
-      <c r="B97" s="139"/>
-      <c r="C97" s="139"/>
-      <c r="D97" s="139"/>
-      <c r="E97" s="140"/>
-      <c r="G97" s="138" t="s">
+      <c r="B97" s="142"/>
+      <c r="C97" s="142"/>
+      <c r="D97" s="142"/>
+      <c r="E97" s="143"/>
+      <c r="G97" s="141" t="s">
         <v>224</v>
       </c>
-      <c r="H97" s="139"/>
-      <c r="I97" s="139"/>
-      <c r="J97" s="139"/>
-      <c r="K97" s="140"/>
+      <c r="H97" s="142"/>
+      <c r="I97" s="142"/>
+      <c r="J97" s="142"/>
+      <c r="K97" s="143"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="34" t="s">
@@ -19568,7 +20643,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="35">
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="O17:S17"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A63:E63"/>
@@ -19610,678 +20687,942 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0245BEA6-77AE-458A-98C6-B34309021EAD}">
-  <dimension ref="A2:R36"/>
+  <dimension ref="A2:Y50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="G10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20:Y36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="163" t="s">
         <v>368</v>
       </c>
-      <c r="B2" s="161" t="s">
-        <v>374</v>
-      </c>
-      <c r="C2" s="161" t="s">
+      <c r="B2" s="164" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" s="164" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" s="164" t="s">
         <v>376</v>
       </c>
-      <c r="D2" s="161" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="164" t="s">
+      <c r="C3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="167" t="s">
         <v>369</v>
       </c>
-      <c r="B5" s="165" t="s">
+      <c r="B5" s="168" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" s="168" t="s">
         <v>378</v>
       </c>
-      <c r="C5" s="165" t="s">
+      <c r="D5" s="168" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="165" t="s">
+        <v>370</v>
+      </c>
+      <c r="B8" s="166" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="166" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8" s="166" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="162" t="s">
+        <v>382</v>
+      </c>
+      <c r="B9" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="165" t="s">
+      <c r="C9" t="s">
+        <v>380</v>
+      </c>
+      <c r="D9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="169" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" s="170" t="s">
+        <v>374</v>
+      </c>
+      <c r="C11" s="170" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="177" t="s">
+        <v>373</v>
+      </c>
+      <c r="B14" s="177" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="162" t="s">
-        <v>370</v>
-      </c>
-      <c r="B8" s="163" t="s">
+      <c r="C14" s="177" t="s">
         <v>378</v>
       </c>
-      <c r="C8" s="163" t="s">
-        <v>379</v>
-      </c>
-      <c r="D8" s="163" t="s">
+      <c r="D14" s="177" t="s">
+        <v>376</v>
+      </c>
+      <c r="E14" s="177" t="s">
+        <v>414</v>
+      </c>
+      <c r="F14" s="177" t="s">
+        <v>352</v>
+      </c>
+      <c r="G14" s="177" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>413</v>
+      </c>
+      <c r="F15" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>382</v>
+      </c>
+      <c r="E16" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="176" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18" s="176" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="159" t="s">
+      <c r="C18" s="176" t="s">
+        <v>378</v>
+      </c>
+      <c r="D18" s="176" t="s">
         <v>383</v>
       </c>
-      <c r="B9" t="s">
-        <v>380</v>
-      </c>
-      <c r="C9" t="s">
-        <v>381</v>
-      </c>
-      <c r="D9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="166" t="s">
-        <v>371</v>
-      </c>
-      <c r="B11" s="167" t="s">
-        <v>374</v>
-      </c>
-      <c r="C11" s="167" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="173" t="s">
-        <v>373</v>
-      </c>
-      <c r="B14" s="173" t="s">
-        <v>378</v>
-      </c>
-      <c r="C14" s="173" t="s">
-        <v>379</v>
-      </c>
-      <c r="D14" s="173" t="s">
-        <v>377</v>
-      </c>
-      <c r="E14" s="173" t="s">
-        <v>416</v>
-      </c>
-      <c r="F14" s="173" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+      <c r="E18" s="176" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>436</v>
+      </c>
+      <c r="J20" s="214" t="s">
+        <v>392</v>
+      </c>
+      <c r="K20" s="215"/>
+      <c r="L20" s="215"/>
+      <c r="M20" s="215"/>
+      <c r="N20" s="215"/>
+      <c r="O20" s="215"/>
+      <c r="P20" s="215"/>
+      <c r="Q20" s="215"/>
+      <c r="R20" s="215"/>
+      <c r="S20" s="215"/>
+      <c r="T20" s="215"/>
+      <c r="U20" s="215"/>
+      <c r="V20" s="215"/>
+      <c r="W20" s="215"/>
+      <c r="X20" s="215"/>
+      <c r="Y20" s="216"/>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="229" t="s">
+        <v>393</v>
+      </c>
+      <c r="K21" s="230"/>
+      <c r="L21" s="230"/>
+      <c r="M21" s="230"/>
+      <c r="N21" s="230"/>
+      <c r="O21" s="230"/>
+      <c r="P21" s="230"/>
+      <c r="Q21" s="230"/>
+      <c r="R21" s="230"/>
+      <c r="S21" s="230"/>
+      <c r="T21" s="230"/>
+      <c r="U21" s="230"/>
+      <c r="V21" s="230"/>
+      <c r="W21" s="230"/>
+      <c r="X21" s="230"/>
+      <c r="Y21" s="231"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J22" s="219"/>
+      <c r="K22" s="220"/>
+      <c r="L22" s="196" t="s">
+        <v>432</v>
+      </c>
+      <c r="M22" s="190"/>
+      <c r="N22" s="190"/>
+      <c r="O22" s="190"/>
+      <c r="P22" s="209"/>
+      <c r="Q22" s="202" t="s">
+        <v>398</v>
+      </c>
+      <c r="R22" s="190" t="s">
+        <v>433</v>
+      </c>
+      <c r="S22" s="190"/>
+      <c r="T22" s="190"/>
+      <c r="U22" s="190"/>
+      <c r="V22" s="205"/>
+      <c r="W22" s="202" t="s">
+        <v>398</v>
+      </c>
+      <c r="X22" s="205"/>
+      <c r="Y22" s="206" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J23" s="217"/>
+      <c r="K23" s="195"/>
+      <c r="L23" s="197" t="s">
+        <v>387</v>
+      </c>
+      <c r="M23" s="191" t="s">
+        <v>388</v>
+      </c>
+      <c r="N23" s="191" t="s">
+        <v>389</v>
+      </c>
+      <c r="O23" s="191" t="s">
+        <v>391</v>
+      </c>
+      <c r="P23" s="200" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q23" s="203" t="s">
+        <v>399</v>
+      </c>
+      <c r="R23" s="191" t="s">
+        <v>387</v>
+      </c>
+      <c r="S23" s="191" t="s">
+        <v>388</v>
+      </c>
+      <c r="T23" s="191" t="s">
+        <v>389</v>
+      </c>
+      <c r="U23" s="191" t="s">
+        <v>391</v>
+      </c>
+      <c r="V23" s="200" t="s">
+        <v>394</v>
+      </c>
+      <c r="W23" s="203" t="s">
+        <v>399</v>
+      </c>
+      <c r="X23" s="200" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y23" s="207" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="221"/>
+      <c r="K24" s="222"/>
+      <c r="L24" s="198" t="s">
+        <v>390</v>
+      </c>
+      <c r="M24" s="199"/>
+      <c r="N24" s="199"/>
+      <c r="O24" s="199"/>
+      <c r="P24" s="201" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q24" s="204" t="s">
+        <v>400</v>
+      </c>
+      <c r="R24" s="199" t="s">
+        <v>390</v>
+      </c>
+      <c r="S24" s="199"/>
+      <c r="T24" s="199"/>
+      <c r="U24" s="199"/>
+      <c r="V24" s="201" t="s">
+        <v>395</v>
+      </c>
+      <c r="W24" s="204" t="s">
+        <v>400</v>
+      </c>
+      <c r="X24" s="201" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y24" s="208" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J25" s="228" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="172" t="s">
-        <v>372</v>
-      </c>
-      <c r="B17" s="172" t="s">
-        <v>378</v>
-      </c>
-      <c r="C17" s="172" t="s">
-        <v>379</v>
-      </c>
-      <c r="D17" s="172" t="s">
+      <c r="K25" s="186" t="s">
         <v>384</v>
       </c>
-      <c r="E17" s="172" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="L25" s="71"/>
+      <c r="M25" s="178"/>
+      <c r="N25" s="178"/>
+      <c r="O25" s="178"/>
+      <c r="P25" s="189" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q25" s="192" t="s">
+        <v>409</v>
+      </c>
+      <c r="R25" s="178"/>
+      <c r="S25" s="178"/>
+      <c r="T25" s="178"/>
+      <c r="U25" s="178"/>
+      <c r="V25" s="189" t="s">
+        <v>396</v>
+      </c>
+      <c r="W25" s="192" t="s">
+        <v>409</v>
+      </c>
+      <c r="X25" s="189" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y25" s="192" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J26" s="210"/>
+      <c r="K26" s="184" t="s">
+        <v>385</v>
+      </c>
+      <c r="L26" s="182"/>
+      <c r="M26" s="172"/>
+      <c r="N26" s="172"/>
+      <c r="O26" s="172"/>
+      <c r="P26" s="187" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q26" s="193" t="s">
+        <v>410</v>
+      </c>
+      <c r="R26" s="172"/>
+      <c r="S26" s="172"/>
+      <c r="T26" s="172"/>
+      <c r="U26" s="172"/>
+      <c r="V26" s="187" t="s">
+        <v>396</v>
+      </c>
+      <c r="W26" s="193" t="s">
+        <v>410</v>
+      </c>
+      <c r="X26" s="187" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y26" s="193" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C20" s="209" t="s">
+    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="218"/>
+      <c r="K27" s="185" t="s">
+        <v>386</v>
+      </c>
+      <c r="L27" s="183"/>
+      <c r="M27" s="174"/>
+      <c r="N27" s="174"/>
+      <c r="O27" s="174"/>
+      <c r="P27" s="188" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q27" s="194" t="s">
+        <v>411</v>
+      </c>
+      <c r="R27" s="174"/>
+      <c r="S27" s="174"/>
+      <c r="T27" s="174"/>
+      <c r="U27" s="174"/>
+      <c r="V27" s="188" t="s">
+        <v>396</v>
+      </c>
+      <c r="W27" s="194" t="s">
+        <v>411</v>
+      </c>
+      <c r="X27" s="188" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y27" s="194" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>439</v>
+      </c>
+      <c r="J29" s="214" t="s">
+        <v>392</v>
+      </c>
+      <c r="K29" s="215"/>
+      <c r="L29" s="215"/>
+      <c r="M29" s="215"/>
+      <c r="N29" s="215"/>
+      <c r="O29" s="215"/>
+      <c r="P29" s="215"/>
+      <c r="Q29" s="215"/>
+      <c r="R29" s="215"/>
+      <c r="S29" s="215"/>
+      <c r="T29" s="215"/>
+      <c r="U29" s="215"/>
+      <c r="V29" s="215"/>
+      <c r="W29" s="215"/>
+      <c r="X29" s="215"/>
+      <c r="Y29" s="216"/>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>440</v>
+      </c>
+      <c r="J30" s="211" t="s">
+        <v>412</v>
+      </c>
+      <c r="K30" s="212"/>
+      <c r="L30" s="212"/>
+      <c r="M30" s="212"/>
+      <c r="N30" s="212"/>
+      <c r="O30" s="212"/>
+      <c r="P30" s="212"/>
+      <c r="Q30" s="212"/>
+      <c r="R30" s="212"/>
+      <c r="S30" s="212"/>
+      <c r="T30" s="212"/>
+      <c r="U30" s="212"/>
+      <c r="V30" s="212"/>
+      <c r="W30" s="212"/>
+      <c r="X30" s="212"/>
+      <c r="Y30" s="213"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>441</v>
+      </c>
+      <c r="J31" s="219"/>
+      <c r="K31" s="220"/>
+      <c r="L31" s="196" t="s">
+        <v>432</v>
+      </c>
+      <c r="M31" s="190"/>
+      <c r="N31" s="190"/>
+      <c r="O31" s="190"/>
+      <c r="P31" s="180"/>
+      <c r="Q31" s="202" t="s">
+        <v>398</v>
+      </c>
+      <c r="R31" s="190" t="s">
+        <v>433</v>
+      </c>
+      <c r="S31" s="190"/>
+      <c r="T31" s="190"/>
+      <c r="U31" s="190"/>
+      <c r="V31" s="181"/>
+      <c r="W31" s="202" t="s">
+        <v>398</v>
+      </c>
+      <c r="X31" s="205"/>
+      <c r="Y31" s="206" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J32" s="217"/>
+      <c r="K32" s="195"/>
+      <c r="L32" s="197" t="s">
+        <v>387</v>
+      </c>
+      <c r="M32" s="191" t="s">
+        <v>388</v>
+      </c>
+      <c r="N32" s="191" t="s">
+        <v>389</v>
+      </c>
+      <c r="O32" s="191" t="s">
+        <v>391</v>
+      </c>
+      <c r="P32" s="200" t="s">
         <v>394</v>
       </c>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="210"/>
-      <c r="J20" s="210"/>
-      <c r="K20" s="210"/>
-      <c r="L20" s="210"/>
-      <c r="M20" s="210"/>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
-      <c r="P20" s="210"/>
-      <c r="Q20" s="210"/>
-      <c r="R20" s="211"/>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="223" t="s">
+      <c r="Q32" s="203" t="s">
+        <v>399</v>
+      </c>
+      <c r="R32" s="191" t="s">
+        <v>387</v>
+      </c>
+      <c r="S32" s="191" t="s">
+        <v>388</v>
+      </c>
+      <c r="T32" s="191" t="s">
+        <v>389</v>
+      </c>
+      <c r="U32" s="191" t="s">
+        <v>391</v>
+      </c>
+      <c r="V32" s="200" t="s">
+        <v>394</v>
+      </c>
+      <c r="W32" s="203" t="s">
+        <v>399</v>
+      </c>
+      <c r="X32" s="200" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y32" s="207" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="33" spans="10:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="221"/>
+      <c r="K33" s="222"/>
+      <c r="L33" s="198" t="s">
+        <v>390</v>
+      </c>
+      <c r="M33" s="199"/>
+      <c r="N33" s="199"/>
+      <c r="O33" s="199"/>
+      <c r="P33" s="201" t="s">
         <v>395</v>
       </c>
-      <c r="D21" s="224"/>
-      <c r="E21" s="224"/>
-      <c r="F21" s="224"/>
-      <c r="G21" s="224"/>
-      <c r="H21" s="224"/>
-      <c r="I21" s="224"/>
-      <c r="J21" s="224"/>
-      <c r="K21" s="224"/>
-      <c r="L21" s="224"/>
-      <c r="M21" s="224"/>
-      <c r="N21" s="224"/>
-      <c r="O21" s="224"/>
-      <c r="P21" s="224"/>
-      <c r="Q21" s="224"/>
-      <c r="R21" s="225"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C22" s="214"/>
-      <c r="D22" s="215"/>
-      <c r="E22" s="191" t="s">
+      <c r="Q33" s="204" t="s">
+        <v>400</v>
+      </c>
+      <c r="R33" s="199" t="s">
+        <v>390</v>
+      </c>
+      <c r="S33" s="199"/>
+      <c r="T33" s="199"/>
+      <c r="U33" s="199"/>
+      <c r="V33" s="201" t="s">
+        <v>395</v>
+      </c>
+      <c r="W33" s="204" t="s">
+        <v>400</v>
+      </c>
+      <c r="X33" s="201" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y33" s="208" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="10:25" x14ac:dyDescent="0.25">
+      <c r="J34" s="228" t="s">
+        <v>415</v>
+      </c>
+      <c r="K34" s="186" t="s">
+        <v>384</v>
+      </c>
+      <c r="L34" s="71"/>
+      <c r="M34" s="178"/>
+      <c r="N34" s="178"/>
+      <c r="O34" s="178"/>
+      <c r="P34" s="189" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q34" s="192" t="s">
+        <v>409</v>
+      </c>
+      <c r="R34" s="178"/>
+      <c r="S34" s="178"/>
+      <c r="T34" s="178"/>
+      <c r="U34" s="178"/>
+      <c r="V34" s="189" t="s">
+        <v>396</v>
+      </c>
+      <c r="W34" s="192" t="s">
+        <v>409</v>
+      </c>
+      <c r="X34" s="189" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y34" s="192" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" spans="10:25" x14ac:dyDescent="0.25">
+      <c r="J35" s="210"/>
+      <c r="K35" s="184" t="s">
+        <v>385</v>
+      </c>
+      <c r="L35" s="182"/>
+      <c r="M35" s="172"/>
+      <c r="N35" s="172"/>
+      <c r="O35" s="172"/>
+      <c r="P35" s="187" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q35" s="193" t="s">
+        <v>410</v>
+      </c>
+      <c r="R35" s="172"/>
+      <c r="S35" s="172"/>
+      <c r="T35" s="172"/>
+      <c r="U35" s="172"/>
+      <c r="V35" s="187" t="s">
+        <v>396</v>
+      </c>
+      <c r="W35" s="193" t="s">
+        <v>410</v>
+      </c>
+      <c r="X35" s="187" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y35" s="193" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="36" spans="10:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="218"/>
+      <c r="K36" s="185" t="s">
+        <v>386</v>
+      </c>
+      <c r="L36" s="183"/>
+      <c r="M36" s="174"/>
+      <c r="N36" s="174"/>
+      <c r="O36" s="174"/>
+      <c r="P36" s="188" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q36" s="194" t="s">
+        <v>411</v>
+      </c>
+      <c r="R36" s="174"/>
+      <c r="S36" s="174"/>
+      <c r="T36" s="174"/>
+      <c r="U36" s="174"/>
+      <c r="V36" s="188" t="s">
+        <v>396</v>
+      </c>
+      <c r="W36" s="194" t="s">
+        <v>411</v>
+      </c>
+      <c r="X36" s="188" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y36" s="194" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="40" spans="10:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="10:25" x14ac:dyDescent="0.25">
+      <c r="J41" s="214" t="s">
         <v>392</v>
       </c>
-      <c r="F22" s="185"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="204"/>
-      <c r="J22" s="197" t="s">
-        <v>400</v>
-      </c>
-      <c r="K22" s="185" t="s">
-        <v>392</v>
-      </c>
-      <c r="L22" s="185"/>
-      <c r="M22" s="185"/>
-      <c r="N22" s="185"/>
-      <c r="O22" s="200"/>
-      <c r="P22" s="197" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q22" s="200"/>
-      <c r="R22" s="201" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C23" s="212"/>
-      <c r="D23" s="190"/>
-      <c r="E23" s="192" t="s">
-        <v>388</v>
-      </c>
-      <c r="F23" s="186" t="s">
-        <v>389</v>
-      </c>
-      <c r="G23" s="186" t="s">
-        <v>390</v>
-      </c>
-      <c r="H23" s="186" t="s">
-        <v>393</v>
-      </c>
-      <c r="I23" s="195" t="s">
-        <v>396</v>
-      </c>
-      <c r="J23" s="198" t="s">
-        <v>401</v>
-      </c>
-      <c r="K23" s="186" t="s">
-        <v>388</v>
-      </c>
-      <c r="L23" s="186" t="s">
-        <v>389</v>
-      </c>
-      <c r="M23" s="186" t="s">
-        <v>390</v>
-      </c>
-      <c r="N23" s="186" t="s">
-        <v>393</v>
-      </c>
-      <c r="O23" s="195" t="s">
-        <v>396</v>
-      </c>
-      <c r="P23" s="198" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q23" s="195" t="s">
-        <v>399</v>
-      </c>
-      <c r="R23" s="202" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="216"/>
-      <c r="D24" s="217"/>
-      <c r="E24" s="193" t="s">
-        <v>391</v>
-      </c>
-      <c r="F24" s="194"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="196" t="s">
-        <v>397</v>
-      </c>
-      <c r="J24" s="199" t="s">
-        <v>402</v>
-      </c>
-      <c r="K24" s="194" t="s">
-        <v>391</v>
-      </c>
-      <c r="L24" s="194"/>
-      <c r="M24" s="194"/>
-      <c r="N24" s="194"/>
-      <c r="O24" s="196" t="s">
-        <v>397</v>
-      </c>
-      <c r="P24" s="199" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q24" s="196" t="s">
-        <v>406</v>
-      </c>
-      <c r="R24" s="203" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C25" s="222" t="s">
-        <v>417</v>
-      </c>
-      <c r="D25" s="181" t="s">
+      <c r="K41" s="215"/>
+      <c r="L41" s="215"/>
+      <c r="M41" s="215"/>
+      <c r="N41" s="215"/>
+      <c r="O41" s="215"/>
+      <c r="P41" s="215"/>
+      <c r="Q41" s="215"/>
+      <c r="R41" s="215"/>
+      <c r="S41" s="215"/>
+      <c r="T41" s="215"/>
+      <c r="U41" s="215"/>
+      <c r="V41" s="215"/>
+      <c r="W41" s="215"/>
+      <c r="X41" s="215"/>
+      <c r="Y41" s="216"/>
+    </row>
+    <row r="42" spans="10:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J42" s="211" t="s">
+        <v>444</v>
+      </c>
+      <c r="K42" s="212"/>
+      <c r="L42" s="212"/>
+      <c r="M42" s="212"/>
+      <c r="N42" s="212"/>
+      <c r="O42" s="212"/>
+      <c r="P42" s="212"/>
+      <c r="Q42" s="212"/>
+      <c r="R42" s="212"/>
+      <c r="S42" s="212"/>
+      <c r="T42" s="212"/>
+      <c r="U42" s="212"/>
+      <c r="V42" s="212"/>
+      <c r="W42" s="212"/>
+      <c r="X42" s="212"/>
+      <c r="Y42" s="213"/>
+    </row>
+    <row r="43" spans="10:25" x14ac:dyDescent="0.25">
+      <c r="J43" s="219"/>
+      <c r="K43" s="220"/>
+      <c r="L43" s="280" t="s">
+        <v>432</v>
+      </c>
+      <c r="M43" s="190"/>
+      <c r="N43" s="190"/>
+      <c r="O43" s="281"/>
+      <c r="P43" s="280" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q43" s="190"/>
+      <c r="R43" s="190"/>
+      <c r="S43" s="281"/>
+      <c r="T43" s="276"/>
+      <c r="U43" s="277"/>
+      <c r="V43" s="260"/>
+      <c r="W43" s="259"/>
+      <c r="X43" s="259"/>
+      <c r="Y43" s="261"/>
+    </row>
+    <row r="44" spans="10:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J44" s="221"/>
+      <c r="K44" s="222"/>
+      <c r="L44" s="282" t="s">
+        <v>445</v>
+      </c>
+      <c r="M44" s="191" t="s">
+        <v>446</v>
+      </c>
+      <c r="N44" s="282" t="s">
+        <v>447</v>
+      </c>
+      <c r="O44" s="191" t="s">
+        <v>448</v>
+      </c>
+      <c r="P44" s="282" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q44" s="191" t="s">
+        <v>450</v>
+      </c>
+      <c r="R44" s="282" t="s">
+        <v>451</v>
+      </c>
+      <c r="S44" s="191" t="s">
+        <v>452</v>
+      </c>
+      <c r="T44" s="262"/>
+      <c r="U44" s="263"/>
+      <c r="V44" s="263"/>
+      <c r="W44" s="263"/>
+      <c r="X44" s="263"/>
+      <c r="Y44" s="264"/>
+    </row>
+    <row r="45" spans="10:25" x14ac:dyDescent="0.25">
+      <c r="J45" s="228" t="s">
+        <v>443</v>
+      </c>
+      <c r="K45" s="186" t="s">
+        <v>384</v>
+      </c>
+      <c r="L45" s="104"/>
+      <c r="M45" s="178"/>
+      <c r="N45" s="178"/>
+      <c r="O45" s="179"/>
+      <c r="P45" s="104"/>
+      <c r="Q45" s="178"/>
+      <c r="R45" s="178"/>
+      <c r="S45" s="179"/>
+      <c r="T45" s="267"/>
+      <c r="U45" s="268"/>
+      <c r="V45" s="268"/>
+      <c r="W45" s="269"/>
+      <c r="X45" s="268"/>
+      <c r="Y45" s="269"/>
+    </row>
+    <row r="46" spans="10:25" x14ac:dyDescent="0.25">
+      <c r="J46" s="210"/>
+      <c r="K46" s="184" t="s">
         <v>385</v>
       </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="184" t="s">
-        <v>398</v>
-      </c>
-      <c r="J25" s="187" t="s">
-        <v>411</v>
-      </c>
-      <c r="K25" s="174"/>
-      <c r="L25" s="174"/>
-      <c r="M25" s="174"/>
-      <c r="N25" s="174"/>
-      <c r="O25" s="184" t="s">
-        <v>398</v>
-      </c>
-      <c r="P25" s="187" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q25" s="184" t="s">
-        <v>398</v>
-      </c>
-      <c r="R25" s="187" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C26" s="205"/>
-      <c r="D26" s="179" t="s">
+      <c r="L46" s="105"/>
+      <c r="M46" s="172"/>
+      <c r="N46" s="172"/>
+      <c r="O46" s="173"/>
+      <c r="P46" s="105"/>
+      <c r="Q46" s="172"/>
+      <c r="R46" s="172"/>
+      <c r="S46" s="173"/>
+      <c r="T46" s="270"/>
+      <c r="U46" s="271"/>
+      <c r="V46" s="271"/>
+      <c r="W46" s="272"/>
+      <c r="X46" s="271"/>
+      <c r="Y46" s="272"/>
+    </row>
+    <row r="47" spans="10:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J47" s="218"/>
+      <c r="K47" s="185" t="s">
         <v>386</v>
       </c>
-      <c r="E26" s="177"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
-      <c r="H26" s="169"/>
-      <c r="I26" s="182" t="s">
-        <v>398</v>
-      </c>
-      <c r="J26" s="188" t="s">
-        <v>412</v>
-      </c>
-      <c r="K26" s="169"/>
-      <c r="L26" s="169"/>
-      <c r="M26" s="169"/>
-      <c r="N26" s="169"/>
-      <c r="O26" s="182" t="s">
-        <v>398</v>
-      </c>
-      <c r="P26" s="188" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q26" s="182" t="s">
-        <v>398</v>
-      </c>
-      <c r="R26" s="188" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="213"/>
-      <c r="D27" s="180" t="s">
-        <v>387</v>
-      </c>
-      <c r="E27" s="178"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="183" t="s">
-        <v>398</v>
-      </c>
-      <c r="J27" s="189" t="s">
-        <v>413</v>
-      </c>
-      <c r="K27" s="170"/>
-      <c r="L27" s="170"/>
-      <c r="M27" s="170"/>
-      <c r="N27" s="170"/>
-      <c r="O27" s="183" t="s">
-        <v>398</v>
-      </c>
-      <c r="P27" s="189" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q27" s="183" t="s">
-        <v>398</v>
-      </c>
-      <c r="R27" s="189" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C29" s="209" t="s">
-        <v>394</v>
-      </c>
-      <c r="D29" s="210"/>
-      <c r="E29" s="210"/>
-      <c r="F29" s="210"/>
-      <c r="G29" s="210"/>
-      <c r="H29" s="210"/>
-      <c r="I29" s="210"/>
-      <c r="J29" s="210"/>
-      <c r="K29" s="210"/>
-      <c r="L29" s="210"/>
-      <c r="M29" s="210"/>
-      <c r="N29" s="210"/>
-      <c r="O29" s="210"/>
-      <c r="P29" s="210"/>
-      <c r="Q29" s="210"/>
-      <c r="R29" s="211"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="206" t="s">
-        <v>414</v>
-      </c>
-      <c r="D30" s="207"/>
-      <c r="E30" s="207"/>
-      <c r="F30" s="207"/>
-      <c r="G30" s="207"/>
-      <c r="H30" s="207"/>
-      <c r="I30" s="207"/>
-      <c r="J30" s="207"/>
-      <c r="K30" s="207"/>
-      <c r="L30" s="207"/>
-      <c r="M30" s="207"/>
-      <c r="N30" s="207"/>
-      <c r="O30" s="207"/>
-      <c r="P30" s="207"/>
-      <c r="Q30" s="207"/>
-      <c r="R30" s="208"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C31" s="214"/>
-      <c r="D31" s="215"/>
-      <c r="E31" s="191" t="s">
-        <v>392</v>
-      </c>
-      <c r="F31" s="185"/>
-      <c r="G31" s="185"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="197" t="s">
-        <v>400</v>
-      </c>
-      <c r="K31" s="185" t="s">
-        <v>392</v>
-      </c>
-      <c r="L31" s="185"/>
-      <c r="M31" s="185"/>
-      <c r="N31" s="185"/>
-      <c r="O31" s="176"/>
-      <c r="P31" s="197" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q31" s="200"/>
-      <c r="R31" s="201" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C32" s="212"/>
-      <c r="D32" s="190"/>
-      <c r="E32" s="192" t="s">
-        <v>388</v>
-      </c>
-      <c r="F32" s="186" t="s">
-        <v>389</v>
-      </c>
-      <c r="G32" s="186" t="s">
-        <v>390</v>
-      </c>
-      <c r="H32" s="186" t="s">
-        <v>393</v>
-      </c>
-      <c r="I32" s="195" t="s">
-        <v>396</v>
-      </c>
-      <c r="J32" s="198" t="s">
-        <v>401</v>
-      </c>
-      <c r="K32" s="186" t="s">
-        <v>388</v>
-      </c>
-      <c r="L32" s="186" t="s">
-        <v>389</v>
-      </c>
-      <c r="M32" s="186" t="s">
-        <v>390</v>
-      </c>
-      <c r="N32" s="186" t="s">
-        <v>393</v>
-      </c>
-      <c r="O32" s="195" t="s">
-        <v>396</v>
-      </c>
-      <c r="P32" s="198" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q32" s="195" t="s">
-        <v>399</v>
-      </c>
-      <c r="R32" s="202" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="33" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="216"/>
-      <c r="D33" s="217"/>
-      <c r="E33" s="193" t="s">
-        <v>391</v>
-      </c>
-      <c r="F33" s="194"/>
-      <c r="G33" s="194"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="196" t="s">
-        <v>397</v>
-      </c>
-      <c r="J33" s="199" t="s">
-        <v>402</v>
-      </c>
-      <c r="K33" s="194" t="s">
-        <v>391</v>
-      </c>
-      <c r="L33" s="194"/>
-      <c r="M33" s="194"/>
-      <c r="N33" s="194"/>
-      <c r="O33" s="196" t="s">
-        <v>397</v>
-      </c>
-      <c r="P33" s="199" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q33" s="196" t="s">
-        <v>406</v>
-      </c>
-      <c r="R33" s="203" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C34" s="222" t="s">
-        <v>417</v>
-      </c>
-      <c r="D34" s="181" t="s">
+      <c r="L47" s="106"/>
+      <c r="M47" s="174"/>
+      <c r="N47" s="174"/>
+      <c r="O47" s="175"/>
+      <c r="P47" s="106"/>
+      <c r="Q47" s="174"/>
+      <c r="R47" s="174"/>
+      <c r="S47" s="175"/>
+      <c r="T47" s="273"/>
+      <c r="U47" s="274"/>
+      <c r="V47" s="274"/>
+      <c r="W47" s="275"/>
+      <c r="X47" s="274"/>
+      <c r="Y47" s="275"/>
+    </row>
+    <row r="48" spans="10:25" x14ac:dyDescent="0.25">
+      <c r="J48" s="228" t="s">
+        <v>442</v>
+      </c>
+      <c r="K48" s="186" t="s">
+        <v>384</v>
+      </c>
+      <c r="L48" s="283"/>
+      <c r="M48" s="277"/>
+      <c r="N48" s="277"/>
+      <c r="O48" s="284"/>
+      <c r="P48" s="288"/>
+      <c r="Q48" s="259"/>
+      <c r="R48" s="277"/>
+      <c r="S48" s="284"/>
+      <c r="T48" s="276"/>
+      <c r="U48" s="277"/>
+      <c r="V48" s="260"/>
+      <c r="W48" s="259"/>
+      <c r="X48" s="259"/>
+      <c r="Y48" s="261"/>
+    </row>
+    <row r="49" spans="10:25" x14ac:dyDescent="0.25">
+      <c r="J49" s="210"/>
+      <c r="K49" s="184" t="s">
         <v>385</v>
       </c>
-      <c r="E34" s="71"/>
-      <c r="F34" s="174"/>
-      <c r="G34" s="174"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="184" t="s">
-        <v>398</v>
-      </c>
-      <c r="J34" s="187" t="s">
-        <v>411</v>
-      </c>
-      <c r="K34" s="174"/>
-      <c r="L34" s="174"/>
-      <c r="M34" s="174"/>
-      <c r="N34" s="174"/>
-      <c r="O34" s="184" t="s">
-        <v>398</v>
-      </c>
-      <c r="P34" s="187" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q34" s="184" t="s">
-        <v>398</v>
-      </c>
-      <c r="R34" s="187" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C35" s="205"/>
-      <c r="D35" s="179" t="s">
+      <c r="L49" s="285"/>
+      <c r="M49" s="263"/>
+      <c r="N49" s="263"/>
+      <c r="O49" s="264"/>
+      <c r="P49" s="285"/>
+      <c r="Q49" s="263"/>
+      <c r="R49" s="263"/>
+      <c r="S49" s="264"/>
+      <c r="T49" s="262"/>
+      <c r="U49" s="263"/>
+      <c r="V49" s="263"/>
+      <c r="W49" s="263"/>
+      <c r="X49" s="263"/>
+      <c r="Y49" s="264"/>
+    </row>
+    <row r="50" spans="10:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J50" s="218"/>
+      <c r="K50" s="185" t="s">
         <v>386</v>
       </c>
-      <c r="E35" s="177"/>
-      <c r="F35" s="169"/>
-      <c r="G35" s="169"/>
-      <c r="H35" s="169"/>
-      <c r="I35" s="182" t="s">
-        <v>398</v>
-      </c>
-      <c r="J35" s="188" t="s">
-        <v>412</v>
-      </c>
-      <c r="K35" s="169"/>
-      <c r="L35" s="169"/>
-      <c r="M35" s="169"/>
-      <c r="N35" s="169"/>
-      <c r="O35" s="182" t="s">
-        <v>398</v>
-      </c>
-      <c r="P35" s="188" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q35" s="182" t="s">
-        <v>398</v>
-      </c>
-      <c r="R35" s="188" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="36" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="213"/>
-      <c r="D36" s="180" t="s">
-        <v>387</v>
-      </c>
-      <c r="E36" s="178"/>
-      <c r="F36" s="170"/>
-      <c r="G36" s="170"/>
-      <c r="H36" s="170"/>
-      <c r="I36" s="183" t="s">
-        <v>398</v>
-      </c>
-      <c r="J36" s="189" t="s">
-        <v>413</v>
-      </c>
-      <c r="K36" s="170"/>
-      <c r="L36" s="170"/>
-      <c r="M36" s="170"/>
-      <c r="N36" s="170"/>
-      <c r="O36" s="183" t="s">
-        <v>398</v>
-      </c>
-      <c r="P36" s="189" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q36" s="183" t="s">
-        <v>398</v>
-      </c>
-      <c r="R36" s="189" t="s">
-        <v>410</v>
-      </c>
+      <c r="L50" s="286"/>
+      <c r="M50" s="279"/>
+      <c r="N50" s="279"/>
+      <c r="O50" s="287"/>
+      <c r="P50" s="289"/>
+      <c r="Q50" s="265"/>
+      <c r="R50" s="279"/>
+      <c r="S50" s="287"/>
+      <c r="T50" s="278"/>
+      <c r="U50" s="279"/>
+      <c r="V50" s="265"/>
+      <c r="W50" s="265"/>
+      <c r="X50" s="265"/>
+      <c r="Y50" s="266"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C20:R20"/>
-    <mergeCell ref="C21:R21"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C31:D33"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="C29:R29"/>
-    <mergeCell ref="C30:R30"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="C22:D24"/>
+  <mergeCells count="23">
+    <mergeCell ref="J20:Y20"/>
+    <mergeCell ref="J21:Y21"/>
+    <mergeCell ref="J41:Y41"/>
+    <mergeCell ref="J42:Y42"/>
+    <mergeCell ref="J43:K44"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="J31:K33"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="J45:J47"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="R33:U33"/>
+    <mergeCell ref="J29:Y29"/>
+    <mergeCell ref="J30:Y30"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="J22:K24"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20289,8 +21630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5025FE7-4AD3-425C-B5F3-BA76CEF9320F}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20302,231 +21643,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="248" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="240"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="250"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="243" t="s">
-        <v>418</v>
-      </c>
-      <c r="B2" s="241" t="s">
+      <c r="A2" s="253" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="251" t="s">
         <v>345</v>
       </c>
-      <c r="C2" s="242" t="s">
+      <c r="C2" s="252" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="228" t="s">
-        <v>425</v>
-      </c>
-      <c r="B3" s="226" t="s">
+      <c r="A3" s="235" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" s="232" t="s">
         <v>347</v>
       </c>
-      <c r="C3" s="227"/>
+      <c r="C3" s="233"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
-        <v>424</v>
-      </c>
-      <c r="B4" s="219" t="s">
+      <c r="A4" s="149" t="s">
+        <v>422</v>
+      </c>
+      <c r="B4" s="224" t="s">
         <v>348</v>
       </c>
-      <c r="C4" s="145"/>
+      <c r="C4" s="148"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="229" t="s">
-        <v>423</v>
-      </c>
-      <c r="B5" s="221" t="s">
+      <c r="A5" s="236" t="s">
+        <v>421</v>
+      </c>
+      <c r="B5" s="226" t="s">
         <v>349</v>
       </c>
-      <c r="C5" s="168"/>
+      <c r="C5" s="171"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="238" t="s">
+      <c r="A6" s="248" t="s">
         <v>350</v>
       </c>
-      <c r="B6" s="239"/>
-      <c r="C6" s="239"/>
-      <c r="D6" s="240"/>
+      <c r="B6" s="249"/>
+      <c r="C6" s="249"/>
+      <c r="D6" s="250"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="243" t="s">
-        <v>418</v>
-      </c>
-      <c r="B7" s="241" t="s">
+      <c r="A7" s="253" t="s">
+        <v>416</v>
+      </c>
+      <c r="B7" s="251" t="s">
         <v>351</v>
       </c>
-      <c r="C7" s="241" t="s">
+      <c r="C7" s="251" t="s">
         <v>352</v>
       </c>
-      <c r="D7" s="242" t="s">
+      <c r="D7" s="252" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="231" t="s">
-        <v>419</v>
-      </c>
-      <c r="B8" s="244" t="s">
+      <c r="A8" s="238" t="s">
+        <v>417</v>
+      </c>
+      <c r="B8" s="254" t="s">
         <v>375</v>
       </c>
       <c r="C8" s="68" t="s">
         <v>353</v>
       </c>
-      <c r="D8" s="218" t="s">
+      <c r="D8" s="223" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="144" t="s">
-        <v>420</v>
-      </c>
-      <c r="B9" s="244" t="s">
+      <c r="A9" s="147" t="s">
+        <v>418</v>
+      </c>
+      <c r="B9" s="254" t="s">
         <v>375</v>
       </c>
       <c r="C9" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="D9" s="147" t="s">
+      <c r="D9" s="150" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="232" t="s">
-        <v>421</v>
-      </c>
-      <c r="B10" s="244" t="s">
+      <c r="A10" s="239" t="s">
+        <v>419</v>
+      </c>
+      <c r="B10" s="254" t="s">
         <v>375</v>
       </c>
       <c r="C10" s="60" t="s">
         <v>356</v>
       </c>
-      <c r="D10" s="147" t="s">
+      <c r="D10" s="150" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="232" t="s">
-        <v>422</v>
-      </c>
-      <c r="B11" s="244" t="s">
+      <c r="A11" s="239" t="s">
+        <v>420</v>
+      </c>
+      <c r="B11" s="254" t="s">
         <v>375</v>
       </c>
       <c r="C11" s="60" t="s">
         <v>357</v>
       </c>
-      <c r="D11" s="147" t="s">
+      <c r="D11" s="150" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="148" t="s">
+      <c r="A12" s="151" t="s">
         <v>358</v>
       </c>
-      <c r="B12" s="220"/>
-      <c r="C12" s="220"/>
-      <c r="D12" s="230"/>
+      <c r="B12" s="225"/>
+      <c r="C12" s="225"/>
+      <c r="D12" s="237"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="144" t="s">
-        <v>432</v>
-      </c>
-      <c r="B13" s="245" t="s">
+      <c r="A13" s="147" t="s">
+        <v>430</v>
+      </c>
+      <c r="B13" s="255" t="s">
         <v>359</v>
       </c>
       <c r="C13" s="60" t="s">
         <v>360</v>
       </c>
-      <c r="D13" s="147" t="s">
+      <c r="D13" s="150" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="144" t="s">
-        <v>433</v>
-      </c>
-      <c r="B14" s="245" t="s">
+      <c r="A14" s="147" t="s">
+        <v>431</v>
+      </c>
+      <c r="B14" s="255" t="s">
         <v>359</v>
       </c>
       <c r="C14" s="60" t="s">
         <v>361</v>
       </c>
-      <c r="D14" s="147" t="s">
+      <c r="D14" s="150" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="148" t="s">
+      <c r="A15" s="151" t="s">
         <v>358</v>
       </c>
-      <c r="B15" s="220"/>
-      <c r="C15" s="220"/>
-      <c r="D15" s="230"/>
+      <c r="B15" s="225"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="237"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="144" t="s">
-        <v>428</v>
-      </c>
-      <c r="B16" s="245" t="s">
+      <c r="A16" s="147" t="s">
+        <v>426</v>
+      </c>
+      <c r="B16" s="255" t="s">
         <v>362</v>
       </c>
       <c r="C16" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="233" t="b">
+      <c r="D16" s="240" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="144" t="s">
-        <v>427</v>
-      </c>
-      <c r="B17" s="245" t="s">
+      <c r="A17" s="147" t="s">
+        <v>425</v>
+      </c>
+      <c r="B17" s="255" t="s">
         <v>362</v>
       </c>
       <c r="C17" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="233" t="b">
+      <c r="D17" s="240" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="144" t="s">
+      <c r="A18" s="147" t="s">
+        <v>427</v>
+      </c>
+      <c r="B18" s="256" t="s">
+        <v>362</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>424</v>
+      </c>
+      <c r="D18" s="240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="246" t="s">
+        <v>358</v>
+      </c>
+      <c r="B19" s="244"/>
+      <c r="C19" s="244"/>
+      <c r="D19" s="245"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="247" t="s">
         <v>429</v>
       </c>
-      <c r="B18" s="246" t="s">
-        <v>362</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>426</v>
-      </c>
-      <c r="D18" s="233" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="236" t="s">
-        <v>358</v>
-      </c>
-      <c r="B19" s="234"/>
-      <c r="C19" s="234"/>
-      <c r="D19" s="235"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="237" t="s">
-        <v>431</v>
-      </c>
-      <c r="B20" s="247" t="s">
-        <v>430</v>
-      </c>
-      <c r="C20" s="248"/>
-      <c r="D20" s="171">
+      <c r="B20" s="257" t="s">
+        <v>428</v>
+      </c>
+      <c r="C20" s="258"/>
+      <c r="D20" s="175">
         <v>1</v>
       </c>
     </row>
@@ -20548,8 +21889,8 @@
   <dimension ref="A1:AP41"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F27" sqref="F27"/>
+      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20579,46 +21920,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="120.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="108"/>
-      <c r="F1" s="104" t="s">
+      <c r="E1" s="112"/>
+      <c r="F1" s="108" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="104" t="s">
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="108" t="s">
         <v>328</v>
       </c>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="104" t="s">
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="108" t="s">
         <v>343</v>
       </c>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="109" t="s">
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="113" t="s">
         <v>337</v>
       </c>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="108"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="112"/>
       <c r="AH1"/>
     </row>
     <row r="2" spans="1:42" s="9" customFormat="1" ht="61.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20671,57 +22012,57 @@
       <c r="Q2" s="99" t="s">
         <v>321</v>
       </c>
-      <c r="R2" s="149" t="s">
+      <c r="R2" s="152" t="s">
         <v>334</v>
       </c>
-      <c r="S2" s="150" t="s">
+      <c r="S2" s="153" t="s">
         <v>333</v>
       </c>
-      <c r="T2" s="150" t="s">
+      <c r="T2" s="153" t="s">
         <v>331</v>
       </c>
-      <c r="U2" s="150" t="s">
+      <c r="U2" s="153" t="s">
         <v>330</v>
       </c>
-      <c r="V2" s="151" t="s">
+      <c r="V2" s="154" t="s">
         <v>332</v>
       </c>
-      <c r="W2" s="152" t="s">
+      <c r="W2" s="155" t="s">
         <v>335</v>
       </c>
-      <c r="X2" s="150" t="s">
+      <c r="X2" s="153" t="s">
         <v>324</v>
       </c>
-      <c r="Y2" s="150" t="s">
+      <c r="Y2" s="153" t="s">
         <v>325</v>
       </c>
-      <c r="Z2" s="150" t="s">
+      <c r="Z2" s="153" t="s">
         <v>326</v>
       </c>
-      <c r="AA2" s="153" t="s">
+      <c r="AA2" s="156" t="s">
         <v>327</v>
       </c>
-      <c r="AB2" s="149" t="s">
+      <c r="AB2" s="152" t="s">
         <v>161</v>
       </c>
-      <c r="AC2" s="150" t="s">
+      <c r="AC2" s="153" t="s">
         <v>162</v>
       </c>
-      <c r="AD2" s="150" t="s">
+      <c r="AD2" s="153" t="s">
         <v>322</v>
       </c>
-      <c r="AE2" s="150" t="s">
+      <c r="AE2" s="153" t="s">
         <v>163</v>
       </c>
-      <c r="AF2" s="150" t="s">
+      <c r="AF2" s="153" t="s">
         <v>164</v>
       </c>
-      <c r="AG2" s="153" t="s">
+      <c r="AG2" s="156" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="115" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="71" t="b">
@@ -20777,7 +22118,7 @@
       <c r="AH3"/>
     </row>
     <row r="4" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="112"/>
+      <c r="A4" s="116"/>
       <c r="B4" s="70" t="b">
         <v>1</v>
       </c>
@@ -20831,7 +22172,7 @@
       <c r="AH4"/>
     </row>
     <row r="5" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="112"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="70" t="b">
         <v>0</v>
       </c>
@@ -20885,7 +22226,7 @@
       <c r="AH5"/>
     </row>
     <row r="6" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="112"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="70" t="b">
         <v>0</v>
       </c>
@@ -20943,7 +22284,7 @@
       <c r="AH6"/>
     </row>
     <row r="7" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="113"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="70" t="b">
         <v>0</v>
       </c>
@@ -20997,7 +22338,7 @@
       <c r="AH7"/>
     </row>
     <row r="8" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="118" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="70" t="b">
@@ -21053,7 +22394,7 @@
       <c r="AH8"/>
     </row>
     <row r="9" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="112"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="70" t="b">
         <v>0</v>
       </c>
@@ -21115,7 +22456,7 @@
       <c r="AH9"/>
     </row>
     <row r="10" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="112"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="70" t="b">
         <v>0</v>
       </c>
@@ -21177,7 +22518,7 @@
       <c r="AH10"/>
     </row>
     <row r="11" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="112"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="70" t="b">
         <v>0</v>
       </c>
@@ -21235,7 +22576,7 @@
       <c r="AH11"/>
     </row>
     <row r="12" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="112"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="70" t="b">
         <v>0</v>
       </c>
@@ -21298,7 +22639,7 @@
       <c r="AH12"/>
     </row>
     <row r="13" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="112"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="70" t="b">
         <v>0</v>
       </c>
@@ -21361,7 +22702,7 @@
       <c r="AH13"/>
     </row>
     <row r="14" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="112"/>
+      <c r="A14" s="116"/>
       <c r="B14" s="70"/>
       <c r="C14" s="13" t="s">
         <v>41</v>
@@ -21420,7 +22761,7 @@
       </c>
     </row>
     <row r="15" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="113"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="70"/>
       <c r="C15" s="78" t="s">
         <v>43</v>
@@ -21472,7 +22813,7 @@
       <c r="AH15"/>
     </row>
     <row r="16" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="118" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="70" t="b">
@@ -21530,7 +22871,7 @@
       <c r="AH16"/>
     </row>
     <row r="17" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="112"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="70" t="b">
         <v>0</v>
       </c>
@@ -21588,7 +22929,7 @@
       <c r="AH17"/>
     </row>
     <row r="18" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="112"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="70" t="b">
         <v>0</v>
       </c>
@@ -21642,7 +22983,7 @@
       <c r="AH18"/>
     </row>
     <row r="19" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="112"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="70" t="b">
         <v>0</v>
       </c>
@@ -21692,7 +23033,7 @@
       <c r="AH19"/>
     </row>
     <row r="20" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="113"/>
+      <c r="A20" s="117"/>
       <c r="B20" s="70"/>
       <c r="C20" s="78" t="s">
         <v>50</v>
@@ -21748,7 +23089,7 @@
       <c r="AH20"/>
     </row>
     <row r="21" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="115" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="70"/>
@@ -21802,7 +23143,7 @@
       <c r="AH21"/>
     </row>
     <row r="22" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="112"/>
+      <c r="A22" s="116"/>
       <c r="B22" s="70"/>
       <c r="C22" s="13" t="s">
         <v>60</v>
@@ -21858,7 +23199,7 @@
       <c r="AH22"/>
     </row>
     <row r="23" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="115"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="70"/>
       <c r="C23" s="80" t="s">
         <v>61</v>
@@ -21914,7 +23255,7 @@
       <c r="AH23"/>
     </row>
     <row r="24" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="141" t="s">
+      <c r="A24" s="144" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="70"/>
@@ -21986,7 +23327,7 @@
       <c r="AH24"/>
     </row>
     <row r="25" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="142"/>
+      <c r="A25" s="145"/>
       <c r="B25" s="70"/>
       <c r="C25" s="13" t="s">
         <v>65</v>
@@ -22056,7 +23397,7 @@
       <c r="AH25"/>
     </row>
     <row r="26" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="142"/>
+      <c r="A26" s="145"/>
       <c r="B26" s="70"/>
       <c r="C26" s="13" t="s">
         <v>88</v>
@@ -22120,7 +23461,7 @@
       <c r="AH26"/>
     </row>
     <row r="27" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="142"/>
+      <c r="A27" s="145"/>
       <c r="B27" s="70" t="b">
         <v>0</v>
       </c>
@@ -22186,7 +23527,7 @@
       <c r="AH27"/>
     </row>
     <row r="28" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="142"/>
+      <c r="A28" s="145"/>
       <c r="B28" s="70"/>
       <c r="C28" s="13" t="s">
         <v>82</v>
@@ -22246,7 +23587,7 @@
       <c r="AH28"/>
     </row>
     <row r="29" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="143"/>
+      <c r="A29" s="146"/>
       <c r="B29" s="70" t="b">
         <v>0</v>
       </c>
@@ -23409,8 +24750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0E3B0F-52C3-4B43-9B9B-2E9A8C3A3525}">
   <dimension ref="A1:AP41"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
@@ -23441,34 +24782,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="91.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="108"/>
-      <c r="F1" s="104" t="s">
+      <c r="E1" s="112"/>
+      <c r="F1" s="108" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="104" t="s">
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="108" t="s">
         <v>328</v>
       </c>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="109" t="s">
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="113" t="s">
         <v>337</v>
       </c>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="108"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="112"/>
       <c r="X1"/>
       <c r="Y1"/>
       <c r="Z1"/>
@@ -23562,7 +24903,7 @@
       <c r="AH2"/>
     </row>
     <row r="3" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="115" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="71" t="b">
@@ -23612,7 +24953,7 @@
       <c r="AH3"/>
     </row>
     <row r="4" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="112"/>
+      <c r="A4" s="116"/>
       <c r="B4" s="70" t="b">
         <v>1</v>
       </c>
@@ -23660,7 +25001,7 @@
       <c r="AH4"/>
     </row>
     <row r="5" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="112"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="70" t="b">
         <v>0</v>
       </c>
@@ -23708,7 +25049,7 @@
       <c r="AH5"/>
     </row>
     <row r="6" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="112"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="70" t="b">
         <v>0</v>
       </c>
@@ -23762,7 +25103,7 @@
       <c r="AH6"/>
     </row>
     <row r="7" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="113"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="70" t="b">
         <v>0</v>
       </c>
@@ -23810,7 +25151,7 @@
       <c r="AH7"/>
     </row>
     <row r="8" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="118" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="70" t="b">
@@ -23860,7 +25201,7 @@
       <c r="AH8"/>
     </row>
     <row r="9" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="112"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="70" t="b">
         <v>0</v>
       </c>
@@ -23914,7 +25255,7 @@
       <c r="AH9"/>
     </row>
     <row r="10" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="112"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="70" t="b">
         <v>0</v>
       </c>
@@ -23968,7 +25309,7 @@
       <c r="AH10"/>
     </row>
     <row r="11" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="112"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="70" t="b">
         <v>0</v>
       </c>
@@ -24016,7 +25357,7 @@
       <c r="AH11"/>
     </row>
     <row r="12" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="112"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="70" t="b">
         <v>0</v>
       </c>
@@ -24064,7 +25405,7 @@
       <c r="AH12"/>
     </row>
     <row r="13" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="112"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="70" t="b">
         <v>0</v>
       </c>
@@ -24112,7 +25453,7 @@
       <c r="AH13"/>
     </row>
     <row r="14" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="112"/>
+      <c r="A14" s="116"/>
       <c r="B14" s="70"/>
       <c r="C14" s="13" t="s">
         <v>41</v>
@@ -24161,7 +25502,7 @@
       </c>
     </row>
     <row r="15" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="113"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="70"/>
       <c r="C15" s="78" t="s">
         <v>43</v>
@@ -24207,7 +25548,7 @@
       <c r="AH15"/>
     </row>
     <row r="16" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="118" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="70" t="b">
@@ -24253,7 +25594,7 @@
       <c r="AH16"/>
     </row>
     <row r="17" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="112"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="70" t="b">
         <v>0</v>
       </c>
@@ -24301,7 +25642,7 @@
       <c r="AH17"/>
     </row>
     <row r="18" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="112"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="70" t="b">
         <v>0</v>
       </c>
@@ -24345,7 +25686,7 @@
       <c r="AH18"/>
     </row>
     <row r="19" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="112"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="70" t="b">
         <v>0</v>
       </c>
@@ -24389,7 +25730,7 @@
       <c r="AH19"/>
     </row>
     <row r="20" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="113"/>
+      <c r="A20" s="117"/>
       <c r="B20" s="70"/>
       <c r="C20" s="78" t="s">
         <v>50</v>
@@ -24439,7 +25780,7 @@
       <c r="AH20"/>
     </row>
     <row r="21" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="115" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="70"/>
@@ -24487,7 +25828,7 @@
       <c r="AH21"/>
     </row>
     <row r="22" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="112"/>
+      <c r="A22" s="116"/>
       <c r="B22" s="70"/>
       <c r="C22" s="13" t="s">
         <v>60</v>
@@ -24539,7 +25880,7 @@
       <c r="AH22"/>
     </row>
     <row r="23" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="115"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="70"/>
       <c r="C23" s="80" t="s">
         <v>61</v>
@@ -24591,7 +25932,7 @@
       <c r="AH23"/>
     </row>
     <row r="24" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="141" t="s">
+      <c r="A24" s="144" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="70"/>
@@ -24651,7 +25992,7 @@
       <c r="AH24"/>
     </row>
     <row r="25" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="142"/>
+      <c r="A25" s="145"/>
       <c r="B25" s="70"/>
       <c r="C25" s="13" t="s">
         <v>65</v>
@@ -24709,7 +26050,7 @@
       <c r="AH25"/>
     </row>
     <row r="26" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="142"/>
+      <c r="A26" s="145"/>
       <c r="B26" s="70"/>
       <c r="C26" s="13" t="s">
         <v>88</v>
@@ -24769,7 +26110,7 @@
       <c r="AH26"/>
     </row>
     <row r="27" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="142"/>
+      <c r="A27" s="145"/>
       <c r="B27" s="70" t="b">
         <v>0</v>
       </c>
@@ -24831,7 +26172,7 @@
       <c r="AH27"/>
     </row>
     <row r="28" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="142"/>
+      <c r="A28" s="145"/>
       <c r="B28" s="70"/>
       <c r="C28" s="13" t="s">
         <v>82</v>
@@ -24887,7 +26228,7 @@
       <c r="AH28"/>
     </row>
     <row r="29" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="143"/>
+      <c r="A29" s="146"/>
       <c r="B29" s="70" t="b">
         <v>0</v>
       </c>
@@ -26046,7 +27387,7 @@
   <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27197,10 +28538,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC37CCF1-BDA1-4BEB-895A-822AFAC4DC47}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27208,6 +28549,11 @@
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -27260,22 +28606,22 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="121"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="125"/>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="117"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="27"/>
       <c r="D12" s="8"/>
     </row>
@@ -27322,7 +28668,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="52">
         <v>120</v>
       </c>
@@ -27333,7 +28679,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="53">
         <v>240</v>
       </c>
@@ -27344,11 +28690,198 @@
         <v>169</v>
       </c>
     </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E24" s="298"/>
+      <c r="F24" s="298"/>
+      <c r="G24" s="298"/>
+      <c r="H24" s="302" t="s">
+        <v>453</v>
+      </c>
+      <c r="I24" s="304"/>
+      <c r="J24" s="304"/>
+      <c r="K24" s="303"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E25" s="299"/>
+      <c r="F25" s="298"/>
+      <c r="G25" s="298"/>
+      <c r="H25" s="302">
+        <v>50</v>
+      </c>
+      <c r="I25" s="303"/>
+      <c r="J25" s="302">
+        <v>25</v>
+      </c>
+      <c r="K25" s="303"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="299"/>
+      <c r="F26" s="298"/>
+      <c r="G26" s="298"/>
+      <c r="H26" s="300" t="s">
+        <v>454</v>
+      </c>
+      <c r="I26" s="301" t="s">
+        <v>456</v>
+      </c>
+      <c r="J26" s="300" t="s">
+        <v>454</v>
+      </c>
+      <c r="K26" s="301" t="s">
+        <v>456</v>
+      </c>
+      <c r="L26" s="301" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="299"/>
+      <c r="F27" s="306" t="s">
+        <v>455</v>
+      </c>
+      <c r="G27" s="305">
+        <v>90</v>
+      </c>
+      <c r="H27" s="298"/>
+      <c r="I27" s="301" t="s">
+        <v>396</v>
+      </c>
+      <c r="K27" s="301" t="s">
+        <v>396</v>
+      </c>
+      <c r="L27" s="301" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="299"/>
+      <c r="F28" s="307"/>
+      <c r="G28" s="305">
+        <v>120</v>
+      </c>
+      <c r="H28" s="298"/>
+      <c r="I28" s="301" t="s">
+        <v>396</v>
+      </c>
+      <c r="K28" s="301" t="s">
+        <v>396</v>
+      </c>
+      <c r="L28" s="301" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E29" s="299"/>
+      <c r="F29" s="308"/>
+      <c r="G29" s="305">
+        <v>240</v>
+      </c>
+      <c r="H29" s="298"/>
+      <c r="I29" s="301" t="s">
+        <v>396</v>
+      </c>
+      <c r="K29" s="301" t="s">
+        <v>396</v>
+      </c>
+      <c r="L29" s="301" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="227"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="52">
+        <v>90</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="52">
+        <v>120</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="53">
+        <v>240</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>435</v>
+      </c>
+      <c r="H39" t="s">
+        <v>474</v>
+      </c>
+      <c r="I39" t="s">
+        <v>475</v>
+      </c>
+      <c r="J39" t="s">
+        <v>476</v>
+      </c>
+      <c r="K39" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>435</v>
+      </c>
+      <c r="H43" t="s">
+        <v>474</v>
+      </c>
+      <c r="I43" t="s">
+        <v>475</v>
+      </c>
+      <c r="J43" t="s">
+        <v>476</v>
+      </c>
+      <c r="K43" t="s">
+        <v>477</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="F27:F29"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A11:C11"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27356,16 +28889,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D77B77-056A-4592-A858-DBC3E6228CE4}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="6" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27419,29 +28954,29 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="121"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="122"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -27450,13 +28985,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
-      <c r="B13" s="126" t="s">
+      <c r="B13" s="309" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="127"/>
+      <c r="C13" s="309"/>
+      <c r="D13" s="309"/>
+      <c r="E13" s="309"/>
+      <c r="F13" s="310"/>
       <c r="G13" s="21" t="s">
         <v>168</v>
       </c>
@@ -27486,12 +29021,12 @@
       <c r="A15" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="129"/>
       <c r="F15" s="32" t="s">
         <v>183</v>
       </c>
@@ -27568,13 +29103,406 @@
         <v>169</v>
       </c>
     </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>435</v>
+      </c>
+      <c r="D22" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="379" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="234" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="380" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="385" t="s">
+        <v>480</v>
+      </c>
+      <c r="E23" s="381" t="s">
+        <v>481</v>
+      </c>
+      <c r="F23" s="382" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="374">
+        <v>90</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="378" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="377"/>
+      <c r="E24" s="377"/>
+      <c r="F24" s="386"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="368"/>
+      <c r="B25" s="367" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="241"/>
+      <c r="E25" s="241"/>
+      <c r="F25" s="387"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="368"/>
+      <c r="B26" s="367" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="241"/>
+      <c r="E26" s="241"/>
+      <c r="F26" s="387"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="383"/>
+      <c r="B27" s="384" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="349" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="242"/>
+      <c r="E27" s="242"/>
+      <c r="F27" s="388"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="375">
+        <v>120</v>
+      </c>
+      <c r="B28" s="376" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="350" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="377"/>
+      <c r="E28" s="377"/>
+      <c r="F28" s="386"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="368"/>
+      <c r="B29" s="367" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="241"/>
+      <c r="E29" s="241"/>
+      <c r="F29" s="387"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="368"/>
+      <c r="B30" s="367" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="241"/>
+      <c r="E30" s="241"/>
+      <c r="F30" s="387"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="369"/>
+      <c r="B31" s="370" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="351" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="242"/>
+      <c r="E31" s="242"/>
+      <c r="F31" s="388"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="374">
+        <v>240</v>
+      </c>
+      <c r="B32" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="378" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="377"/>
+      <c r="E32" s="377"/>
+      <c r="F32" s="386"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="368"/>
+      <c r="B33" s="367" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="241"/>
+      <c r="E33" s="241"/>
+      <c r="F33" s="387"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="368"/>
+      <c r="B34" s="367" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="241"/>
+      <c r="E34" s="241"/>
+      <c r="F34" s="387"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="369"/>
+      <c r="B35" s="370" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="351" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="242"/>
+      <c r="E35" s="242"/>
+      <c r="F35" s="388"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>435</v>
+      </c>
+      <c r="B38" t="s">
+        <v>474</v>
+      </c>
+      <c r="D38" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="389" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="390" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="371" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="391" t="s">
+        <v>480</v>
+      </c>
+      <c r="E39" s="372" t="s">
+        <v>481</v>
+      </c>
+      <c r="F39" s="373" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="395" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" s="392">
+        <v>90</v>
+      </c>
+      <c r="C40" s="350" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="377"/>
+      <c r="E40" s="377"/>
+      <c r="F40" s="377"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="396"/>
+      <c r="B41" s="393">
+        <v>120</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="241"/>
+      <c r="E41" s="241"/>
+      <c r="F41" s="241"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="397"/>
+      <c r="B42" s="394">
+        <v>240</v>
+      </c>
+      <c r="C42" s="351" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="242"/>
+      <c r="E42" s="242"/>
+      <c r="F42" s="242"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="395" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="392">
+        <v>90</v>
+      </c>
+      <c r="C43" s="350" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="377"/>
+      <c r="E43" s="377"/>
+      <c r="F43" s="377"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="396"/>
+      <c r="B44" s="393">
+        <v>120</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="241"/>
+      <c r="E44" s="241"/>
+      <c r="F44" s="241"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="397"/>
+      <c r="B45" s="394">
+        <v>240</v>
+      </c>
+      <c r="C45" s="351" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="242"/>
+      <c r="E45" s="242"/>
+      <c r="F45" s="242"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="395" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="392">
+        <v>90</v>
+      </c>
+      <c r="C46" s="350" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="377"/>
+      <c r="E46" s="377"/>
+      <c r="F46" s="377"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="396"/>
+      <c r="B47" s="393">
+        <v>120</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="241"/>
+      <c r="E47" s="241"/>
+      <c r="F47" s="241"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="397"/>
+      <c r="B48" s="394">
+        <v>240</v>
+      </c>
+      <c r="C48" s="351" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="242"/>
+      <c r="E48" s="242"/>
+      <c r="F48" s="242"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="395" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="392">
+        <v>90</v>
+      </c>
+      <c r="C49" s="350" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="377"/>
+      <c r="E49" s="377"/>
+      <c r="F49" s="377"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="396"/>
+      <c r="B50" s="393">
+        <v>120</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="241"/>
+      <c r="E50" s="241"/>
+      <c r="F50" s="241"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="397"/>
+      <c r="B51" s="394">
+        <v>240</v>
+      </c>
+      <c r="C51" s="351" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="242"/>
+      <c r="E51" s="242"/>
+      <c r="F51" s="242"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="32">
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A28:A31"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27582,24 +29510,36 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750BED35-DAB2-4DE3-873B-B8239F54935F}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="12" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>68</v>
       </c>
@@ -27610,7 +29550,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" t="s">
         <v>73</v>
@@ -27619,91 +29559,95 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E5" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="119" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="121"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="125"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="126" t="s">
+      <c r="B10" s="130" t="s">
         <v>228</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="46"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
       <c r="L10" s="46"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="128" t="s">
+      <c r="C11" s="131"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="128"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="130" t="s">
+      <c r="F11" s="131"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="293"/>
+      <c r="I11" s="133" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="128"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="21" t="s">
-        <v>168</v>
-      </c>
+      <c r="J11" s="131"/>
+      <c r="K11" s="132"/>
       <c r="L11" s="21" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="57"/>
       <c r="C12" s="23" t="s">
@@ -27716,18 +29660,19 @@
       </c>
       <c r="G12" s="58"/>
       <c r="H12" s="57"/>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="57"/>
+      <c r="J12" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="58"/>
-      <c r="K12" s="26" t="s">
+      <c r="K12" s="58"/>
+      <c r="L12" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="26" t="s">
+      <c r="M12" s="26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>68</v>
       </c>
@@ -27749,23 +29694,24 @@
       <c r="G13" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="107"/>
+      <c r="I13" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="I13" s="56" t="s">
+      <c r="J13" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="K13" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="L13" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="M13" s="28" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>203</v>
       </c>
@@ -27787,23 +29733,24 @@
       <c r="G14" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="I14" s="55" t="s">
+      <c r="H14" s="15"/>
+      <c r="I14" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J14" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="J14" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="K14" s="59" t="s">
+      <c r="K14" s="15" t="s">
         <v>169</v>
       </c>
       <c r="L14" s="59" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
         <v>202</v>
       </c>
@@ -27825,31 +29772,1814 @@
       <c r="G15" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>169</v>
-      </c>
+      <c r="H15" s="15"/>
       <c r="I15" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="J15" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="K15" s="59" t="s">
+      <c r="K15" s="15" t="s">
         <v>169</v>
       </c>
       <c r="L15" s="59" t="s">
         <v>169</v>
       </c>
+      <c r="M15" s="59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="123" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="295" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="295"/>
+      <c r="D20" s="295"/>
+      <c r="E20" s="295"/>
+      <c r="F20" s="295"/>
+      <c r="G20" s="295"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="295" t="s">
+        <v>228</v>
+      </c>
+      <c r="J20" s="295"/>
+      <c r="K20" s="296"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="131" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="131"/>
+      <c r="D21" s="294" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="294"/>
+      <c r="F21" s="294" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="132"/>
+      <c r="H21" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="293" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="293" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="55" t="e">
+        <f>A24*E24</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H24" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L24" s="59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="55" t="e">
+        <f>A25*E25</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H25" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" s="59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="123" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="297" t="s">
+        <v>228</v>
+      </c>
+      <c r="C29" s="297"/>
+      <c r="D29" s="297"/>
+      <c r="E29" s="297"/>
+      <c r="F29" s="297"/>
+      <c r="G29" s="297"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="295" t="s">
+        <v>228</v>
+      </c>
+      <c r="J29" s="295"/>
+      <c r="K29" s="296"/>
+      <c r="L29" s="46"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="290" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="290"/>
+      <c r="D30" s="292" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="292"/>
+      <c r="F30" s="292" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="291"/>
+      <c r="H30" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I30" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="J30" s="293" t="s">
+        <v>74</v>
+      </c>
+      <c r="K30" s="293" t="s">
+        <v>75</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="297" t="s">
+        <v>228</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="290" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="E32" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="L32" s="28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="292" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" s="55" t="e">
+        <f>A33*E33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H33" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L33" s="59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="292" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="55" t="e">
+        <f>A39*E34</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H34" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L34" s="59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="348"/>
+      <c r="B36" s="348"/>
+      <c r="C36" s="348"/>
+      <c r="D36" s="348"/>
+      <c r="E36" s="348"/>
+      <c r="F36" s="348"/>
+      <c r="G36" s="348"/>
+      <c r="H36" s="348"/>
+      <c r="J36" s="348"/>
+      <c r="K36" s="348"/>
+      <c r="L36" s="348"/>
+      <c r="M36" s="348"/>
+      <c r="N36" s="348"/>
+      <c r="O36" s="348"/>
+      <c r="P36" s="348"/>
+      <c r="Q36" s="348"/>
+    </row>
+    <row r="37" spans="1:17" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="343" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" s="344" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" s="345" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" s="346" t="s">
+        <v>230</v>
+      </c>
+      <c r="E37" s="347" t="s">
+        <v>470</v>
+      </c>
+      <c r="F37" s="344" t="s">
+        <v>228</v>
+      </c>
+      <c r="G37" s="345" t="s">
+        <v>231</v>
+      </c>
+      <c r="H37" s="347" t="s">
+        <v>471</v>
+      </c>
+      <c r="J37" s="343" t="s">
+        <v>68</v>
+      </c>
+      <c r="K37" s="344" t="s">
+        <v>228</v>
+      </c>
+      <c r="L37" s="345" t="s">
+        <v>229</v>
+      </c>
+      <c r="M37" s="346" t="s">
+        <v>230</v>
+      </c>
+      <c r="N37" s="347" t="s">
+        <v>470</v>
+      </c>
+      <c r="O37" s="344" t="s">
+        <v>228</v>
+      </c>
+      <c r="P37" s="345" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q37" s="347" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="338">
+        <v>90</v>
+      </c>
+      <c r="B38" s="342" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="341" t="s">
+        <v>234</v>
+      </c>
+      <c r="E38" s="340" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="342" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="H38" s="340" t="s">
+        <v>169</v>
+      </c>
+      <c r="J38" s="338" t="s">
+        <v>202</v>
+      </c>
+      <c r="K38" s="342" t="s">
+        <v>76</v>
+      </c>
+      <c r="L38" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="M38" s="341" t="s">
+        <v>234</v>
+      </c>
+      <c r="N38" s="340" t="s">
+        <v>169</v>
+      </c>
+      <c r="O38" s="342" t="s">
+        <v>76</v>
+      </c>
+      <c r="P38" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q38" s="340" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="338">
+        <v>90</v>
+      </c>
+      <c r="B39" s="342" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="341" t="s">
+        <v>234</v>
+      </c>
+      <c r="E39" s="340" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="342" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="H39" s="340" t="s">
+        <v>169</v>
+      </c>
+      <c r="J39" s="338" t="s">
+        <v>202</v>
+      </c>
+      <c r="K39" s="342" t="s">
+        <v>74</v>
+      </c>
+      <c r="L39" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="M39" s="341" t="s">
+        <v>234</v>
+      </c>
+      <c r="N39" s="340" t="s">
+        <v>169</v>
+      </c>
+      <c r="O39" s="342" t="s">
+        <v>74</v>
+      </c>
+      <c r="P39" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q39" s="340" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="338">
+        <v>90</v>
+      </c>
+      <c r="B40" s="342" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="341" t="s">
+        <v>234</v>
+      </c>
+      <c r="E40" s="340" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="342" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="H40" s="340" t="s">
+        <v>169</v>
+      </c>
+      <c r="J40" s="338" t="s">
+        <v>202</v>
+      </c>
+      <c r="K40" s="342" t="s">
+        <v>75</v>
+      </c>
+      <c r="L40" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="M40" s="341" t="s">
+        <v>234</v>
+      </c>
+      <c r="N40" s="340" t="s">
+        <v>169</v>
+      </c>
+      <c r="O40" s="342" t="s">
+        <v>75</v>
+      </c>
+      <c r="P40" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q40" s="340" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="398" t="s">
+        <v>435</v>
+      </c>
+      <c r="B43" s="398" t="s">
+        <v>474</v>
+      </c>
+      <c r="C43" s="398"/>
+      <c r="D43" s="398" t="e">
+        <f>C45/A45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E43" s="398"/>
+      <c r="F43" s="398"/>
+      <c r="G43" s="398"/>
+    </row>
+    <row r="44" spans="1:17" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="353" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="357" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" s="345" t="s">
+        <v>229</v>
+      </c>
+      <c r="D44" s="346" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" s="347" t="s">
+        <v>470</v>
+      </c>
+      <c r="F44" s="345" t="s">
+        <v>231</v>
+      </c>
+      <c r="G44" s="347" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="354">
+        <v>90</v>
+      </c>
+      <c r="B45" s="365" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="341" t="s">
+        <v>234</v>
+      </c>
+      <c r="E45" s="340" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="G45" s="340" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="355"/>
+      <c r="B46" s="365" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="341" t="s">
+        <v>234</v>
+      </c>
+      <c r="E46" s="340" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" s="340" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="355"/>
+      <c r="B47" s="365" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="341" t="s">
+        <v>234</v>
+      </c>
+      <c r="E47" s="340" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="G47" s="340" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="354" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="365" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="341" t="s">
+        <v>234</v>
+      </c>
+      <c r="E48" s="340" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="G48" s="340" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="355"/>
+      <c r="B49" s="365" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="341" t="s">
+        <v>234</v>
+      </c>
+      <c r="E49" s="340" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="G49" s="340" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="356"/>
+      <c r="B50" s="365" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="341" t="s">
+        <v>234</v>
+      </c>
+      <c r="E50" s="340" t="s">
+        <v>169</v>
+      </c>
+      <c r="F50" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="G50" s="340" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B54" s="243"/>
+      <c r="C54" s="243"/>
+      <c r="D54" s="311" t="s">
+        <v>461</v>
+      </c>
+      <c r="E54" s="312"/>
+      <c r="F54" s="312"/>
+      <c r="G54" s="312"/>
+      <c r="H54" s="312"/>
+      <c r="I54" s="313"/>
+      <c r="J54" s="314" t="s">
+        <v>466</v>
+      </c>
+      <c r="K54" s="311" t="s">
+        <v>461</v>
+      </c>
+      <c r="L54" s="312"/>
+      <c r="M54" s="312"/>
+      <c r="N54" s="312"/>
+      <c r="O54" s="312"/>
+      <c r="P54" s="313"/>
+      <c r="Q54" s="314" t="s">
+        <v>466</v>
+      </c>
+      <c r="R54" s="243"/>
+      <c r="S54" s="243"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B55" s="243"/>
+      <c r="C55" s="243"/>
+      <c r="D55" s="315" t="s">
+        <v>462</v>
+      </c>
+      <c r="E55" s="316"/>
+      <c r="F55" s="316" t="s">
+        <v>463</v>
+      </c>
+      <c r="G55" s="316"/>
+      <c r="H55" s="316" t="s">
+        <v>464</v>
+      </c>
+      <c r="I55" s="317"/>
+      <c r="J55" s="314"/>
+      <c r="K55" s="315" t="s">
+        <v>462</v>
+      </c>
+      <c r="L55" s="316"/>
+      <c r="M55" s="316" t="s">
+        <v>463</v>
+      </c>
+      <c r="N55" s="316"/>
+      <c r="O55" s="316" t="s">
+        <v>464</v>
+      </c>
+      <c r="P55" s="317"/>
+      <c r="Q55" s="314"/>
+      <c r="R55" s="243"/>
+      <c r="S55" s="243"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B56" s="243"/>
+      <c r="C56" s="243"/>
+      <c r="D56" s="318" t="s">
+        <v>465</v>
+      </c>
+      <c r="E56" s="319" t="s">
+        <v>467</v>
+      </c>
+      <c r="F56" s="319" t="s">
+        <v>465</v>
+      </c>
+      <c r="G56" s="319" t="s">
+        <v>467</v>
+      </c>
+      <c r="H56" s="319" t="s">
+        <v>465</v>
+      </c>
+      <c r="I56" s="320" t="s">
+        <v>467</v>
+      </c>
+      <c r="J56" s="314"/>
+      <c r="K56" s="318" t="s">
+        <v>465</v>
+      </c>
+      <c r="L56" s="319" t="s">
+        <v>467</v>
+      </c>
+      <c r="M56" s="319" t="s">
+        <v>465</v>
+      </c>
+      <c r="N56" s="319" t="s">
+        <v>467</v>
+      </c>
+      <c r="O56" s="319" t="s">
+        <v>465</v>
+      </c>
+      <c r="P56" s="320" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q56" s="314"/>
+      <c r="R56" s="243"/>
+      <c r="S56" s="243"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B57" s="321" t="s">
+        <v>457</v>
+      </c>
+      <c r="C57" s="321" t="s">
+        <v>458</v>
+      </c>
+      <c r="D57" s="322" t="s">
+        <v>354</v>
+      </c>
+      <c r="E57" s="323" t="s">
+        <v>396</v>
+      </c>
+      <c r="F57" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="G57" s="323" t="s">
+        <v>469</v>
+      </c>
+      <c r="H57" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="I57" s="325" t="s">
+        <v>468</v>
+      </c>
+      <c r="J57" s="326" t="s">
+        <v>354</v>
+      </c>
+      <c r="K57" s="322" t="s">
+        <v>354</v>
+      </c>
+      <c r="L57" s="323" t="s">
+        <v>396</v>
+      </c>
+      <c r="M57" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="N57" s="323" t="s">
+        <v>469</v>
+      </c>
+      <c r="O57" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="P57" s="325" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q57" s="326" t="s">
+        <v>354</v>
+      </c>
+      <c r="R57" s="243"/>
+      <c r="S57" s="243"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B58" s="321" t="s">
+        <v>457</v>
+      </c>
+      <c r="C58" s="321" t="s">
+        <v>459</v>
+      </c>
+      <c r="D58" s="322" t="s">
+        <v>354</v>
+      </c>
+      <c r="E58" s="323" t="s">
+        <v>396</v>
+      </c>
+      <c r="F58" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="G58" s="323" t="s">
+        <v>469</v>
+      </c>
+      <c r="H58" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="I58" s="325" t="s">
+        <v>468</v>
+      </c>
+      <c r="J58" s="326" t="s">
+        <v>354</v>
+      </c>
+      <c r="K58" s="322" t="s">
+        <v>354</v>
+      </c>
+      <c r="L58" s="323" t="s">
+        <v>396</v>
+      </c>
+      <c r="M58" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="N58" s="323" t="s">
+        <v>469</v>
+      </c>
+      <c r="O58" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="P58" s="325" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q58" s="326" t="s">
+        <v>354</v>
+      </c>
+      <c r="R58" s="243"/>
+      <c r="S58" s="243"/>
+    </row>
+    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="321" t="s">
+        <v>457</v>
+      </c>
+      <c r="C59" s="321" t="s">
+        <v>460</v>
+      </c>
+      <c r="D59" s="327" t="s">
+        <v>354</v>
+      </c>
+      <c r="E59" s="328" t="s">
+        <v>396</v>
+      </c>
+      <c r="F59" s="329" t="s">
+        <v>354</v>
+      </c>
+      <c r="G59" s="328" t="s">
+        <v>469</v>
+      </c>
+      <c r="H59" s="329" t="s">
+        <v>354</v>
+      </c>
+      <c r="I59" s="330" t="s">
+        <v>468</v>
+      </c>
+      <c r="J59" s="326" t="s">
+        <v>354</v>
+      </c>
+      <c r="K59" s="327" t="s">
+        <v>354</v>
+      </c>
+      <c r="L59" s="328" t="s">
+        <v>396</v>
+      </c>
+      <c r="M59" s="329" t="s">
+        <v>354</v>
+      </c>
+      <c r="N59" s="328" t="s">
+        <v>469</v>
+      </c>
+      <c r="O59" s="329" t="s">
+        <v>354</v>
+      </c>
+      <c r="P59" s="330" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q59" s="326" t="s">
+        <v>354</v>
+      </c>
+      <c r="R59" s="243"/>
+      <c r="S59" s="243"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B60" s="243"/>
+      <c r="C60" s="243"/>
+      <c r="D60" s="243"/>
+      <c r="E60" s="243"/>
+      <c r="F60" s="243"/>
+      <c r="G60" s="243"/>
+      <c r="H60" s="243"/>
+      <c r="I60" s="243"/>
+      <c r="J60" s="243"/>
+      <c r="K60" s="243"/>
+      <c r="L60" s="243"/>
+      <c r="M60" s="243"/>
+      <c r="N60" s="243"/>
+      <c r="O60" s="243"/>
+      <c r="P60" s="243"/>
+      <c r="Q60" s="243"/>
+      <c r="R60" s="243"/>
+      <c r="S60" s="243"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B61" s="243"/>
+      <c r="C61" s="243"/>
+      <c r="D61" s="243"/>
+      <c r="E61" s="243"/>
+      <c r="F61" s="243"/>
+      <c r="G61" s="243"/>
+      <c r="H61" s="243"/>
+      <c r="I61" s="243"/>
+      <c r="J61" s="243"/>
+      <c r="K61" s="243"/>
+      <c r="L61" s="243"/>
+      <c r="M61" s="243"/>
+      <c r="N61" s="243"/>
+      <c r="O61" s="243"/>
+      <c r="P61" s="243"/>
+      <c r="Q61" s="243"/>
+      <c r="R61" s="243"/>
+      <c r="S61" s="243"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B62" s="243"/>
+      <c r="C62" s="243"/>
+      <c r="D62" s="243"/>
+      <c r="E62" s="243"/>
+      <c r="F62" s="243"/>
+      <c r="G62" s="243"/>
+      <c r="H62" s="243"/>
+      <c r="I62" s="243"/>
+      <c r="J62" s="243"/>
+      <c r="K62" s="243"/>
+      <c r="L62" s="243"/>
+      <c r="M62" s="243"/>
+      <c r="N62" s="243"/>
+      <c r="O62" s="243"/>
+      <c r="P62" s="243"/>
+      <c r="Q62" s="243"/>
+      <c r="R62" s="243"/>
+      <c r="S62" s="243"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B63" s="243"/>
+      <c r="C63" s="243"/>
+      <c r="D63" s="243"/>
+      <c r="E63" s="243"/>
+      <c r="F63" s="243"/>
+      <c r="G63" s="243"/>
+      <c r="H63" s="243"/>
+      <c r="I63" s="243"/>
+      <c r="J63" s="243"/>
+      <c r="K63" s="243"/>
+      <c r="L63" s="243"/>
+      <c r="M63" s="243"/>
+      <c r="N63" s="243"/>
+      <c r="O63" s="243"/>
+      <c r="P63" s="243"/>
+      <c r="Q63" s="243"/>
+      <c r="R63" s="243"/>
+      <c r="S63" s="243"/>
+    </row>
+    <row r="64" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="243"/>
+      <c r="C64" s="243"/>
+      <c r="D64" s="243"/>
+      <c r="E64" s="243"/>
+      <c r="F64" s="243"/>
+      <c r="G64" s="243"/>
+      <c r="H64" s="243"/>
+      <c r="I64" s="243"/>
+      <c r="J64" s="243"/>
+      <c r="K64" s="243"/>
+      <c r="L64" s="243"/>
+      <c r="M64" s="243"/>
+      <c r="N64" s="243"/>
+      <c r="O64" s="243"/>
+      <c r="P64" s="243"/>
+      <c r="Q64" s="243"/>
+      <c r="R64" s="243"/>
+      <c r="S64" s="243"/>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B65" s="243"/>
+      <c r="C65" s="243"/>
+      <c r="D65" s="331" t="s">
+        <v>461</v>
+      </c>
+      <c r="E65" s="332"/>
+      <c r="F65" s="333" t="s">
+        <v>466</v>
+      </c>
+      <c r="G65" s="331"/>
+      <c r="H65" s="332"/>
+      <c r="I65" s="333" t="s">
+        <v>466</v>
+      </c>
+      <c r="J65" s="331"/>
+      <c r="K65" s="332"/>
+      <c r="L65" s="333" t="s">
+        <v>466</v>
+      </c>
+      <c r="M65" s="311" t="s">
+        <v>461</v>
+      </c>
+      <c r="N65" s="312"/>
+      <c r="O65" s="312"/>
+      <c r="P65" s="312"/>
+      <c r="Q65" s="312"/>
+      <c r="R65" s="313"/>
+      <c r="S65" s="333" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B66" s="243"/>
+      <c r="C66" s="243"/>
+      <c r="D66" s="318" t="s">
+        <v>462</v>
+      </c>
+      <c r="E66" s="320"/>
+      <c r="F66" s="333"/>
+      <c r="G66" s="318" t="s">
+        <v>463</v>
+      </c>
+      <c r="H66" s="320"/>
+      <c r="I66" s="333"/>
+      <c r="J66" s="318" t="s">
+        <v>464</v>
+      </c>
+      <c r="K66" s="320"/>
+      <c r="L66" s="333"/>
+      <c r="M66" s="315" t="s">
+        <v>462</v>
+      </c>
+      <c r="N66" s="316"/>
+      <c r="O66" s="316" t="s">
+        <v>463</v>
+      </c>
+      <c r="P66" s="316"/>
+      <c r="Q66" s="316" t="s">
+        <v>464</v>
+      </c>
+      <c r="R66" s="317"/>
+      <c r="S66" s="333"/>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B67" s="243"/>
+      <c r="C67" s="243"/>
+      <c r="D67" s="318" t="s">
+        <v>465</v>
+      </c>
+      <c r="E67" s="320" t="s">
+        <v>467</v>
+      </c>
+      <c r="F67" s="333"/>
+      <c r="G67" s="318" t="s">
+        <v>465</v>
+      </c>
+      <c r="H67" s="320" t="s">
+        <v>467</v>
+      </c>
+      <c r="I67" s="333"/>
+      <c r="J67" s="318" t="s">
+        <v>465</v>
+      </c>
+      <c r="K67" s="320" t="s">
+        <v>467</v>
+      </c>
+      <c r="L67" s="333"/>
+      <c r="M67" s="318" t="s">
+        <v>465</v>
+      </c>
+      <c r="N67" s="319" t="s">
+        <v>467</v>
+      </c>
+      <c r="O67" s="319" t="s">
+        <v>465</v>
+      </c>
+      <c r="P67" s="319" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q67" s="319" t="s">
+        <v>465</v>
+      </c>
+      <c r="R67" s="320" t="s">
+        <v>467</v>
+      </c>
+      <c r="S67" s="333"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B68" s="321" t="s">
+        <v>457</v>
+      </c>
+      <c r="C68" s="321" t="s">
+        <v>458</v>
+      </c>
+      <c r="D68" s="322" t="s">
+        <v>354</v>
+      </c>
+      <c r="E68" s="325" t="s">
+        <v>396</v>
+      </c>
+      <c r="F68" s="334" t="s">
+        <v>354</v>
+      </c>
+      <c r="G68" s="322" t="s">
+        <v>354</v>
+      </c>
+      <c r="H68" s="325" t="s">
+        <v>469</v>
+      </c>
+      <c r="I68" s="334" t="s">
+        <v>354</v>
+      </c>
+      <c r="J68" s="322" t="s">
+        <v>354</v>
+      </c>
+      <c r="K68" s="325" t="s">
+        <v>468</v>
+      </c>
+      <c r="L68" s="334" t="s">
+        <v>354</v>
+      </c>
+      <c r="M68" s="322" t="s">
+        <v>354</v>
+      </c>
+      <c r="N68" s="323" t="s">
+        <v>396</v>
+      </c>
+      <c r="O68" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="P68" s="323" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q68" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="R68" s="325" t="s">
+        <v>468</v>
+      </c>
+      <c r="S68" s="334" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B69" s="321" t="s">
+        <v>457</v>
+      </c>
+      <c r="C69" s="321" t="s">
+        <v>459</v>
+      </c>
+      <c r="D69" s="322" t="s">
+        <v>354</v>
+      </c>
+      <c r="E69" s="325" t="s">
+        <v>396</v>
+      </c>
+      <c r="F69" s="334" t="s">
+        <v>354</v>
+      </c>
+      <c r="G69" s="322" t="s">
+        <v>354</v>
+      </c>
+      <c r="H69" s="325" t="s">
+        <v>469</v>
+      </c>
+      <c r="I69" s="334" t="s">
+        <v>354</v>
+      </c>
+      <c r="J69" s="322" t="s">
+        <v>354</v>
+      </c>
+      <c r="K69" s="325" t="s">
+        <v>468</v>
+      </c>
+      <c r="L69" s="334" t="s">
+        <v>354</v>
+      </c>
+      <c r="M69" s="322" t="s">
+        <v>354</v>
+      </c>
+      <c r="N69" s="323" t="s">
+        <v>396</v>
+      </c>
+      <c r="O69" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="P69" s="323" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q69" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="R69" s="325" t="s">
+        <v>468</v>
+      </c>
+      <c r="S69" s="334" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="321" t="s">
+        <v>457</v>
+      </c>
+      <c r="C70" s="321" t="s">
+        <v>460</v>
+      </c>
+      <c r="D70" s="327" t="s">
+        <v>354</v>
+      </c>
+      <c r="E70" s="330" t="s">
+        <v>396</v>
+      </c>
+      <c r="F70" s="334" t="s">
+        <v>354</v>
+      </c>
+      <c r="G70" s="327" t="s">
+        <v>354</v>
+      </c>
+      <c r="H70" s="330" t="s">
+        <v>469</v>
+      </c>
+      <c r="I70" s="334" t="s">
+        <v>354</v>
+      </c>
+      <c r="J70" s="327" t="s">
+        <v>354</v>
+      </c>
+      <c r="K70" s="330" t="s">
+        <v>468</v>
+      </c>
+      <c r="L70" s="334" t="s">
+        <v>354</v>
+      </c>
+      <c r="M70" s="327" t="s">
+        <v>354</v>
+      </c>
+      <c r="N70" s="328" t="s">
+        <v>396</v>
+      </c>
+      <c r="O70" s="329" t="s">
+        <v>354</v>
+      </c>
+      <c r="P70" s="328" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q70" s="329" t="s">
+        <v>354</v>
+      </c>
+      <c r="R70" s="330" t="s">
+        <v>468</v>
+      </c>
+      <c r="S70" s="334" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D74" s="319" t="s">
+        <v>461</v>
+      </c>
+      <c r="E74" s="335"/>
+      <c r="F74" s="335"/>
+      <c r="G74" s="319" t="s">
+        <v>461</v>
+      </c>
+      <c r="H74" s="335"/>
+      <c r="I74" s="335"/>
+      <c r="J74" s="319" t="s">
+        <v>461</v>
+      </c>
+      <c r="K74" s="335"/>
+      <c r="L74" s="335"/>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D75" s="319" t="s">
+        <v>462</v>
+      </c>
+      <c r="E75" s="335"/>
+      <c r="F75" s="335"/>
+      <c r="G75" s="319" t="s">
+        <v>463</v>
+      </c>
+      <c r="H75" s="335"/>
+      <c r="I75" s="335"/>
+      <c r="J75" s="319" t="s">
+        <v>464</v>
+      </c>
+      <c r="K75" s="335"/>
+      <c r="L75" s="335"/>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D76" s="319" t="s">
+        <v>465</v>
+      </c>
+      <c r="E76" s="335"/>
+      <c r="F76" s="335"/>
+      <c r="G76" s="319" t="s">
+        <v>465</v>
+      </c>
+      <c r="H76" s="335"/>
+      <c r="I76" s="335"/>
+      <c r="J76" s="319" t="s">
+        <v>465</v>
+      </c>
+      <c r="K76" s="335"/>
+      <c r="L76" s="335"/>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B77" s="321" t="s">
+        <v>457</v>
+      </c>
+      <c r="C77" s="321" t="s">
+        <v>458</v>
+      </c>
+      <c r="D77" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="E77" s="335"/>
+      <c r="F77" s="335"/>
+      <c r="G77" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="H77" s="335"/>
+      <c r="I77" s="335"/>
+      <c r="J77" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="K77" s="335"/>
+      <c r="L77" s="335"/>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B78" s="321" t="s">
+        <v>457</v>
+      </c>
+      <c r="C78" s="321" t="s">
+        <v>459</v>
+      </c>
+      <c r="D78" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="E78" s="335"/>
+      <c r="F78" s="335"/>
+      <c r="G78" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="H78" s="335"/>
+      <c r="I78" s="335"/>
+      <c r="J78" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="K78" s="335"/>
+      <c r="L78" s="335"/>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B79" s="321" t="s">
+        <v>457</v>
+      </c>
+      <c r="C79" s="321" t="s">
+        <v>460</v>
+      </c>
+      <c r="D79" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="E79" s="335"/>
+      <c r="F79" s="335"/>
+      <c r="G79" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="H79" s="335"/>
+      <c r="I79" s="335"/>
+      <c r="J79" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="K79" s="335"/>
+      <c r="L79" s="335"/>
+    </row>
+    <row r="81" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D82" s="311" t="s">
+        <v>461</v>
+      </c>
+      <c r="E82" s="312"/>
+      <c r="F82" s="312"/>
+      <c r="G82" s="312"/>
+      <c r="H82" s="312"/>
+      <c r="I82" s="313"/>
+      <c r="K82" s="336"/>
+    </row>
+    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D83" s="315" t="s">
+        <v>462</v>
+      </c>
+      <c r="E83" s="316"/>
+      <c r="F83" s="316" t="s">
+        <v>463</v>
+      </c>
+      <c r="G83" s="316"/>
+      <c r="H83" s="316" t="s">
+        <v>464</v>
+      </c>
+      <c r="I83" s="317"/>
+      <c r="K83" s="336"/>
+    </row>
+    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D84" s="318" t="s">
+        <v>465</v>
+      </c>
+      <c r="E84" s="319" t="s">
+        <v>467</v>
+      </c>
+      <c r="F84" s="319" t="s">
+        <v>465</v>
+      </c>
+      <c r="G84" s="319" t="s">
+        <v>467</v>
+      </c>
+      <c r="H84" s="319" t="s">
+        <v>465</v>
+      </c>
+      <c r="I84" s="320" t="s">
+        <v>467</v>
+      </c>
+      <c r="K84" s="336" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D85" s="322" t="s">
+        <v>354</v>
+      </c>
+      <c r="E85" s="323" t="s">
+        <v>396</v>
+      </c>
+      <c r="F85" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="G85" s="323" t="s">
+        <v>469</v>
+      </c>
+      <c r="H85" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="I85" s="325" t="s">
+        <v>468</v>
+      </c>
+      <c r="K85" s="326" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D86" s="322" t="s">
+        <v>354</v>
+      </c>
+      <c r="E86" s="323" t="s">
+        <v>396</v>
+      </c>
+      <c r="F86" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="G86" s="323" t="s">
+        <v>469</v>
+      </c>
+      <c r="H86" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="I86" s="325" t="s">
+        <v>468</v>
+      </c>
+      <c r="K86" s="326" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D87" s="327" t="s">
+        <v>354</v>
+      </c>
+      <c r="E87" s="328" t="s">
+        <v>396</v>
+      </c>
+      <c r="F87" s="329" t="s">
+        <v>354</v>
+      </c>
+      <c r="G87" s="328" t="s">
+        <v>469</v>
+      </c>
+      <c r="H87" s="329" t="s">
+        <v>354</v>
+      </c>
+      <c r="I87" s="330" t="s">
+        <v>468</v>
+      </c>
+      <c r="K87" s="326" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="89" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C89" s="122" t="s">
+        <v>370</v>
+      </c>
+      <c r="D89" s="122"/>
+      <c r="E89" s="122"/>
+      <c r="F89" s="122"/>
+      <c r="G89" s="122"/>
+    </row>
+    <row r="90" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C90" s="321" t="s">
+        <v>457</v>
+      </c>
+      <c r="D90" s="319" t="s">
+        <v>461</v>
+      </c>
+      <c r="E90" s="319" t="s">
+        <v>465</v>
+      </c>
+      <c r="F90" s="323" t="s">
+        <v>467</v>
+      </c>
+      <c r="G90" s="336" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="91" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C91" s="321" t="s">
+        <v>458</v>
+      </c>
+      <c r="D91" s="319" t="s">
+        <v>462</v>
+      </c>
+      <c r="E91" s="337" t="s">
+        <v>354</v>
+      </c>
+      <c r="F91" s="323" t="s">
+        <v>469</v>
+      </c>
+      <c r="G91" s="326" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="92" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C92" s="321" t="s">
+        <v>459</v>
+      </c>
+      <c r="D92" s="319" t="s">
+        <v>463</v>
+      </c>
+      <c r="E92" s="337" t="s">
+        <v>354</v>
+      </c>
+      <c r="F92" s="323" t="s">
+        <v>469</v>
+      </c>
+      <c r="G92" s="326" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="93" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="321" t="s">
+        <v>460</v>
+      </c>
+      <c r="D93" s="319" t="s">
+        <v>464</v>
+      </c>
+      <c r="E93" s="337" t="s">
+        <v>354</v>
+      </c>
+      <c r="F93" s="328" t="s">
+        <v>469</v>
+      </c>
+      <c r="G93" s="326" t="s">
+        <v>354</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="41">
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="Q54:Q56"/>
+    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="M65:R65"/>
+    <mergeCell ref="S65:S67"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="D54:I54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="K54:P54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="I20:K20"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="A9:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/third_times_a_charm/excel_to_empty_report/Engineering Report Test Parameter List 6-2025 Arrays.xlsx
+++ b/third_times_a_charm/excel_to_empty_report/Engineering Report Test Parameter List 6-2025 Arrays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enfxm\Desktop\Python Testing\Test Report Template\Test-Report-Generator\third_times_a_charm\excel_to_empty_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1095668F-A17C-4EFE-9E7E-A46AE5992FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A899A1E6-34DE-440A-BF64-08733F8A7A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="771" firstSheet="5" activeTab="8" xr2:uid="{F97DC384-B943-4F3B-9436-FF2DE7277B38}"/>
+    <workbookView xWindow="-26400" yWindow="285" windowWidth="21600" windowHeight="11295" tabRatio="771" firstSheet="5" activeTab="8" xr2:uid="{F97DC384-B943-4F3B-9436-FF2DE7277B38}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Definitions (3)" sheetId="15" r:id="rId1"/>
@@ -21,10 +21,11 @@
     <sheet name="Test Arrays" sheetId="10" r:id="rId6"/>
     <sheet name="(ex) Input Current" sheetId="3" r:id="rId7"/>
     <sheet name="(ex) Efficiency" sheetId="6" r:id="rId8"/>
-    <sheet name="(ex) Transient Response Step" sheetId="9" r:id="rId9"/>
-    <sheet name="(ex) Output Touch Current" sheetId="7" r:id="rId10"/>
-    <sheet name="(ex) Output Touch Current (2)" sheetId="14" r:id="rId11"/>
-    <sheet name="(ex) Conducted Emissions" sheetId="8" r:id="rId12"/>
+    <sheet name="Sheet6" sheetId="17" r:id="rId9"/>
+    <sheet name="(ex) Transient Response Step" sheetId="9" r:id="rId10"/>
+    <sheet name="(ex) Output Touch Current" sheetId="7" r:id="rId11"/>
+    <sheet name="(ex) Output Touch Current (2)" sheetId="14" r:id="rId12"/>
+    <sheet name="(ex) Conducted Emissions" sheetId="8" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="512">
   <si>
     <t>Test Item</t>
   </si>
@@ -1607,12 +1608,96 @@
   <si>
     <t xml:space="preserve">either simple equation referencing columns, or connecting to specific condition to do an equation with all the </t>
   </si>
+  <si>
+    <t>Cfg_gnd</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>Iout</t>
+  </si>
+  <si>
+    <t>L/N</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>25A</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Spec</t>
+  </si>
+  <si>
+    <t>GND CONFIG</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>50%-100 %</t>
+  </si>
+  <si>
+    <t>0%-100 %</t>
+  </si>
+  <si>
+    <t>Load Range</t>
+  </si>
+  <si>
+    <t>Rising/Falling Edge</t>
+  </si>
+  <si>
+    <t>Rising Edge</t>
+  </si>
+  <si>
+    <t>Falling Edge</t>
+  </si>
+  <si>
+    <t>ΔV at 1ms</t>
+  </si>
+  <si>
+    <t>Expected ΔV at 1ms</t>
+  </si>
+  <si>
+    <t>Actual ΔV at 1ms</t>
+  </si>
+  <si>
+    <t>ΔV max</t>
+  </si>
+  <si>
+    <t>Expected ΔV max</t>
+  </si>
+  <si>
+    <t>Load (A)</t>
+  </si>
+  <si>
+    <t>Load (%)</t>
+  </si>
+  <si>
+    <t>Expected Load</t>
+  </si>
+  <si>
+    <t>Load to return (A)</t>
+  </si>
+  <si>
+    <t>105 - 150 %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1706,8 +1791,34 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3B3B3B"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3B3B3B"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1876,8 +1987,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="92">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -2694,6 +2811,30 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -2759,6 +2900,21 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -2802,7 +2958,33 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -2964,6 +3146,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -3048,11 +3241,240 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="399">
+  <cellXfs count="485">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3521,7 +3943,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3531,13 +3953,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3564,7 +3989,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3606,44 +4031,53 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -3655,21 +4089,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
@@ -3689,7 +4123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3698,31 +4132,31 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3737,7 +4171,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3827,7 +4261,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3880,40 +4314,40 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="63" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="65" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3922,28 +4356,28 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="77" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="82" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="79" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="84" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3989,10 +4423,7 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4001,8 +4432,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="25" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="25" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4014,19 +4445,19 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4041,7 +4472,7 @@
     <xf numFmtId="9" fontId="4" fillId="11" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4056,88 +4487,329 @@
     <xf numFmtId="9" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17343,6 +18015,2082 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750BED35-DAB2-4DE3-873B-B8239F54935F}">
+  <dimension ref="A1:S93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="123" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="125"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="130" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="131" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="131"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="131" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="131"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="297"/>
+      <c r="I11" s="133" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="131"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="58"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="58"/>
+      <c r="L12" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="H13" s="107"/>
+      <c r="I13" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="J13" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J14" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L14" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="M14" s="59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L15" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" s="59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="123" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="299" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="299"/>
+      <c r="D20" s="299"/>
+      <c r="E20" s="299"/>
+      <c r="F20" s="299"/>
+      <c r="G20" s="299"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="299" t="s">
+        <v>228</v>
+      </c>
+      <c r="J20" s="299"/>
+      <c r="K20" s="300"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="131" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="131"/>
+      <c r="D21" s="298" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="298"/>
+      <c r="F21" s="298" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="132"/>
+      <c r="H21" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="297" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="297" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="55" t="e">
+        <f>A24*E24</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H24" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L24" s="59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="55" t="e">
+        <f>A25*E25</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H25" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" s="59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="123" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="301" t="s">
+        <v>228</v>
+      </c>
+      <c r="C29" s="301"/>
+      <c r="D29" s="301"/>
+      <c r="E29" s="301"/>
+      <c r="F29" s="301"/>
+      <c r="G29" s="301"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="299" t="s">
+        <v>228</v>
+      </c>
+      <c r="J29" s="299"/>
+      <c r="K29" s="300"/>
+      <c r="L29" s="46"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="294" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="294"/>
+      <c r="D30" s="296" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="296"/>
+      <c r="F30" s="296" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="295"/>
+      <c r="H30" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I30" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="J30" s="297" t="s">
+        <v>74</v>
+      </c>
+      <c r="K30" s="297" t="s">
+        <v>75</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="301" t="s">
+        <v>228</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="294" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="E32" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="L32" s="28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="296" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" s="55" t="e">
+        <f>A33*E33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H33" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L33" s="59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="296" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="55" t="e">
+        <f>A39*E34</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H34" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L34" s="59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="352"/>
+      <c r="B36" s="352"/>
+      <c r="C36" s="352"/>
+      <c r="D36" s="352"/>
+      <c r="E36" s="352"/>
+      <c r="F36" s="352"/>
+      <c r="G36" s="352"/>
+      <c r="H36" s="352"/>
+      <c r="J36" s="352"/>
+      <c r="K36" s="352"/>
+      <c r="L36" s="352"/>
+      <c r="M36" s="352"/>
+      <c r="N36" s="352"/>
+      <c r="O36" s="352"/>
+      <c r="P36" s="352"/>
+      <c r="Q36" s="352"/>
+    </row>
+    <row r="37" spans="1:17" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="347" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" s="348" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" s="349" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" s="350" t="s">
+        <v>230</v>
+      </c>
+      <c r="E37" s="351" t="s">
+        <v>470</v>
+      </c>
+      <c r="F37" s="348" t="s">
+        <v>228</v>
+      </c>
+      <c r="G37" s="349" t="s">
+        <v>231</v>
+      </c>
+      <c r="H37" s="351" t="s">
+        <v>471</v>
+      </c>
+      <c r="J37" s="347" t="s">
+        <v>68</v>
+      </c>
+      <c r="K37" s="348" t="s">
+        <v>228</v>
+      </c>
+      <c r="L37" s="349" t="s">
+        <v>229</v>
+      </c>
+      <c r="M37" s="350" t="s">
+        <v>230</v>
+      </c>
+      <c r="N37" s="351" t="s">
+        <v>470</v>
+      </c>
+      <c r="O37" s="348" t="s">
+        <v>228</v>
+      </c>
+      <c r="P37" s="349" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q37" s="351" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="342">
+        <v>90</v>
+      </c>
+      <c r="B38" s="346" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="345" t="s">
+        <v>234</v>
+      </c>
+      <c r="E38" s="344" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="346" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="H38" s="344" t="s">
+        <v>169</v>
+      </c>
+      <c r="J38" s="342" t="s">
+        <v>202</v>
+      </c>
+      <c r="K38" s="346" t="s">
+        <v>76</v>
+      </c>
+      <c r="L38" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="M38" s="345" t="s">
+        <v>234</v>
+      </c>
+      <c r="N38" s="344" t="s">
+        <v>169</v>
+      </c>
+      <c r="O38" s="346" t="s">
+        <v>76</v>
+      </c>
+      <c r="P38" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q38" s="344" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="342">
+        <v>90</v>
+      </c>
+      <c r="B39" s="346" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="345" t="s">
+        <v>234</v>
+      </c>
+      <c r="E39" s="344" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="346" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="H39" s="344" t="s">
+        <v>169</v>
+      </c>
+      <c r="J39" s="342" t="s">
+        <v>202</v>
+      </c>
+      <c r="K39" s="346" t="s">
+        <v>74</v>
+      </c>
+      <c r="L39" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="M39" s="345" t="s">
+        <v>234</v>
+      </c>
+      <c r="N39" s="344" t="s">
+        <v>169</v>
+      </c>
+      <c r="O39" s="346" t="s">
+        <v>74</v>
+      </c>
+      <c r="P39" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q39" s="344" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="342">
+        <v>90</v>
+      </c>
+      <c r="B40" s="346" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="345" t="s">
+        <v>234</v>
+      </c>
+      <c r="E40" s="344" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="346" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="H40" s="344" t="s">
+        <v>169</v>
+      </c>
+      <c r="J40" s="342" t="s">
+        <v>202</v>
+      </c>
+      <c r="K40" s="346" t="s">
+        <v>75</v>
+      </c>
+      <c r="L40" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="M40" s="345" t="s">
+        <v>234</v>
+      </c>
+      <c r="N40" s="344" t="s">
+        <v>169</v>
+      </c>
+      <c r="O40" s="346" t="s">
+        <v>75</v>
+      </c>
+      <c r="P40" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q40" s="344" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="402" t="s">
+        <v>435</v>
+      </c>
+      <c r="B43" s="402" t="s">
+        <v>474</v>
+      </c>
+      <c r="C43" s="402"/>
+      <c r="D43" s="402" t="e">
+        <f>C45/A45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E43" s="402"/>
+      <c r="F43" s="402"/>
+      <c r="G43" s="402"/>
+    </row>
+    <row r="44" spans="1:17" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="356" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="360" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" s="349" t="s">
+        <v>229</v>
+      </c>
+      <c r="D44" s="350" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" s="351" t="s">
+        <v>470</v>
+      </c>
+      <c r="F44" s="349" t="s">
+        <v>231</v>
+      </c>
+      <c r="G44" s="351" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="357">
+        <v>90</v>
+      </c>
+      <c r="B45" s="368" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="345" t="s">
+        <v>234</v>
+      </c>
+      <c r="E45" s="344" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="G45" s="344" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="358"/>
+      <c r="B46" s="368" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="345" t="s">
+        <v>234</v>
+      </c>
+      <c r="E46" s="344" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" s="344" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="358"/>
+      <c r="B47" s="368" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="345" t="s">
+        <v>234</v>
+      </c>
+      <c r="E47" s="344" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="G47" s="344" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="357" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="368" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="345" t="s">
+        <v>234</v>
+      </c>
+      <c r="E48" s="344" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="G48" s="344" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="358"/>
+      <c r="B49" s="368" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="345" t="s">
+        <v>234</v>
+      </c>
+      <c r="E49" s="344" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="G49" s="344" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="359"/>
+      <c r="B50" s="368" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="345" t="s">
+        <v>234</v>
+      </c>
+      <c r="E50" s="344" t="s">
+        <v>169</v>
+      </c>
+      <c r="F50" s="343" t="s">
+        <v>169</v>
+      </c>
+      <c r="G50" s="344" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B54" s="247"/>
+      <c r="C54" s="247"/>
+      <c r="D54" s="315" t="s">
+        <v>461</v>
+      </c>
+      <c r="E54" s="316"/>
+      <c r="F54" s="316"/>
+      <c r="G54" s="316"/>
+      <c r="H54" s="316"/>
+      <c r="I54" s="317"/>
+      <c r="J54" s="318" t="s">
+        <v>466</v>
+      </c>
+      <c r="K54" s="315" t="s">
+        <v>461</v>
+      </c>
+      <c r="L54" s="316"/>
+      <c r="M54" s="316"/>
+      <c r="N54" s="316"/>
+      <c r="O54" s="316"/>
+      <c r="P54" s="317"/>
+      <c r="Q54" s="318" t="s">
+        <v>466</v>
+      </c>
+      <c r="R54" s="247"/>
+      <c r="S54" s="247"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B55" s="247"/>
+      <c r="C55" s="247"/>
+      <c r="D55" s="319" t="s">
+        <v>462</v>
+      </c>
+      <c r="E55" s="320"/>
+      <c r="F55" s="320" t="s">
+        <v>463</v>
+      </c>
+      <c r="G55" s="320"/>
+      <c r="H55" s="320" t="s">
+        <v>464</v>
+      </c>
+      <c r="I55" s="321"/>
+      <c r="J55" s="318"/>
+      <c r="K55" s="319" t="s">
+        <v>462</v>
+      </c>
+      <c r="L55" s="320"/>
+      <c r="M55" s="320" t="s">
+        <v>463</v>
+      </c>
+      <c r="N55" s="320"/>
+      <c r="O55" s="320" t="s">
+        <v>464</v>
+      </c>
+      <c r="P55" s="321"/>
+      <c r="Q55" s="318"/>
+      <c r="R55" s="247"/>
+      <c r="S55" s="247"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B56" s="247"/>
+      <c r="C56" s="247"/>
+      <c r="D56" s="322" t="s">
+        <v>465</v>
+      </c>
+      <c r="E56" s="323" t="s">
+        <v>467</v>
+      </c>
+      <c r="F56" s="323" t="s">
+        <v>465</v>
+      </c>
+      <c r="G56" s="323" t="s">
+        <v>467</v>
+      </c>
+      <c r="H56" s="323" t="s">
+        <v>465</v>
+      </c>
+      <c r="I56" s="324" t="s">
+        <v>467</v>
+      </c>
+      <c r="J56" s="318"/>
+      <c r="K56" s="322" t="s">
+        <v>465</v>
+      </c>
+      <c r="L56" s="323" t="s">
+        <v>467</v>
+      </c>
+      <c r="M56" s="323" t="s">
+        <v>465</v>
+      </c>
+      <c r="N56" s="323" t="s">
+        <v>467</v>
+      </c>
+      <c r="O56" s="323" t="s">
+        <v>465</v>
+      </c>
+      <c r="P56" s="324" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q56" s="318"/>
+      <c r="R56" s="247"/>
+      <c r="S56" s="247"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B57" s="325" t="s">
+        <v>457</v>
+      </c>
+      <c r="C57" s="325" t="s">
+        <v>458</v>
+      </c>
+      <c r="D57" s="326" t="s">
+        <v>354</v>
+      </c>
+      <c r="E57" s="327" t="s">
+        <v>396</v>
+      </c>
+      <c r="F57" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="G57" s="327" t="s">
+        <v>469</v>
+      </c>
+      <c r="H57" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="I57" s="329" t="s">
+        <v>468</v>
+      </c>
+      <c r="J57" s="330" t="s">
+        <v>354</v>
+      </c>
+      <c r="K57" s="326" t="s">
+        <v>354</v>
+      </c>
+      <c r="L57" s="327" t="s">
+        <v>396</v>
+      </c>
+      <c r="M57" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="N57" s="327" t="s">
+        <v>469</v>
+      </c>
+      <c r="O57" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="P57" s="329" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q57" s="330" t="s">
+        <v>354</v>
+      </c>
+      <c r="R57" s="247"/>
+      <c r="S57" s="247"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B58" s="325" t="s">
+        <v>457</v>
+      </c>
+      <c r="C58" s="325" t="s">
+        <v>459</v>
+      </c>
+      <c r="D58" s="326" t="s">
+        <v>354</v>
+      </c>
+      <c r="E58" s="327" t="s">
+        <v>396</v>
+      </c>
+      <c r="F58" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="G58" s="327" t="s">
+        <v>469</v>
+      </c>
+      <c r="H58" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="I58" s="329" t="s">
+        <v>468</v>
+      </c>
+      <c r="J58" s="330" t="s">
+        <v>354</v>
+      </c>
+      <c r="K58" s="326" t="s">
+        <v>354</v>
+      </c>
+      <c r="L58" s="327" t="s">
+        <v>396</v>
+      </c>
+      <c r="M58" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="N58" s="327" t="s">
+        <v>469</v>
+      </c>
+      <c r="O58" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="P58" s="329" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q58" s="330" t="s">
+        <v>354</v>
+      </c>
+      <c r="R58" s="247"/>
+      <c r="S58" s="247"/>
+    </row>
+    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="325" t="s">
+        <v>457</v>
+      </c>
+      <c r="C59" s="325" t="s">
+        <v>460</v>
+      </c>
+      <c r="D59" s="331" t="s">
+        <v>354</v>
+      </c>
+      <c r="E59" s="332" t="s">
+        <v>396</v>
+      </c>
+      <c r="F59" s="333" t="s">
+        <v>354</v>
+      </c>
+      <c r="G59" s="332" t="s">
+        <v>469</v>
+      </c>
+      <c r="H59" s="333" t="s">
+        <v>354</v>
+      </c>
+      <c r="I59" s="334" t="s">
+        <v>468</v>
+      </c>
+      <c r="J59" s="330" t="s">
+        <v>354</v>
+      </c>
+      <c r="K59" s="331" t="s">
+        <v>354</v>
+      </c>
+      <c r="L59" s="332" t="s">
+        <v>396</v>
+      </c>
+      <c r="M59" s="333" t="s">
+        <v>354</v>
+      </c>
+      <c r="N59" s="332" t="s">
+        <v>469</v>
+      </c>
+      <c r="O59" s="333" t="s">
+        <v>354</v>
+      </c>
+      <c r="P59" s="334" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q59" s="330" t="s">
+        <v>354</v>
+      </c>
+      <c r="R59" s="247"/>
+      <c r="S59" s="247"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B60" s="247"/>
+      <c r="C60" s="247"/>
+      <c r="D60" s="247"/>
+      <c r="E60" s="247"/>
+      <c r="F60" s="247"/>
+      <c r="G60" s="247"/>
+      <c r="H60" s="247"/>
+      <c r="I60" s="247"/>
+      <c r="J60" s="247"/>
+      <c r="K60" s="247"/>
+      <c r="L60" s="247"/>
+      <c r="M60" s="247"/>
+      <c r="N60" s="247"/>
+      <c r="O60" s="247"/>
+      <c r="P60" s="247"/>
+      <c r="Q60" s="247"/>
+      <c r="R60" s="247"/>
+      <c r="S60" s="247"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B61" s="247"/>
+      <c r="C61" s="247"/>
+      <c r="D61" s="247"/>
+      <c r="E61" s="247"/>
+      <c r="F61" s="247"/>
+      <c r="G61" s="247"/>
+      <c r="H61" s="247"/>
+      <c r="I61" s="247"/>
+      <c r="J61" s="247"/>
+      <c r="K61" s="247"/>
+      <c r="L61" s="247"/>
+      <c r="M61" s="247"/>
+      <c r="N61" s="247"/>
+      <c r="O61" s="247"/>
+      <c r="P61" s="247"/>
+      <c r="Q61" s="247"/>
+      <c r="R61" s="247"/>
+      <c r="S61" s="247"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B62" s="247"/>
+      <c r="C62" s="247"/>
+      <c r="D62" s="247"/>
+      <c r="E62" s="247"/>
+      <c r="F62" s="247"/>
+      <c r="G62" s="247"/>
+      <c r="H62" s="247"/>
+      <c r="I62" s="247"/>
+      <c r="J62" s="247"/>
+      <c r="K62" s="247"/>
+      <c r="L62" s="247"/>
+      <c r="M62" s="247"/>
+      <c r="N62" s="247"/>
+      <c r="O62" s="247"/>
+      <c r="P62" s="247"/>
+      <c r="Q62" s="247"/>
+      <c r="R62" s="247"/>
+      <c r="S62" s="247"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B63" s="247"/>
+      <c r="C63" s="247"/>
+      <c r="D63" s="247"/>
+      <c r="E63" s="247"/>
+      <c r="F63" s="247"/>
+      <c r="G63" s="247"/>
+      <c r="H63" s="247"/>
+      <c r="I63" s="247"/>
+      <c r="J63" s="247"/>
+      <c r="K63" s="247"/>
+      <c r="L63" s="247"/>
+      <c r="M63" s="247"/>
+      <c r="N63" s="247"/>
+      <c r="O63" s="247"/>
+      <c r="P63" s="247"/>
+      <c r="Q63" s="247"/>
+      <c r="R63" s="247"/>
+      <c r="S63" s="247"/>
+    </row>
+    <row r="64" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="247"/>
+      <c r="C64" s="247"/>
+      <c r="D64" s="247"/>
+      <c r="E64" s="247"/>
+      <c r="F64" s="247"/>
+      <c r="G64" s="247"/>
+      <c r="H64" s="247"/>
+      <c r="I64" s="247"/>
+      <c r="J64" s="247"/>
+      <c r="K64" s="247"/>
+      <c r="L64" s="247"/>
+      <c r="M64" s="247"/>
+      <c r="N64" s="247"/>
+      <c r="O64" s="247"/>
+      <c r="P64" s="247"/>
+      <c r="Q64" s="247"/>
+      <c r="R64" s="247"/>
+      <c r="S64" s="247"/>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B65" s="247"/>
+      <c r="C65" s="247"/>
+      <c r="D65" s="335" t="s">
+        <v>461</v>
+      </c>
+      <c r="E65" s="336"/>
+      <c r="F65" s="337" t="s">
+        <v>466</v>
+      </c>
+      <c r="G65" s="335"/>
+      <c r="H65" s="336"/>
+      <c r="I65" s="337" t="s">
+        <v>466</v>
+      </c>
+      <c r="J65" s="335"/>
+      <c r="K65" s="336"/>
+      <c r="L65" s="337" t="s">
+        <v>466</v>
+      </c>
+      <c r="M65" s="315" t="s">
+        <v>461</v>
+      </c>
+      <c r="N65" s="316"/>
+      <c r="O65" s="316"/>
+      <c r="P65" s="316"/>
+      <c r="Q65" s="316"/>
+      <c r="R65" s="317"/>
+      <c r="S65" s="337" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B66" s="247"/>
+      <c r="C66" s="247"/>
+      <c r="D66" s="322" t="s">
+        <v>462</v>
+      </c>
+      <c r="E66" s="324"/>
+      <c r="F66" s="337"/>
+      <c r="G66" s="322" t="s">
+        <v>463</v>
+      </c>
+      <c r="H66" s="324"/>
+      <c r="I66" s="337"/>
+      <c r="J66" s="322" t="s">
+        <v>464</v>
+      </c>
+      <c r="K66" s="324"/>
+      <c r="L66" s="337"/>
+      <c r="M66" s="319" t="s">
+        <v>462</v>
+      </c>
+      <c r="N66" s="320"/>
+      <c r="O66" s="320" t="s">
+        <v>463</v>
+      </c>
+      <c r="P66" s="320"/>
+      <c r="Q66" s="320" t="s">
+        <v>464</v>
+      </c>
+      <c r="R66" s="321"/>
+      <c r="S66" s="337"/>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B67" s="247"/>
+      <c r="C67" s="247"/>
+      <c r="D67" s="322" t="s">
+        <v>465</v>
+      </c>
+      <c r="E67" s="324" t="s">
+        <v>467</v>
+      </c>
+      <c r="F67" s="337"/>
+      <c r="G67" s="322" t="s">
+        <v>465</v>
+      </c>
+      <c r="H67" s="324" t="s">
+        <v>467</v>
+      </c>
+      <c r="I67" s="337"/>
+      <c r="J67" s="322" t="s">
+        <v>465</v>
+      </c>
+      <c r="K67" s="324" t="s">
+        <v>467</v>
+      </c>
+      <c r="L67" s="337"/>
+      <c r="M67" s="322" t="s">
+        <v>465</v>
+      </c>
+      <c r="N67" s="323" t="s">
+        <v>467</v>
+      </c>
+      <c r="O67" s="323" t="s">
+        <v>465</v>
+      </c>
+      <c r="P67" s="323" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q67" s="323" t="s">
+        <v>465</v>
+      </c>
+      <c r="R67" s="324" t="s">
+        <v>467</v>
+      </c>
+      <c r="S67" s="337"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B68" s="325" t="s">
+        <v>457</v>
+      </c>
+      <c r="C68" s="325" t="s">
+        <v>458</v>
+      </c>
+      <c r="D68" s="326" t="s">
+        <v>354</v>
+      </c>
+      <c r="E68" s="329" t="s">
+        <v>396</v>
+      </c>
+      <c r="F68" s="338" t="s">
+        <v>354</v>
+      </c>
+      <c r="G68" s="326" t="s">
+        <v>354</v>
+      </c>
+      <c r="H68" s="329" t="s">
+        <v>469</v>
+      </c>
+      <c r="I68" s="338" t="s">
+        <v>354</v>
+      </c>
+      <c r="J68" s="326" t="s">
+        <v>354</v>
+      </c>
+      <c r="K68" s="329" t="s">
+        <v>468</v>
+      </c>
+      <c r="L68" s="338" t="s">
+        <v>354</v>
+      </c>
+      <c r="M68" s="326" t="s">
+        <v>354</v>
+      </c>
+      <c r="N68" s="327" t="s">
+        <v>396</v>
+      </c>
+      <c r="O68" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="P68" s="327" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q68" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="R68" s="329" t="s">
+        <v>468</v>
+      </c>
+      <c r="S68" s="338" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B69" s="325" t="s">
+        <v>457</v>
+      </c>
+      <c r="C69" s="325" t="s">
+        <v>459</v>
+      </c>
+      <c r="D69" s="326" t="s">
+        <v>354</v>
+      </c>
+      <c r="E69" s="329" t="s">
+        <v>396</v>
+      </c>
+      <c r="F69" s="338" t="s">
+        <v>354</v>
+      </c>
+      <c r="G69" s="326" t="s">
+        <v>354</v>
+      </c>
+      <c r="H69" s="329" t="s">
+        <v>469</v>
+      </c>
+      <c r="I69" s="338" t="s">
+        <v>354</v>
+      </c>
+      <c r="J69" s="326" t="s">
+        <v>354</v>
+      </c>
+      <c r="K69" s="329" t="s">
+        <v>468</v>
+      </c>
+      <c r="L69" s="338" t="s">
+        <v>354</v>
+      </c>
+      <c r="M69" s="326" t="s">
+        <v>354</v>
+      </c>
+      <c r="N69" s="327" t="s">
+        <v>396</v>
+      </c>
+      <c r="O69" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="P69" s="327" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q69" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="R69" s="329" t="s">
+        <v>468</v>
+      </c>
+      <c r="S69" s="338" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="325" t="s">
+        <v>457</v>
+      </c>
+      <c r="C70" s="325" t="s">
+        <v>460</v>
+      </c>
+      <c r="D70" s="331" t="s">
+        <v>354</v>
+      </c>
+      <c r="E70" s="334" t="s">
+        <v>396</v>
+      </c>
+      <c r="F70" s="338" t="s">
+        <v>354</v>
+      </c>
+      <c r="G70" s="331" t="s">
+        <v>354</v>
+      </c>
+      <c r="H70" s="334" t="s">
+        <v>469</v>
+      </c>
+      <c r="I70" s="338" t="s">
+        <v>354</v>
+      </c>
+      <c r="J70" s="331" t="s">
+        <v>354</v>
+      </c>
+      <c r="K70" s="334" t="s">
+        <v>468</v>
+      </c>
+      <c r="L70" s="338" t="s">
+        <v>354</v>
+      </c>
+      <c r="M70" s="331" t="s">
+        <v>354</v>
+      </c>
+      <c r="N70" s="332" t="s">
+        <v>396</v>
+      </c>
+      <c r="O70" s="333" t="s">
+        <v>354</v>
+      </c>
+      <c r="P70" s="332" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q70" s="333" t="s">
+        <v>354</v>
+      </c>
+      <c r="R70" s="334" t="s">
+        <v>468</v>
+      </c>
+      <c r="S70" s="338" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D74" s="323" t="s">
+        <v>461</v>
+      </c>
+      <c r="E74" s="339"/>
+      <c r="F74" s="339"/>
+      <c r="G74" s="323" t="s">
+        <v>461</v>
+      </c>
+      <c r="H74" s="339"/>
+      <c r="I74" s="339"/>
+      <c r="J74" s="323" t="s">
+        <v>461</v>
+      </c>
+      <c r="K74" s="339"/>
+      <c r="L74" s="339"/>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D75" s="323" t="s">
+        <v>462</v>
+      </c>
+      <c r="E75" s="339"/>
+      <c r="F75" s="339"/>
+      <c r="G75" s="323" t="s">
+        <v>463</v>
+      </c>
+      <c r="H75" s="339"/>
+      <c r="I75" s="339"/>
+      <c r="J75" s="323" t="s">
+        <v>464</v>
+      </c>
+      <c r="K75" s="339"/>
+      <c r="L75" s="339"/>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D76" s="323" t="s">
+        <v>465</v>
+      </c>
+      <c r="E76" s="339"/>
+      <c r="F76" s="339"/>
+      <c r="G76" s="323" t="s">
+        <v>465</v>
+      </c>
+      <c r="H76" s="339"/>
+      <c r="I76" s="339"/>
+      <c r="J76" s="323" t="s">
+        <v>465</v>
+      </c>
+      <c r="K76" s="339"/>
+      <c r="L76" s="339"/>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B77" s="325" t="s">
+        <v>457</v>
+      </c>
+      <c r="C77" s="325" t="s">
+        <v>458</v>
+      </c>
+      <c r="D77" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="E77" s="339"/>
+      <c r="F77" s="339"/>
+      <c r="G77" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="H77" s="339"/>
+      <c r="I77" s="339"/>
+      <c r="J77" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="K77" s="339"/>
+      <c r="L77" s="339"/>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B78" s="325" t="s">
+        <v>457</v>
+      </c>
+      <c r="C78" s="325" t="s">
+        <v>459</v>
+      </c>
+      <c r="D78" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="E78" s="339"/>
+      <c r="F78" s="339"/>
+      <c r="G78" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="H78" s="339"/>
+      <c r="I78" s="339"/>
+      <c r="J78" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="K78" s="339"/>
+      <c r="L78" s="339"/>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B79" s="325" t="s">
+        <v>457</v>
+      </c>
+      <c r="C79" s="325" t="s">
+        <v>460</v>
+      </c>
+      <c r="D79" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="E79" s="339"/>
+      <c r="F79" s="339"/>
+      <c r="G79" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="H79" s="339"/>
+      <c r="I79" s="339"/>
+      <c r="J79" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="K79" s="339"/>
+      <c r="L79" s="339"/>
+    </row>
+    <row r="81" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D82" s="315" t="s">
+        <v>461</v>
+      </c>
+      <c r="E82" s="316"/>
+      <c r="F82" s="316"/>
+      <c r="G82" s="316"/>
+      <c r="H82" s="316"/>
+      <c r="I82" s="317"/>
+      <c r="K82" s="340"/>
+    </row>
+    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D83" s="319" t="s">
+        <v>462</v>
+      </c>
+      <c r="E83" s="320"/>
+      <c r="F83" s="320" t="s">
+        <v>463</v>
+      </c>
+      <c r="G83" s="320"/>
+      <c r="H83" s="320" t="s">
+        <v>464</v>
+      </c>
+      <c r="I83" s="321"/>
+      <c r="K83" s="340"/>
+    </row>
+    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D84" s="322" t="s">
+        <v>465</v>
+      </c>
+      <c r="E84" s="323" t="s">
+        <v>467</v>
+      </c>
+      <c r="F84" s="323" t="s">
+        <v>465</v>
+      </c>
+      <c r="G84" s="323" t="s">
+        <v>467</v>
+      </c>
+      <c r="H84" s="323" t="s">
+        <v>465</v>
+      </c>
+      <c r="I84" s="324" t="s">
+        <v>467</v>
+      </c>
+      <c r="K84" s="340" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D85" s="326" t="s">
+        <v>354</v>
+      </c>
+      <c r="E85" s="327" t="s">
+        <v>396</v>
+      </c>
+      <c r="F85" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="G85" s="327" t="s">
+        <v>469</v>
+      </c>
+      <c r="H85" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="I85" s="329" t="s">
+        <v>468</v>
+      </c>
+      <c r="K85" s="330" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D86" s="326" t="s">
+        <v>354</v>
+      </c>
+      <c r="E86" s="327" t="s">
+        <v>396</v>
+      </c>
+      <c r="F86" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="G86" s="327" t="s">
+        <v>469</v>
+      </c>
+      <c r="H86" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="I86" s="329" t="s">
+        <v>468</v>
+      </c>
+      <c r="K86" s="330" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D87" s="331" t="s">
+        <v>354</v>
+      </c>
+      <c r="E87" s="332" t="s">
+        <v>396</v>
+      </c>
+      <c r="F87" s="333" t="s">
+        <v>354</v>
+      </c>
+      <c r="G87" s="332" t="s">
+        <v>469</v>
+      </c>
+      <c r="H87" s="333" t="s">
+        <v>354</v>
+      </c>
+      <c r="I87" s="334" t="s">
+        <v>468</v>
+      </c>
+      <c r="K87" s="330" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="89" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C89" s="122" t="s">
+        <v>370</v>
+      </c>
+      <c r="D89" s="122"/>
+      <c r="E89" s="122"/>
+      <c r="F89" s="122"/>
+      <c r="G89" s="122"/>
+    </row>
+    <row r="90" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C90" s="325" t="s">
+        <v>457</v>
+      </c>
+      <c r="D90" s="323" t="s">
+        <v>461</v>
+      </c>
+      <c r="E90" s="323" t="s">
+        <v>465</v>
+      </c>
+      <c r="F90" s="327" t="s">
+        <v>467</v>
+      </c>
+      <c r="G90" s="340" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="91" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C91" s="325" t="s">
+        <v>458</v>
+      </c>
+      <c r="D91" s="323" t="s">
+        <v>462</v>
+      </c>
+      <c r="E91" s="341" t="s">
+        <v>354</v>
+      </c>
+      <c r="F91" s="327" t="s">
+        <v>469</v>
+      </c>
+      <c r="G91" s="330" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="92" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C92" s="325" t="s">
+        <v>459</v>
+      </c>
+      <c r="D92" s="323" t="s">
+        <v>463</v>
+      </c>
+      <c r="E92" s="341" t="s">
+        <v>354</v>
+      </c>
+      <c r="F92" s="327" t="s">
+        <v>469</v>
+      </c>
+      <c r="G92" s="330" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="93" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="325" t="s">
+        <v>460</v>
+      </c>
+      <c r="D93" s="323" t="s">
+        <v>464</v>
+      </c>
+      <c r="E93" s="341" t="s">
+        <v>354</v>
+      </c>
+      <c r="F93" s="332" t="s">
+        <v>469</v>
+      </c>
+      <c r="G93" s="330" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="Q54:Q56"/>
+    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="M65:R65"/>
+    <mergeCell ref="S65:S67"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="D54:I54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="K54:P54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="A9:M9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B79AD87-3375-45AC-BDAF-4A8B55D7568E}">
   <dimension ref="A1:K56"/>
   <sheetViews>
@@ -17722,164 +20470,164 @@
     </row>
     <row r="43" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="2:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="366" t="s">
+      <c r="B44" s="369" t="s">
         <v>472</v>
       </c>
-      <c r="C44" s="357" t="s">
+      <c r="C44" s="360" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="352" t="s">
+      <c r="D44" s="355" t="s">
         <v>188</v>
       </c>
-      <c r="E44" s="361" t="s">
+      <c r="E44" s="364" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="354" t="s">
+      <c r="B45" s="357" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="358" t="s">
+      <c r="C45" s="361" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="350" t="s">
-        <v>169</v>
-      </c>
-      <c r="E45" s="362" t="s">
+      <c r="D45" s="353" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" s="365" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="355"/>
-      <c r="C46" s="359" t="s">
+      <c r="B46" s="358"/>
+      <c r="C46" s="362" t="s">
         <v>178</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E46" s="363" t="s">
+      <c r="E46" s="366" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="355"/>
-      <c r="C47" s="359" t="s">
+      <c r="B47" s="358"/>
+      <c r="C47" s="362" t="s">
         <v>179</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E47" s="363" t="s">
+      <c r="E47" s="366" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="355"/>
-      <c r="C48" s="359" t="s">
+      <c r="B48" s="358"/>
+      <c r="C48" s="362" t="s">
         <v>180</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E48" s="363" t="s">
+      <c r="E48" s="366" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="355"/>
-      <c r="C49" s="359" t="s">
+      <c r="B49" s="358"/>
+      <c r="C49" s="362" t="s">
         <v>181</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E49" s="363" t="s">
+      <c r="E49" s="366" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="356"/>
-      <c r="C50" s="360" t="s">
+      <c r="B50" s="359"/>
+      <c r="C50" s="363" t="s">
         <v>182</v>
       </c>
-      <c r="D50" s="351" t="s">
-        <v>169</v>
-      </c>
-      <c r="E50" s="364" t="s">
+      <c r="D50" s="354" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" s="367" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="354" t="s">
+      <c r="B51" s="357" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="358" t="s">
+      <c r="C51" s="361" t="s">
         <v>177</v>
       </c>
-      <c r="D51" s="350" t="s">
-        <v>169</v>
-      </c>
-      <c r="E51" s="362" t="s">
+      <c r="D51" s="353" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" s="365" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="355"/>
-      <c r="C52" s="359" t="s">
+      <c r="B52" s="358"/>
+      <c r="C52" s="362" t="s">
         <v>178</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E52" s="363" t="s">
+      <c r="E52" s="366" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="355"/>
-      <c r="C53" s="359" t="s">
+      <c r="B53" s="358"/>
+      <c r="C53" s="362" t="s">
         <v>179</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E53" s="363" t="s">
+      <c r="E53" s="366" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="355"/>
-      <c r="C54" s="359" t="s">
+      <c r="B54" s="358"/>
+      <c r="C54" s="362" t="s">
         <v>180</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E54" s="363" t="s">
+      <c r="E54" s="366" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="355"/>
-      <c r="C55" s="359" t="s">
+      <c r="B55" s="358"/>
+      <c r="C55" s="362" t="s">
         <v>181</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E55" s="363" t="s">
+      <c r="E55" s="366" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="356"/>
-      <c r="C56" s="360" t="s">
+      <c r="B56" s="359"/>
+      <c r="C56" s="363" t="s">
         <v>182</v>
       </c>
-      <c r="D56" s="351" t="s">
-        <v>169</v>
-      </c>
-      <c r="E56" s="364" t="s">
+      <c r="D56" s="354" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" s="367" t="s">
         <v>169</v>
       </c>
     </row>
@@ -17901,7 +20649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85679BC0-D8F1-4F32-8768-4AD3A66AC71E}">
   <dimension ref="A1:K55"/>
   <sheetViews>
@@ -18425,12 +21173,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99D9526-7311-4214-9AE3-0C9B31845C56}">
-  <dimension ref="A1:S105"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
-    <sheetView topLeftCell="H11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18567,7 +21315,7 @@
       <c r="R16" s="139"/>
       <c r="S16" s="140"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="141" t="s">
         <v>209</v>
       </c>
@@ -18590,7 +21338,7 @@
       <c r="R17" s="142"/>
       <c r="S17" s="143"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
         <v>66</v>
       </c>
@@ -18613,7 +21361,7 @@
       <c r="R18" s="40"/>
       <c r="S18" s="46"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="39"/>
       <c r="C19" s="21" t="s">
@@ -18642,7 +21390,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="42"/>
       <c r="C20" s="26" t="s">
@@ -18671,7 +21419,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
         <v>194</v>
       </c>
@@ -18718,7 +21466,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
         <v>195</v>
       </c>
@@ -18765,7 +21513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
         <v>195</v>
       </c>
@@ -18812,7 +21560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
         <v>196</v>
       </c>
@@ -18859,7 +21607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>195</v>
       </c>
@@ -18906,7 +21654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="138" t="s">
         <v>64</v>
       </c>
@@ -18922,7 +21670,7 @@
       <c r="J28" s="139"/>
       <c r="K28" s="140"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="141" t="s">
         <v>211</v>
       </c>
@@ -18937,8 +21685,32 @@
       <c r="I29" s="142"/>
       <c r="J29" s="142"/>
       <c r="K29" s="143"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O29" s="419" t="s">
+        <v>484</v>
+      </c>
+      <c r="P29" s="420" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q29" s="421" t="s">
+        <v>486</v>
+      </c>
+      <c r="R29" s="420" t="s">
+        <v>487</v>
+      </c>
+      <c r="S29" s="421" t="s">
+        <v>491</v>
+      </c>
+      <c r="T29" s="422" t="s">
+        <v>492</v>
+      </c>
+      <c r="U29" s="420" t="s">
+        <v>491</v>
+      </c>
+      <c r="V29" s="431" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
         <v>66</v>
       </c>
@@ -18953,8 +21725,24 @@
       <c r="I30" s="46"/>
       <c r="J30" s="40"/>
       <c r="K30" s="46"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O30" s="212" t="s">
+        <v>58</v>
+      </c>
+      <c r="P30" s="414" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q30" s="212" t="s">
+        <v>101</v>
+      </c>
+      <c r="R30" s="184" t="s">
+        <v>488</v>
+      </c>
+      <c r="S30" s="413"/>
+      <c r="T30" s="423"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="427"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="39"/>
       <c r="C31" s="21" t="s">
@@ -18973,8 +21761,18 @@
       <c r="K31" s="21" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O31" s="410"/>
+      <c r="P31" s="415"/>
+      <c r="Q31" s="213"/>
+      <c r="R31" s="405" t="s">
+        <v>489</v>
+      </c>
+      <c r="S31" s="408"/>
+      <c r="T31" s="424"/>
+      <c r="U31" s="405"/>
+      <c r="V31" s="428"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="42"/>
       <c r="C32" s="26" t="s">
@@ -18993,8 +21791,20 @@
       <c r="K32" s="26" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O32" s="410"/>
+      <c r="P32" s="415"/>
+      <c r="Q32" s="411" t="s">
+        <v>490</v>
+      </c>
+      <c r="R32" s="405" t="s">
+        <v>488</v>
+      </c>
+      <c r="S32" s="418"/>
+      <c r="T32" s="424"/>
+      <c r="U32" s="405"/>
+      <c r="V32" s="428"/>
+    </row>
+    <row r="33" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="36" t="s">
         <v>194</v>
       </c>
@@ -19025,8 +21835,18 @@
       <c r="K33" s="28" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O33" s="410"/>
+      <c r="P33" s="416"/>
+      <c r="Q33" s="412"/>
+      <c r="R33" s="406" t="s">
+        <v>489</v>
+      </c>
+      <c r="S33" s="409"/>
+      <c r="T33" s="425"/>
+      <c r="U33" s="406"/>
+      <c r="V33" s="429"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
         <v>195</v>
       </c>
@@ -19057,8 +21877,22 @@
       <c r="K34" s="44">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O34" s="410"/>
+      <c r="P34" s="410" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q34" s="410" t="s">
+        <v>101</v>
+      </c>
+      <c r="R34" s="214" t="s">
+        <v>488</v>
+      </c>
+      <c r="S34" s="407"/>
+      <c r="T34" s="426"/>
+      <c r="U34" s="214"/>
+      <c r="V34" s="430"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="s">
         <v>195</v>
       </c>
@@ -19089,8 +21923,18 @@
       <c r="K35" s="44">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O35" s="410"/>
+      <c r="P35" s="410"/>
+      <c r="Q35" s="213"/>
+      <c r="R35" s="405" t="s">
+        <v>489</v>
+      </c>
+      <c r="S35" s="408"/>
+      <c r="T35" s="424"/>
+      <c r="U35" s="405"/>
+      <c r="V35" s="428"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
         <v>196</v>
       </c>
@@ -19121,8 +21965,20 @@
       <c r="K36" s="44">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O36" s="410"/>
+      <c r="P36" s="410"/>
+      <c r="Q36" s="411" t="s">
+        <v>490</v>
+      </c>
+      <c r="R36" s="405" t="s">
+        <v>488</v>
+      </c>
+      <c r="S36" s="408"/>
+      <c r="T36" s="424"/>
+      <c r="U36" s="405"/>
+      <c r="V36" s="428"/>
+    </row>
+    <row r="37" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="45" t="s">
         <v>195</v>
       </c>
@@ -19153,8 +22009,36 @@
       <c r="K37" s="44">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O37" s="412"/>
+      <c r="P37" s="412"/>
+      <c r="Q37" s="412"/>
+      <c r="R37" s="406" t="s">
+        <v>489</v>
+      </c>
+      <c r="S37" s="409"/>
+      <c r="T37" s="425"/>
+      <c r="U37" s="406"/>
+      <c r="V37" s="429"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O38" s="410" t="s">
+        <v>59</v>
+      </c>
+      <c r="P38" s="212" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q38" s="212" t="s">
+        <v>101</v>
+      </c>
+      <c r="R38" s="184" t="s">
+        <v>488</v>
+      </c>
+      <c r="S38" s="413"/>
+      <c r="T38" s="423"/>
+      <c r="U38" s="184"/>
+      <c r="V38" s="427"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="138" t="s">
         <v>64</v>
       </c>
@@ -19169,8 +22053,18 @@
       <c r="I39" s="139"/>
       <c r="J39" s="139"/>
       <c r="K39" s="140"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O39" s="410"/>
+      <c r="P39" s="410"/>
+      <c r="Q39" s="213"/>
+      <c r="R39" s="405" t="s">
+        <v>489</v>
+      </c>
+      <c r="S39" s="408"/>
+      <c r="T39" s="424"/>
+      <c r="U39" s="405"/>
+      <c r="V39" s="428"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="141" t="s">
         <v>213</v>
       </c>
@@ -19185,8 +22079,20 @@
       <c r="I40" s="142"/>
       <c r="J40" s="142"/>
       <c r="K40" s="143"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O40" s="410"/>
+      <c r="P40" s="410"/>
+      <c r="Q40" s="417" t="s">
+        <v>490</v>
+      </c>
+      <c r="R40" s="405" t="s">
+        <v>488</v>
+      </c>
+      <c r="S40" s="408"/>
+      <c r="T40" s="424"/>
+      <c r="U40" s="405"/>
+      <c r="V40" s="428"/>
+    </row>
+    <row r="41" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="34" t="s">
         <v>66</v>
       </c>
@@ -19201,8 +22107,18 @@
       <c r="I41" s="46"/>
       <c r="J41" s="40"/>
       <c r="K41" s="46"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O41" s="410"/>
+      <c r="P41" s="412"/>
+      <c r="Q41" s="416"/>
+      <c r="R41" s="406" t="s">
+        <v>489</v>
+      </c>
+      <c r="S41" s="409"/>
+      <c r="T41" s="425"/>
+      <c r="U41" s="406"/>
+      <c r="V41" s="429"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="39"/>
       <c r="C42" s="21" t="s">
@@ -19221,8 +22137,22 @@
       <c r="K42" s="21" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O42" s="410"/>
+      <c r="P42" s="410" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q42" s="410" t="s">
+        <v>101</v>
+      </c>
+      <c r="R42" s="214" t="s">
+        <v>488</v>
+      </c>
+      <c r="S42" s="407"/>
+      <c r="T42" s="426"/>
+      <c r="U42" s="214"/>
+      <c r="V42" s="430"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="42"/>
       <c r="C43" s="26" t="s">
@@ -19241,8 +22171,18 @@
       <c r="K43" s="26" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O43" s="410"/>
+      <c r="P43" s="410"/>
+      <c r="Q43" s="213"/>
+      <c r="R43" s="405" t="s">
+        <v>489</v>
+      </c>
+      <c r="S43" s="408"/>
+      <c r="T43" s="424"/>
+      <c r="U43" s="405"/>
+      <c r="V43" s="428"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
         <v>194</v>
       </c>
@@ -19273,8 +22213,20 @@
       <c r="K44" s="28" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O44" s="410"/>
+      <c r="P44" s="410"/>
+      <c r="Q44" s="411" t="s">
+        <v>490</v>
+      </c>
+      <c r="R44" s="405" t="s">
+        <v>488</v>
+      </c>
+      <c r="S44" s="408"/>
+      <c r="T44" s="424"/>
+      <c r="U44" s="405"/>
+      <c r="V44" s="428"/>
+    </row>
+    <row r="45" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
         <v>195</v>
       </c>
@@ -19305,8 +22257,18 @@
       <c r="K45" s="44">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O45" s="412"/>
+      <c r="P45" s="412"/>
+      <c r="Q45" s="412"/>
+      <c r="R45" s="406" t="s">
+        <v>489</v>
+      </c>
+      <c r="S45" s="409"/>
+      <c r="T45" s="425"/>
+      <c r="U45" s="406"/>
+      <c r="V45" s="429"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="s">
         <v>195</v>
       </c>
@@ -19338,7 +22300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
         <v>196</v>
       </c>
@@ -19370,7 +22332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
         <v>195</v>
       </c>
@@ -20643,9 +23605,23 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="49">
+    <mergeCell ref="P38:P41"/>
+    <mergeCell ref="P42:P45"/>
+    <mergeCell ref="O38:O45"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="Q42:Q43"/>
     <mergeCell ref="O16:S16"/>
     <mergeCell ref="O17:S17"/>
+    <mergeCell ref="O30:O37"/>
+    <mergeCell ref="P30:P33"/>
+    <mergeCell ref="P34:P37"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A63:E63"/>
@@ -20680,6 +23656,7 @@
     <mergeCell ref="G39:K39"/>
     <mergeCell ref="A50:E50"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -20872,248 +23849,248 @@
       <c r="A20" t="s">
         <v>436</v>
       </c>
-      <c r="J20" s="214" t="s">
+      <c r="J20" s="218" t="s">
         <v>392</v>
       </c>
-      <c r="K20" s="215"/>
-      <c r="L20" s="215"/>
-      <c r="M20" s="215"/>
-      <c r="N20" s="215"/>
-      <c r="O20" s="215"/>
-      <c r="P20" s="215"/>
-      <c r="Q20" s="215"/>
-      <c r="R20" s="215"/>
-      <c r="S20" s="215"/>
-      <c r="T20" s="215"/>
-      <c r="U20" s="215"/>
-      <c r="V20" s="215"/>
-      <c r="W20" s="215"/>
-      <c r="X20" s="215"/>
-      <c r="Y20" s="216"/>
+      <c r="K20" s="219"/>
+      <c r="L20" s="219"/>
+      <c r="M20" s="219"/>
+      <c r="N20" s="219"/>
+      <c r="O20" s="219"/>
+      <c r="P20" s="219"/>
+      <c r="Q20" s="219"/>
+      <c r="R20" s="219"/>
+      <c r="S20" s="219"/>
+      <c r="T20" s="219"/>
+      <c r="U20" s="219"/>
+      <c r="V20" s="219"/>
+      <c r="W20" s="219"/>
+      <c r="X20" s="219"/>
+      <c r="Y20" s="220"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J21" s="229" t="s">
+      <c r="J21" s="233" t="s">
         <v>393</v>
       </c>
-      <c r="K21" s="230"/>
-      <c r="L21" s="230"/>
-      <c r="M21" s="230"/>
-      <c r="N21" s="230"/>
-      <c r="O21" s="230"/>
-      <c r="P21" s="230"/>
-      <c r="Q21" s="230"/>
-      <c r="R21" s="230"/>
-      <c r="S21" s="230"/>
-      <c r="T21" s="230"/>
-      <c r="U21" s="230"/>
-      <c r="V21" s="230"/>
-      <c r="W21" s="230"/>
-      <c r="X21" s="230"/>
-      <c r="Y21" s="231"/>
+      <c r="K21" s="234"/>
+      <c r="L21" s="234"/>
+      <c r="M21" s="234"/>
+      <c r="N21" s="234"/>
+      <c r="O21" s="234"/>
+      <c r="P21" s="234"/>
+      <c r="Q21" s="234"/>
+      <c r="R21" s="234"/>
+      <c r="S21" s="234"/>
+      <c r="T21" s="234"/>
+      <c r="U21" s="234"/>
+      <c r="V21" s="234"/>
+      <c r="W21" s="234"/>
+      <c r="X21" s="234"/>
+      <c r="Y21" s="235"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J22" s="219"/>
-      <c r="K22" s="220"/>
-      <c r="L22" s="196" t="s">
+      <c r="J22" s="223"/>
+      <c r="K22" s="224"/>
+      <c r="L22" s="197" t="s">
         <v>432</v>
       </c>
-      <c r="M22" s="190"/>
-      <c r="N22" s="190"/>
-      <c r="O22" s="190"/>
-      <c r="P22" s="209"/>
-      <c r="Q22" s="202" t="s">
+      <c r="M22" s="191"/>
+      <c r="N22" s="191"/>
+      <c r="O22" s="191"/>
+      <c r="P22" s="210"/>
+      <c r="Q22" s="203" t="s">
         <v>398</v>
       </c>
-      <c r="R22" s="190" t="s">
+      <c r="R22" s="191" t="s">
         <v>433</v>
       </c>
-      <c r="S22" s="190"/>
-      <c r="T22" s="190"/>
-      <c r="U22" s="190"/>
-      <c r="V22" s="205"/>
-      <c r="W22" s="202" t="s">
+      <c r="S22" s="191"/>
+      <c r="T22" s="191"/>
+      <c r="U22" s="191"/>
+      <c r="V22" s="206"/>
+      <c r="W22" s="203" t="s">
         <v>398</v>
       </c>
-      <c r="X22" s="205"/>
-      <c r="Y22" s="206" t="s">
+      <c r="X22" s="206"/>
+      <c r="Y22" s="207" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J23" s="217"/>
-      <c r="K23" s="195"/>
-      <c r="L23" s="197" t="s">
+      <c r="J23" s="221"/>
+      <c r="K23" s="196"/>
+      <c r="L23" s="198" t="s">
         <v>387</v>
       </c>
-      <c r="M23" s="191" t="s">
+      <c r="M23" s="192" t="s">
         <v>388</v>
       </c>
-      <c r="N23" s="191" t="s">
+      <c r="N23" s="192" t="s">
         <v>389</v>
       </c>
-      <c r="O23" s="191" t="s">
+      <c r="O23" s="192" t="s">
         <v>391</v>
       </c>
-      <c r="P23" s="200" t="s">
+      <c r="P23" s="201" t="s">
         <v>394</v>
       </c>
-      <c r="Q23" s="203" t="s">
+      <c r="Q23" s="204" t="s">
         <v>399</v>
       </c>
-      <c r="R23" s="191" t="s">
+      <c r="R23" s="192" t="s">
         <v>387</v>
       </c>
-      <c r="S23" s="191" t="s">
+      <c r="S23" s="192" t="s">
         <v>388</v>
       </c>
-      <c r="T23" s="191" t="s">
+      <c r="T23" s="192" t="s">
         <v>389</v>
       </c>
-      <c r="U23" s="191" t="s">
+      <c r="U23" s="192" t="s">
         <v>391</v>
       </c>
-      <c r="V23" s="200" t="s">
+      <c r="V23" s="201" t="s">
         <v>394</v>
       </c>
-      <c r="W23" s="203" t="s">
+      <c r="W23" s="204" t="s">
         <v>399</v>
       </c>
-      <c r="X23" s="200" t="s">
+      <c r="X23" s="201" t="s">
         <v>397</v>
       </c>
-      <c r="Y23" s="207" t="s">
+      <c r="Y23" s="208" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J24" s="221"/>
-      <c r="K24" s="222"/>
-      <c r="L24" s="198" t="s">
+      <c r="J24" s="225"/>
+      <c r="K24" s="226"/>
+      <c r="L24" s="199" t="s">
         <v>390</v>
       </c>
-      <c r="M24" s="199"/>
-      <c r="N24" s="199"/>
-      <c r="O24" s="199"/>
-      <c r="P24" s="201" t="s">
+      <c r="M24" s="200"/>
+      <c r="N24" s="200"/>
+      <c r="O24" s="200"/>
+      <c r="P24" s="202" t="s">
         <v>395</v>
       </c>
-      <c r="Q24" s="204" t="s">
+      <c r="Q24" s="205" t="s">
         <v>400</v>
       </c>
-      <c r="R24" s="199" t="s">
+      <c r="R24" s="200" t="s">
         <v>390</v>
       </c>
-      <c r="S24" s="199"/>
-      <c r="T24" s="199"/>
-      <c r="U24" s="199"/>
-      <c r="V24" s="201" t="s">
+      <c r="S24" s="200"/>
+      <c r="T24" s="200"/>
+      <c r="U24" s="200"/>
+      <c r="V24" s="202" t="s">
         <v>395</v>
       </c>
-      <c r="W24" s="204" t="s">
+      <c r="W24" s="205" t="s">
         <v>400</v>
       </c>
-      <c r="X24" s="201" t="s">
+      <c r="X24" s="202" t="s">
         <v>404</v>
       </c>
-      <c r="Y24" s="208" t="s">
+      <c r="Y24" s="209" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J25" s="228" t="s">
+      <c r="J25" s="232" t="s">
         <v>415</v>
       </c>
-      <c r="K25" s="186" t="s">
+      <c r="K25" s="187" t="s">
         <v>384</v>
       </c>
       <c r="L25" s="71"/>
       <c r="M25" s="178"/>
       <c r="N25" s="178"/>
       <c r="O25" s="178"/>
-      <c r="P25" s="189" t="s">
+      <c r="P25" s="190" t="s">
         <v>396</v>
       </c>
-      <c r="Q25" s="192" t="s">
+      <c r="Q25" s="193" t="s">
         <v>409</v>
       </c>
       <c r="R25" s="178"/>
       <c r="S25" s="178"/>
       <c r="T25" s="178"/>
       <c r="U25" s="178"/>
-      <c r="V25" s="189" t="s">
+      <c r="V25" s="190" t="s">
         <v>396</v>
       </c>
-      <c r="W25" s="192" t="s">
+      <c r="W25" s="193" t="s">
         <v>409</v>
       </c>
-      <c r="X25" s="189" t="s">
+      <c r="X25" s="190" t="s">
         <v>396</v>
       </c>
-      <c r="Y25" s="192" t="s">
+      <c r="Y25" s="193" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J26" s="210"/>
-      <c r="K26" s="184" t="s">
+      <c r="J26" s="211"/>
+      <c r="K26" s="185" t="s">
         <v>385</v>
       </c>
       <c r="L26" s="182"/>
       <c r="M26" s="172"/>
       <c r="N26" s="172"/>
       <c r="O26" s="172"/>
-      <c r="P26" s="187" t="s">
+      <c r="P26" s="188" t="s">
         <v>396</v>
       </c>
-      <c r="Q26" s="193" t="s">
+      <c r="Q26" s="194" t="s">
         <v>410</v>
       </c>
       <c r="R26" s="172"/>
       <c r="S26" s="172"/>
       <c r="T26" s="172"/>
       <c r="U26" s="172"/>
-      <c r="V26" s="187" t="s">
+      <c r="V26" s="188" t="s">
         <v>396</v>
       </c>
-      <c r="W26" s="193" t="s">
+      <c r="W26" s="194" t="s">
         <v>410</v>
       </c>
-      <c r="X26" s="187" t="s">
+      <c r="X26" s="188" t="s">
         <v>396</v>
       </c>
-      <c r="Y26" s="193" t="s">
+      <c r="Y26" s="194" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J27" s="218"/>
-      <c r="K27" s="185" t="s">
+      <c r="J27" s="222"/>
+      <c r="K27" s="186" t="s">
         <v>386</v>
       </c>
       <c r="L27" s="183"/>
       <c r="M27" s="174"/>
       <c r="N27" s="174"/>
       <c r="O27" s="174"/>
-      <c r="P27" s="188" t="s">
+      <c r="P27" s="189" t="s">
         <v>396</v>
       </c>
-      <c r="Q27" s="194" t="s">
+      <c r="Q27" s="195" t="s">
         <v>411</v>
       </c>
       <c r="R27" s="174"/>
       <c r="S27" s="174"/>
       <c r="T27" s="174"/>
       <c r="U27" s="174"/>
-      <c r="V27" s="188" t="s">
+      <c r="V27" s="189" t="s">
         <v>396</v>
       </c>
-      <c r="W27" s="194" t="s">
+      <c r="W27" s="195" t="s">
         <v>411</v>
       </c>
-      <c r="X27" s="188" t="s">
+      <c r="X27" s="189" t="s">
         <v>396</v>
       </c>
-      <c r="Y27" s="194" t="s">
+      <c r="Y27" s="195" t="s">
         <v>408</v>
       </c>
     </row>
@@ -21122,359 +24099,359 @@
       <c r="I29" t="s">
         <v>439</v>
       </c>
-      <c r="J29" s="214" t="s">
+      <c r="J29" s="218" t="s">
         <v>392</v>
       </c>
-      <c r="K29" s="215"/>
-      <c r="L29" s="215"/>
-      <c r="M29" s="215"/>
-      <c r="N29" s="215"/>
-      <c r="O29" s="215"/>
-      <c r="P29" s="215"/>
-      <c r="Q29" s="215"/>
-      <c r="R29" s="215"/>
-      <c r="S29" s="215"/>
-      <c r="T29" s="215"/>
-      <c r="U29" s="215"/>
-      <c r="V29" s="215"/>
-      <c r="W29" s="215"/>
-      <c r="X29" s="215"/>
-      <c r="Y29" s="216"/>
+      <c r="K29" s="219"/>
+      <c r="L29" s="219"/>
+      <c r="M29" s="219"/>
+      <c r="N29" s="219"/>
+      <c r="O29" s="219"/>
+      <c r="P29" s="219"/>
+      <c r="Q29" s="219"/>
+      <c r="R29" s="219"/>
+      <c r="S29" s="219"/>
+      <c r="T29" s="219"/>
+      <c r="U29" s="219"/>
+      <c r="V29" s="219"/>
+      <c r="W29" s="219"/>
+      <c r="X29" s="219"/>
+      <c r="Y29" s="220"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>440</v>
       </c>
-      <c r="J30" s="211" t="s">
+      <c r="J30" s="215" t="s">
         <v>412</v>
       </c>
-      <c r="K30" s="212"/>
-      <c r="L30" s="212"/>
-      <c r="M30" s="212"/>
-      <c r="N30" s="212"/>
-      <c r="O30" s="212"/>
-      <c r="P30" s="212"/>
-      <c r="Q30" s="212"/>
-      <c r="R30" s="212"/>
-      <c r="S30" s="212"/>
-      <c r="T30" s="212"/>
-      <c r="U30" s="212"/>
-      <c r="V30" s="212"/>
-      <c r="W30" s="212"/>
-      <c r="X30" s="212"/>
-      <c r="Y30" s="213"/>
+      <c r="K30" s="216"/>
+      <c r="L30" s="216"/>
+      <c r="M30" s="216"/>
+      <c r="N30" s="216"/>
+      <c r="O30" s="216"/>
+      <c r="P30" s="216"/>
+      <c r="Q30" s="216"/>
+      <c r="R30" s="216"/>
+      <c r="S30" s="216"/>
+      <c r="T30" s="216"/>
+      <c r="U30" s="216"/>
+      <c r="V30" s="216"/>
+      <c r="W30" s="216"/>
+      <c r="X30" s="216"/>
+      <c r="Y30" s="217"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="I31" t="s">
         <v>441</v>
       </c>
-      <c r="J31" s="219"/>
-      <c r="K31" s="220"/>
-      <c r="L31" s="196" t="s">
+      <c r="J31" s="223"/>
+      <c r="K31" s="224"/>
+      <c r="L31" s="197" t="s">
         <v>432</v>
       </c>
-      <c r="M31" s="190"/>
-      <c r="N31" s="190"/>
-      <c r="O31" s="190"/>
+      <c r="M31" s="191"/>
+      <c r="N31" s="191"/>
+      <c r="O31" s="191"/>
       <c r="P31" s="180"/>
-      <c r="Q31" s="202" t="s">
+      <c r="Q31" s="203" t="s">
         <v>398</v>
       </c>
-      <c r="R31" s="190" t="s">
+      <c r="R31" s="191" t="s">
         <v>433</v>
       </c>
-      <c r="S31" s="190"/>
-      <c r="T31" s="190"/>
-      <c r="U31" s="190"/>
+      <c r="S31" s="191"/>
+      <c r="T31" s="191"/>
+      <c r="U31" s="191"/>
       <c r="V31" s="181"/>
-      <c r="W31" s="202" t="s">
+      <c r="W31" s="203" t="s">
         <v>398</v>
       </c>
-      <c r="X31" s="205"/>
-      <c r="Y31" s="206" t="s">
+      <c r="X31" s="206"/>
+      <c r="Y31" s="207" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J32" s="217"/>
-      <c r="K32" s="195"/>
-      <c r="L32" s="197" t="s">
+      <c r="J32" s="221"/>
+      <c r="K32" s="196"/>
+      <c r="L32" s="198" t="s">
         <v>387</v>
       </c>
-      <c r="M32" s="191" t="s">
+      <c r="M32" s="192" t="s">
         <v>388</v>
       </c>
-      <c r="N32" s="191" t="s">
+      <c r="N32" s="192" t="s">
         <v>389</v>
       </c>
-      <c r="O32" s="191" t="s">
+      <c r="O32" s="192" t="s">
         <v>391</v>
       </c>
-      <c r="P32" s="200" t="s">
+      <c r="P32" s="201" t="s">
         <v>394</v>
       </c>
-      <c r="Q32" s="203" t="s">
+      <c r="Q32" s="204" t="s">
         <v>399</v>
       </c>
-      <c r="R32" s="191" t="s">
+      <c r="R32" s="192" t="s">
         <v>387</v>
       </c>
-      <c r="S32" s="191" t="s">
+      <c r="S32" s="192" t="s">
         <v>388</v>
       </c>
-      <c r="T32" s="191" t="s">
+      <c r="T32" s="192" t="s">
         <v>389</v>
       </c>
-      <c r="U32" s="191" t="s">
+      <c r="U32" s="192" t="s">
         <v>391</v>
       </c>
-      <c r="V32" s="200" t="s">
+      <c r="V32" s="201" t="s">
         <v>394</v>
       </c>
-      <c r="W32" s="203" t="s">
+      <c r="W32" s="204" t="s">
         <v>399</v>
       </c>
-      <c r="X32" s="200" t="s">
+      <c r="X32" s="201" t="s">
         <v>397</v>
       </c>
-      <c r="Y32" s="207" t="s">
+      <c r="Y32" s="208" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="33" spans="10:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J33" s="221"/>
-      <c r="K33" s="222"/>
-      <c r="L33" s="198" t="s">
+      <c r="J33" s="225"/>
+      <c r="K33" s="226"/>
+      <c r="L33" s="199" t="s">
         <v>390</v>
       </c>
-      <c r="M33" s="199"/>
-      <c r="N33" s="199"/>
-      <c r="O33" s="199"/>
-      <c r="P33" s="201" t="s">
+      <c r="M33" s="200"/>
+      <c r="N33" s="200"/>
+      <c r="O33" s="200"/>
+      <c r="P33" s="202" t="s">
         <v>395</v>
       </c>
-      <c r="Q33" s="204" t="s">
+      <c r="Q33" s="205" t="s">
         <v>400</v>
       </c>
-      <c r="R33" s="199" t="s">
+      <c r="R33" s="200" t="s">
         <v>390</v>
       </c>
-      <c r="S33" s="199"/>
-      <c r="T33" s="199"/>
-      <c r="U33" s="199"/>
-      <c r="V33" s="201" t="s">
+      <c r="S33" s="200"/>
+      <c r="T33" s="200"/>
+      <c r="U33" s="200"/>
+      <c r="V33" s="202" t="s">
         <v>395</v>
       </c>
-      <c r="W33" s="204" t="s">
+      <c r="W33" s="205" t="s">
         <v>400</v>
       </c>
-      <c r="X33" s="201" t="s">
+      <c r="X33" s="202" t="s">
         <v>404</v>
       </c>
-      <c r="Y33" s="208" t="s">
+      <c r="Y33" s="209" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="34" spans="10:25" x14ac:dyDescent="0.25">
-      <c r="J34" s="228" t="s">
+      <c r="J34" s="232" t="s">
         <v>415</v>
       </c>
-      <c r="K34" s="186" t="s">
+      <c r="K34" s="187" t="s">
         <v>384</v>
       </c>
       <c r="L34" s="71"/>
       <c r="M34" s="178"/>
       <c r="N34" s="178"/>
       <c r="O34" s="178"/>
-      <c r="P34" s="189" t="s">
+      <c r="P34" s="190" t="s">
         <v>396</v>
       </c>
-      <c r="Q34" s="192" t="s">
+      <c r="Q34" s="193" t="s">
         <v>409</v>
       </c>
       <c r="R34" s="178"/>
       <c r="S34" s="178"/>
       <c r="T34" s="178"/>
       <c r="U34" s="178"/>
-      <c r="V34" s="189" t="s">
+      <c r="V34" s="190" t="s">
         <v>396</v>
       </c>
-      <c r="W34" s="192" t="s">
+      <c r="W34" s="193" t="s">
         <v>409</v>
       </c>
-      <c r="X34" s="189" t="s">
+      <c r="X34" s="190" t="s">
         <v>396</v>
       </c>
-      <c r="Y34" s="192" t="s">
+      <c r="Y34" s="193" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="35" spans="10:25" x14ac:dyDescent="0.25">
-      <c r="J35" s="210"/>
-      <c r="K35" s="184" t="s">
+      <c r="J35" s="211"/>
+      <c r="K35" s="185" t="s">
         <v>385</v>
       </c>
       <c r="L35" s="182"/>
       <c r="M35" s="172"/>
       <c r="N35" s="172"/>
       <c r="O35" s="172"/>
-      <c r="P35" s="187" t="s">
+      <c r="P35" s="188" t="s">
         <v>396</v>
       </c>
-      <c r="Q35" s="193" t="s">
+      <c r="Q35" s="194" t="s">
         <v>410</v>
       </c>
       <c r="R35" s="172"/>
       <c r="S35" s="172"/>
       <c r="T35" s="172"/>
       <c r="U35" s="172"/>
-      <c r="V35" s="187" t="s">
+      <c r="V35" s="188" t="s">
         <v>396</v>
       </c>
-      <c r="W35" s="193" t="s">
+      <c r="W35" s="194" t="s">
         <v>410</v>
       </c>
-      <c r="X35" s="187" t="s">
+      <c r="X35" s="188" t="s">
         <v>396</v>
       </c>
-      <c r="Y35" s="193" t="s">
+      <c r="Y35" s="194" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="36" spans="10:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J36" s="218"/>
-      <c r="K36" s="185" t="s">
+      <c r="J36" s="222"/>
+      <c r="K36" s="186" t="s">
         <v>386</v>
       </c>
       <c r="L36" s="183"/>
       <c r="M36" s="174"/>
       <c r="N36" s="174"/>
       <c r="O36" s="174"/>
-      <c r="P36" s="188" t="s">
+      <c r="P36" s="189" t="s">
         <v>396</v>
       </c>
-      <c r="Q36" s="194" t="s">
+      <c r="Q36" s="195" t="s">
         <v>411</v>
       </c>
       <c r="R36" s="174"/>
       <c r="S36" s="174"/>
       <c r="T36" s="174"/>
       <c r="U36" s="174"/>
-      <c r="V36" s="188" t="s">
+      <c r="V36" s="189" t="s">
         <v>396</v>
       </c>
-      <c r="W36" s="194" t="s">
+      <c r="W36" s="195" t="s">
         <v>411</v>
       </c>
-      <c r="X36" s="188" t="s">
+      <c r="X36" s="189" t="s">
         <v>396</v>
       </c>
-      <c r="Y36" s="194" t="s">
+      <c r="Y36" s="195" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="40" spans="10:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="10:25" x14ac:dyDescent="0.25">
-      <c r="J41" s="214" t="s">
+      <c r="J41" s="218" t="s">
         <v>392</v>
       </c>
-      <c r="K41" s="215"/>
-      <c r="L41" s="215"/>
-      <c r="M41" s="215"/>
-      <c r="N41" s="215"/>
-      <c r="O41" s="215"/>
-      <c r="P41" s="215"/>
-      <c r="Q41" s="215"/>
-      <c r="R41" s="215"/>
-      <c r="S41" s="215"/>
-      <c r="T41" s="215"/>
-      <c r="U41" s="215"/>
-      <c r="V41" s="215"/>
-      <c r="W41" s="215"/>
-      <c r="X41" s="215"/>
-      <c r="Y41" s="216"/>
+      <c r="K41" s="219"/>
+      <c r="L41" s="219"/>
+      <c r="M41" s="219"/>
+      <c r="N41" s="219"/>
+      <c r="O41" s="219"/>
+      <c r="P41" s="219"/>
+      <c r="Q41" s="219"/>
+      <c r="R41" s="219"/>
+      <c r="S41" s="219"/>
+      <c r="T41" s="219"/>
+      <c r="U41" s="219"/>
+      <c r="V41" s="219"/>
+      <c r="W41" s="219"/>
+      <c r="X41" s="219"/>
+      <c r="Y41" s="220"/>
     </row>
     <row r="42" spans="10:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J42" s="211" t="s">
+      <c r="J42" s="215" t="s">
         <v>444</v>
       </c>
-      <c r="K42" s="212"/>
-      <c r="L42" s="212"/>
-      <c r="M42" s="212"/>
-      <c r="N42" s="212"/>
-      <c r="O42" s="212"/>
-      <c r="P42" s="212"/>
-      <c r="Q42" s="212"/>
-      <c r="R42" s="212"/>
-      <c r="S42" s="212"/>
-      <c r="T42" s="212"/>
-      <c r="U42" s="212"/>
-      <c r="V42" s="212"/>
-      <c r="W42" s="212"/>
-      <c r="X42" s="212"/>
-      <c r="Y42" s="213"/>
+      <c r="K42" s="216"/>
+      <c r="L42" s="216"/>
+      <c r="M42" s="216"/>
+      <c r="N42" s="216"/>
+      <c r="O42" s="216"/>
+      <c r="P42" s="216"/>
+      <c r="Q42" s="216"/>
+      <c r="R42" s="216"/>
+      <c r="S42" s="216"/>
+      <c r="T42" s="216"/>
+      <c r="U42" s="216"/>
+      <c r="V42" s="216"/>
+      <c r="W42" s="216"/>
+      <c r="X42" s="216"/>
+      <c r="Y42" s="217"/>
     </row>
     <row r="43" spans="10:25" x14ac:dyDescent="0.25">
-      <c r="J43" s="219"/>
-      <c r="K43" s="220"/>
-      <c r="L43" s="280" t="s">
+      <c r="J43" s="223"/>
+      <c r="K43" s="224"/>
+      <c r="L43" s="284" t="s">
         <v>432</v>
       </c>
-      <c r="M43" s="190"/>
-      <c r="N43" s="190"/>
-      <c r="O43" s="281"/>
-      <c r="P43" s="280" t="s">
+      <c r="M43" s="191"/>
+      <c r="N43" s="191"/>
+      <c r="O43" s="285"/>
+      <c r="P43" s="284" t="s">
         <v>433</v>
       </c>
-      <c r="Q43" s="190"/>
-      <c r="R43" s="190"/>
-      <c r="S43" s="281"/>
-      <c r="T43" s="276"/>
-      <c r="U43" s="277"/>
-      <c r="V43" s="260"/>
-      <c r="W43" s="259"/>
-      <c r="X43" s="259"/>
-      <c r="Y43" s="261"/>
+      <c r="Q43" s="191"/>
+      <c r="R43" s="191"/>
+      <c r="S43" s="285"/>
+      <c r="T43" s="280"/>
+      <c r="U43" s="281"/>
+      <c r="V43" s="264"/>
+      <c r="W43" s="263"/>
+      <c r="X43" s="263"/>
+      <c r="Y43" s="265"/>
     </row>
     <row r="44" spans="10:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J44" s="221"/>
-      <c r="K44" s="222"/>
-      <c r="L44" s="282" t="s">
+      <c r="J44" s="225"/>
+      <c r="K44" s="226"/>
+      <c r="L44" s="286" t="s">
         <v>445</v>
       </c>
-      <c r="M44" s="191" t="s">
+      <c r="M44" s="192" t="s">
         <v>446</v>
       </c>
-      <c r="N44" s="282" t="s">
+      <c r="N44" s="286" t="s">
         <v>447</v>
       </c>
-      <c r="O44" s="191" t="s">
+      <c r="O44" s="192" t="s">
         <v>448</v>
       </c>
-      <c r="P44" s="282" t="s">
+      <c r="P44" s="286" t="s">
         <v>449</v>
       </c>
-      <c r="Q44" s="191" t="s">
+      <c r="Q44" s="192" t="s">
         <v>450</v>
       </c>
-      <c r="R44" s="282" t="s">
+      <c r="R44" s="286" t="s">
         <v>451</v>
       </c>
-      <c r="S44" s="191" t="s">
+      <c r="S44" s="192" t="s">
         <v>452</v>
       </c>
-      <c r="T44" s="262"/>
-      <c r="U44" s="263"/>
-      <c r="V44" s="263"/>
-      <c r="W44" s="263"/>
-      <c r="X44" s="263"/>
-      <c r="Y44" s="264"/>
+      <c r="T44" s="266"/>
+      <c r="U44" s="267"/>
+      <c r="V44" s="267"/>
+      <c r="W44" s="267"/>
+      <c r="X44" s="267"/>
+      <c r="Y44" s="268"/>
     </row>
     <row r="45" spans="10:25" x14ac:dyDescent="0.25">
-      <c r="J45" s="228" t="s">
+      <c r="J45" s="232" t="s">
         <v>443</v>
       </c>
-      <c r="K45" s="186" t="s">
+      <c r="K45" s="187" t="s">
         <v>384</v>
       </c>
       <c r="L45" s="104"/>
@@ -21485,16 +24462,16 @@
       <c r="Q45" s="178"/>
       <c r="R45" s="178"/>
       <c r="S45" s="179"/>
-      <c r="T45" s="267"/>
-      <c r="U45" s="268"/>
-      <c r="V45" s="268"/>
-      <c r="W45" s="269"/>
-      <c r="X45" s="268"/>
-      <c r="Y45" s="269"/>
+      <c r="T45" s="271"/>
+      <c r="U45" s="272"/>
+      <c r="V45" s="272"/>
+      <c r="W45" s="273"/>
+      <c r="X45" s="272"/>
+      <c r="Y45" s="273"/>
     </row>
     <row r="46" spans="10:25" x14ac:dyDescent="0.25">
-      <c r="J46" s="210"/>
-      <c r="K46" s="184" t="s">
+      <c r="J46" s="211"/>
+      <c r="K46" s="185" t="s">
         <v>385</v>
       </c>
       <c r="L46" s="105"/>
@@ -21505,16 +24482,16 @@
       <c r="Q46" s="172"/>
       <c r="R46" s="172"/>
       <c r="S46" s="173"/>
-      <c r="T46" s="270"/>
-      <c r="U46" s="271"/>
-      <c r="V46" s="271"/>
-      <c r="W46" s="272"/>
-      <c r="X46" s="271"/>
-      <c r="Y46" s="272"/>
+      <c r="T46" s="274"/>
+      <c r="U46" s="275"/>
+      <c r="V46" s="275"/>
+      <c r="W46" s="276"/>
+      <c r="X46" s="275"/>
+      <c r="Y46" s="276"/>
     </row>
     <row r="47" spans="10:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J47" s="218"/>
-      <c r="K47" s="185" t="s">
+      <c r="J47" s="222"/>
+      <c r="K47" s="186" t="s">
         <v>386</v>
       </c>
       <c r="L47" s="106"/>
@@ -21525,74 +24502,74 @@
       <c r="Q47" s="174"/>
       <c r="R47" s="174"/>
       <c r="S47" s="175"/>
-      <c r="T47" s="273"/>
-      <c r="U47" s="274"/>
-      <c r="V47" s="274"/>
-      <c r="W47" s="275"/>
-      <c r="X47" s="274"/>
-      <c r="Y47" s="275"/>
+      <c r="T47" s="277"/>
+      <c r="U47" s="278"/>
+      <c r="V47" s="278"/>
+      <c r="W47" s="279"/>
+      <c r="X47" s="278"/>
+      <c r="Y47" s="279"/>
     </row>
     <row r="48" spans="10:25" x14ac:dyDescent="0.25">
-      <c r="J48" s="228" t="s">
+      <c r="J48" s="232" t="s">
         <v>442</v>
       </c>
-      <c r="K48" s="186" t="s">
+      <c r="K48" s="187" t="s">
         <v>384</v>
       </c>
-      <c r="L48" s="283"/>
-      <c r="M48" s="277"/>
-      <c r="N48" s="277"/>
-      <c r="O48" s="284"/>
-      <c r="P48" s="288"/>
-      <c r="Q48" s="259"/>
-      <c r="R48" s="277"/>
-      <c r="S48" s="284"/>
-      <c r="T48" s="276"/>
-      <c r="U48" s="277"/>
-      <c r="V48" s="260"/>
-      <c r="W48" s="259"/>
-      <c r="X48" s="259"/>
-      <c r="Y48" s="261"/>
+      <c r="L48" s="287"/>
+      <c r="M48" s="281"/>
+      <c r="N48" s="281"/>
+      <c r="O48" s="288"/>
+      <c r="P48" s="292"/>
+      <c r="Q48" s="263"/>
+      <c r="R48" s="281"/>
+      <c r="S48" s="288"/>
+      <c r="T48" s="280"/>
+      <c r="U48" s="281"/>
+      <c r="V48" s="264"/>
+      <c r="W48" s="263"/>
+      <c r="X48" s="263"/>
+      <c r="Y48" s="265"/>
     </row>
     <row r="49" spans="10:25" x14ac:dyDescent="0.25">
-      <c r="J49" s="210"/>
-      <c r="K49" s="184" t="s">
+      <c r="J49" s="211"/>
+      <c r="K49" s="185" t="s">
         <v>385</v>
       </c>
-      <c r="L49" s="285"/>
-      <c r="M49" s="263"/>
-      <c r="N49" s="263"/>
-      <c r="O49" s="264"/>
-      <c r="P49" s="285"/>
-      <c r="Q49" s="263"/>
-      <c r="R49" s="263"/>
-      <c r="S49" s="264"/>
-      <c r="T49" s="262"/>
-      <c r="U49" s="263"/>
-      <c r="V49" s="263"/>
-      <c r="W49" s="263"/>
-      <c r="X49" s="263"/>
-      <c r="Y49" s="264"/>
+      <c r="L49" s="289"/>
+      <c r="M49" s="267"/>
+      <c r="N49" s="267"/>
+      <c r="O49" s="268"/>
+      <c r="P49" s="289"/>
+      <c r="Q49" s="267"/>
+      <c r="R49" s="267"/>
+      <c r="S49" s="268"/>
+      <c r="T49" s="266"/>
+      <c r="U49" s="267"/>
+      <c r="V49" s="267"/>
+      <c r="W49" s="267"/>
+      <c r="X49" s="267"/>
+      <c r="Y49" s="268"/>
     </row>
     <row r="50" spans="10:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J50" s="218"/>
-      <c r="K50" s="185" t="s">
+      <c r="J50" s="222"/>
+      <c r="K50" s="186" t="s">
         <v>386</v>
       </c>
-      <c r="L50" s="286"/>
-      <c r="M50" s="279"/>
-      <c r="N50" s="279"/>
-      <c r="O50" s="287"/>
-      <c r="P50" s="289"/>
-      <c r="Q50" s="265"/>
-      <c r="R50" s="279"/>
-      <c r="S50" s="287"/>
-      <c r="T50" s="278"/>
-      <c r="U50" s="279"/>
-      <c r="V50" s="265"/>
-      <c r="W50" s="265"/>
-      <c r="X50" s="265"/>
-      <c r="Y50" s="266"/>
+      <c r="L50" s="290"/>
+      <c r="M50" s="283"/>
+      <c r="N50" s="283"/>
+      <c r="O50" s="291"/>
+      <c r="P50" s="293"/>
+      <c r="Q50" s="269"/>
+      <c r="R50" s="283"/>
+      <c r="S50" s="291"/>
+      <c r="T50" s="282"/>
+      <c r="U50" s="283"/>
+      <c r="V50" s="269"/>
+      <c r="W50" s="269"/>
+      <c r="X50" s="269"/>
+      <c r="Y50" s="270"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -21643,83 +24620,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="248" t="s">
+      <c r="A1" s="252" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="249"/>
-      <c r="C1" s="250"/>
+      <c r="B1" s="253"/>
+      <c r="C1" s="254"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="257" t="s">
         <v>416</v>
       </c>
-      <c r="B2" s="251" t="s">
+      <c r="B2" s="255" t="s">
         <v>345</v>
       </c>
-      <c r="C2" s="252" t="s">
+      <c r="C2" s="256" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="239" t="s">
         <v>423</v>
       </c>
-      <c r="B3" s="232" t="s">
+      <c r="B3" s="236" t="s">
         <v>347</v>
       </c>
-      <c r="C3" s="233"/>
+      <c r="C3" s="237"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="149" t="s">
         <v>422</v>
       </c>
-      <c r="B4" s="224" t="s">
+      <c r="B4" s="228" t="s">
         <v>348</v>
       </c>
       <c r="C4" s="148"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="240" t="s">
         <v>421</v>
       </c>
-      <c r="B5" s="226" t="s">
+      <c r="B5" s="230" t="s">
         <v>349</v>
       </c>
       <c r="C5" s="171"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="248" t="s">
+      <c r="A6" s="252" t="s">
         <v>350</v>
       </c>
-      <c r="B6" s="249"/>
-      <c r="C6" s="249"/>
-      <c r="D6" s="250"/>
+      <c r="B6" s="253"/>
+      <c r="C6" s="253"/>
+      <c r="D6" s="254"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="253" t="s">
+      <c r="A7" s="257" t="s">
         <v>416</v>
       </c>
-      <c r="B7" s="251" t="s">
+      <c r="B7" s="255" t="s">
         <v>351</v>
       </c>
-      <c r="C7" s="251" t="s">
+      <c r="C7" s="255" t="s">
         <v>352</v>
       </c>
-      <c r="D7" s="252" t="s">
+      <c r="D7" s="256" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="238" t="s">
+      <c r="A8" s="242" t="s">
         <v>417</v>
       </c>
-      <c r="B8" s="254" t="s">
+      <c r="B8" s="258" t="s">
         <v>375</v>
       </c>
       <c r="C8" s="68" t="s">
         <v>353</v>
       </c>
-      <c r="D8" s="223" t="s">
+      <c r="D8" s="227" t="s">
         <v>354</v>
       </c>
     </row>
@@ -21727,7 +24704,7 @@
       <c r="A9" s="147" t="s">
         <v>418</v>
       </c>
-      <c r="B9" s="254" t="s">
+      <c r="B9" s="258" t="s">
         <v>375</v>
       </c>
       <c r="C9" s="60" t="s">
@@ -21738,10 +24715,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="239" t="s">
+      <c r="A10" s="243" t="s">
         <v>419</v>
       </c>
-      <c r="B10" s="254" t="s">
+      <c r="B10" s="258" t="s">
         <v>375</v>
       </c>
       <c r="C10" s="60" t="s">
@@ -21752,10 +24729,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="239" t="s">
+      <c r="A11" s="243" t="s">
         <v>420</v>
       </c>
-      <c r="B11" s="254" t="s">
+      <c r="B11" s="258" t="s">
         <v>375</v>
       </c>
       <c r="C11" s="60" t="s">
@@ -21769,15 +24746,15 @@
       <c r="A12" s="151" t="s">
         <v>358</v>
       </c>
-      <c r="B12" s="225"/>
-      <c r="C12" s="225"/>
-      <c r="D12" s="237"/>
+      <c r="B12" s="229"/>
+      <c r="C12" s="229"/>
+      <c r="D12" s="241"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="147" t="s">
         <v>430</v>
       </c>
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="259" t="s">
         <v>359</v>
       </c>
       <c r="C13" s="60" t="s">
@@ -21791,7 +24768,7 @@
       <c r="A14" s="147" t="s">
         <v>431</v>
       </c>
-      <c r="B14" s="255" t="s">
+      <c r="B14" s="259" t="s">
         <v>359</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -21805,21 +24782,21 @@
       <c r="A15" s="151" t="s">
         <v>358</v>
       </c>
-      <c r="B15" s="225"/>
-      <c r="C15" s="225"/>
-      <c r="D15" s="237"/>
+      <c r="B15" s="229"/>
+      <c r="C15" s="229"/>
+      <c r="D15" s="241"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="147" t="s">
         <v>426</v>
       </c>
-      <c r="B16" s="255" t="s">
+      <c r="B16" s="259" t="s">
         <v>362</v>
       </c>
       <c r="C16" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="240" t="b">
+      <c r="D16" s="244" t="b">
         <v>1</v>
       </c>
     </row>
@@ -21827,13 +24804,13 @@
       <c r="A17" s="147" t="s">
         <v>425</v>
       </c>
-      <c r="B17" s="255" t="s">
+      <c r="B17" s="259" t="s">
         <v>362</v>
       </c>
       <c r="C17" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="240" t="b">
+      <c r="D17" s="244" t="b">
         <v>0</v>
       </c>
     </row>
@@ -21841,32 +24818,32 @@
       <c r="A18" s="147" t="s">
         <v>427</v>
       </c>
-      <c r="B18" s="256" t="s">
+      <c r="B18" s="260" t="s">
         <v>362</v>
       </c>
       <c r="C18" s="60" t="s">
         <v>424</v>
       </c>
-      <c r="D18" s="240" t="b">
+      <c r="D18" s="244" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="246" t="s">
+      <c r="A19" s="250" t="s">
         <v>358</v>
       </c>
-      <c r="B19" s="244"/>
-      <c r="C19" s="244"/>
-      <c r="D19" s="245"/>
+      <c r="B19" s="248"/>
+      <c r="C19" s="248"/>
+      <c r="D19" s="249"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="247" t="s">
+      <c r="A20" s="251" t="s">
         <v>429</v>
       </c>
-      <c r="B20" s="257" t="s">
+      <c r="B20" s="261" t="s">
         <v>428</v>
       </c>
-      <c r="C20" s="258"/>
+      <c r="C20" s="262"/>
       <c r="D20" s="175">
         <v>1</v>
       </c>
@@ -28691,99 +31668,99 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E24" s="298"/>
-      <c r="F24" s="298"/>
-      <c r="G24" s="298"/>
-      <c r="H24" s="302" t="s">
+      <c r="E24" s="302"/>
+      <c r="F24" s="302"/>
+      <c r="G24" s="302"/>
+      <c r="H24" s="306" t="s">
         <v>453</v>
       </c>
-      <c r="I24" s="304"/>
-      <c r="J24" s="304"/>
-      <c r="K24" s="303"/>
+      <c r="I24" s="308"/>
+      <c r="J24" s="308"/>
+      <c r="K24" s="307"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E25" s="299"/>
-      <c r="F25" s="298"/>
-      <c r="G25" s="298"/>
-      <c r="H25" s="302">
+      <c r="E25" s="303"/>
+      <c r="F25" s="302"/>
+      <c r="G25" s="302"/>
+      <c r="H25" s="306">
         <v>50</v>
       </c>
-      <c r="I25" s="303"/>
-      <c r="J25" s="302">
+      <c r="I25" s="307"/>
+      <c r="J25" s="306">
         <v>25</v>
       </c>
-      <c r="K25" s="303"/>
+      <c r="K25" s="307"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E26" s="299"/>
-      <c r="F26" s="298"/>
-      <c r="G26" s="298"/>
-      <c r="H26" s="300" t="s">
+      <c r="E26" s="303"/>
+      <c r="F26" s="302"/>
+      <c r="G26" s="302"/>
+      <c r="H26" s="304" t="s">
         <v>454</v>
       </c>
-      <c r="I26" s="301" t="s">
+      <c r="I26" s="305" t="s">
         <v>456</v>
       </c>
-      <c r="J26" s="300" t="s">
+      <c r="J26" s="304" t="s">
         <v>454</v>
       </c>
-      <c r="K26" s="301" t="s">
+      <c r="K26" s="305" t="s">
         <v>456</v>
       </c>
-      <c r="L26" s="301" t="s">
+      <c r="L26" s="305" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E27" s="299"/>
-      <c r="F27" s="306" t="s">
+      <c r="E27" s="303"/>
+      <c r="F27" s="310" t="s">
         <v>455</v>
       </c>
-      <c r="G27" s="305">
+      <c r="G27" s="309">
         <v>90</v>
       </c>
-      <c r="H27" s="298"/>
-      <c r="I27" s="301" t="s">
+      <c r="H27" s="302"/>
+      <c r="I27" s="305" t="s">
         <v>396</v>
       </c>
-      <c r="K27" s="301" t="s">
+      <c r="K27" s="305" t="s">
         <v>396</v>
       </c>
-      <c r="L27" s="301" t="s">
+      <c r="L27" s="305" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E28" s="299"/>
-      <c r="F28" s="307"/>
-      <c r="G28" s="305">
+      <c r="E28" s="303"/>
+      <c r="F28" s="311"/>
+      <c r="G28" s="309">
         <v>120</v>
       </c>
-      <c r="H28" s="298"/>
-      <c r="I28" s="301" t="s">
+      <c r="H28" s="302"/>
+      <c r="I28" s="305" t="s">
         <v>396</v>
       </c>
-      <c r="K28" s="301" t="s">
+      <c r="K28" s="305" t="s">
         <v>396</v>
       </c>
-      <c r="L28" s="301" t="s">
+      <c r="L28" s="305" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E29" s="299"/>
-      <c r="F29" s="308"/>
-      <c r="G29" s="305">
+      <c r="E29" s="303"/>
+      <c r="F29" s="312"/>
+      <c r="G29" s="309">
         <v>240</v>
       </c>
-      <c r="H29" s="298"/>
-      <c r="I29" s="301" t="s">
+      <c r="H29" s="302"/>
+      <c r="I29" s="305" t="s">
         <v>396</v>
       </c>
-      <c r="K29" s="301" t="s">
+      <c r="K29" s="305" t="s">
         <v>396</v>
       </c>
-      <c r="L29" s="301" t="s">
+      <c r="L29" s="305" t="s">
         <v>396</v>
       </c>
     </row>
@@ -28792,7 +31769,7 @@
       <c r="F30" s="149"/>
       <c r="G30" s="149"/>
       <c r="H30" s="149"/>
-      <c r="I30" s="227"/>
+      <c r="I30" s="231"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
@@ -28889,10 +31866,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D77B77-056A-4592-A858-DBC3E6228CE4}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView topLeftCell="X34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28985,13 +31962,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
-      <c r="B13" s="309" t="s">
+      <c r="B13" s="313" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="309"/>
-      <c r="D13" s="309"/>
-      <c r="E13" s="309"/>
-      <c r="F13" s="310"/>
+      <c r="C13" s="313"/>
+      <c r="D13" s="313"/>
+      <c r="E13" s="313"/>
+      <c r="F13" s="314"/>
       <c r="G13" s="21" t="s">
         <v>168</v>
       </c>
@@ -29057,7 +32034,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="52">
         <v>120</v>
       </c>
@@ -29080,7 +32057,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="53">
         <v>240</v>
       </c>
@@ -29103,183 +32080,291 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="M21" s="432" t="s">
+        <v>455</v>
+      </c>
+      <c r="N21" s="432" t="s">
+        <v>493</v>
+      </c>
+      <c r="O21" s="432" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="432" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q21" s="434"/>
+    </row>
+    <row r="22" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>435</v>
       </c>
       <c r="D22" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="379" t="s">
+      <c r="M22" s="433">
+        <v>0</v>
+      </c>
+      <c r="N22" s="433">
+        <v>99</v>
+      </c>
+      <c r="O22" s="433" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" s="433" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q22" s="433">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="383" t="s">
         <v>167</v>
       </c>
-      <c r="B23" s="234" t="s">
+      <c r="B23" s="238" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="380" t="s">
+      <c r="C23" s="384" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="385" t="s">
+      <c r="D23" s="389" t="s">
         <v>480</v>
       </c>
-      <c r="E23" s="381" t="s">
+      <c r="E23" s="385" t="s">
         <v>481</v>
       </c>
-      <c r="F23" s="382" t="s">
+      <c r="F23" s="386" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="374">
+      <c r="M23" s="433">
+        <v>1</v>
+      </c>
+      <c r="N23" s="433">
+        <v>99</v>
+      </c>
+      <c r="O23" s="433" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" s="433" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q23" s="433">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="377">
         <v>90</v>
       </c>
       <c r="B24" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="378" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="377"/>
-      <c r="E24" s="377"/>
-      <c r="F24" s="386"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="368"/>
-      <c r="B25" s="367" t="s">
+      <c r="C24" s="382">
+        <v>1</v>
+      </c>
+      <c r="D24" s="381">
+        <f>SUM(A$24,C24)</f>
+        <v>91</v>
+      </c>
+      <c r="E24" s="380"/>
+      <c r="F24" s="390"/>
+      <c r="M24" s="433">
+        <v>2</v>
+      </c>
+      <c r="N24" s="433">
+        <v>120</v>
+      </c>
+      <c r="O24" s="433" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" s="433" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q24" s="433">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="371"/>
+      <c r="B25" s="370" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="241"/>
-      <c r="E25" s="241"/>
-      <c r="F25" s="387"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="368"/>
-      <c r="B26" s="367" t="s">
+      <c r="C25" s="15">
+        <v>2</v>
+      </c>
+      <c r="D25" s="403"/>
+      <c r="E25" s="245"/>
+      <c r="F25" s="391"/>
+      <c r="M25" s="433">
+        <v>3</v>
+      </c>
+      <c r="N25" s="433">
+        <v>120</v>
+      </c>
+      <c r="O25" s="433" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" s="433" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q25" s="433">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="371"/>
+      <c r="B26" s="370" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="241"/>
-      <c r="E26" s="241"/>
-      <c r="F26" s="387"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="383"/>
-      <c r="B27" s="384" t="s">
+      <c r="C26" s="15">
+        <v>3</v>
+      </c>
+      <c r="D26" s="403"/>
+      <c r="E26" s="245"/>
+      <c r="F26" s="391"/>
+      <c r="M26" s="433">
+        <v>4</v>
+      </c>
+      <c r="N26" s="433">
+        <v>240</v>
+      </c>
+      <c r="O26" s="433" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" s="433" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q26" s="433">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="387"/>
+      <c r="B27" s="388" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="349" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="242"/>
-      <c r="E27" s="242"/>
-      <c r="F27" s="388"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="375">
+      <c r="C27" s="15">
+        <v>4</v>
+      </c>
+      <c r="D27" s="404"/>
+      <c r="E27" s="246"/>
+      <c r="F27" s="392"/>
+      <c r="M27" s="433">
+        <v>5</v>
+      </c>
+      <c r="N27" s="433">
+        <v>240</v>
+      </c>
+      <c r="O27" s="433" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="433" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q27" s="433">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="378">
         <v>120</v>
       </c>
-      <c r="B28" s="376" t="s">
+      <c r="B28" s="379" t="s">
         <v>171</v>
       </c>
-      <c r="C28" s="350" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="377"/>
-      <c r="E28" s="377"/>
-      <c r="F28" s="386"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="368"/>
-      <c r="B29" s="367" t="s">
+      <c r="C28" s="15">
+        <v>5</v>
+      </c>
+      <c r="D28" s="381"/>
+      <c r="E28" s="380"/>
+      <c r="F28" s="390"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="371"/>
+      <c r="B29" s="370" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" s="241"/>
-      <c r="E29" s="241"/>
-      <c r="F29" s="387"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="368"/>
-      <c r="B30" s="367" t="s">
+      <c r="C29" s="15">
+        <v>6</v>
+      </c>
+      <c r="D29" s="403"/>
+      <c r="E29" s="245"/>
+      <c r="F29" s="391"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="371"/>
+      <c r="B30" s="370" t="s">
         <v>173</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D30" s="241"/>
-      <c r="E30" s="241"/>
-      <c r="F30" s="387"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="369"/>
-      <c r="B31" s="370" t="s">
+      <c r="C30" s="15">
+        <v>7</v>
+      </c>
+      <c r="D30" s="403"/>
+      <c r="E30" s="245"/>
+      <c r="F30" s="391"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="372"/>
+      <c r="B31" s="373" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="351" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="242"/>
-      <c r="E31" s="242"/>
-      <c r="F31" s="388"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="374">
+      <c r="C31" s="15">
+        <v>8</v>
+      </c>
+      <c r="D31" s="404"/>
+      <c r="E31" s="246"/>
+      <c r="F31" s="392"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="377">
         <v>240</v>
       </c>
       <c r="B32" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="C32" s="378" t="s">
-        <v>169</v>
-      </c>
-      <c r="D32" s="377"/>
-      <c r="E32" s="377"/>
-      <c r="F32" s="386"/>
+      <c r="C32" s="15">
+        <v>9</v>
+      </c>
+      <c r="D32" s="381"/>
+      <c r="E32" s="380"/>
+      <c r="F32" s="390"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="368"/>
-      <c r="B33" s="367" t="s">
+      <c r="A33" s="371"/>
+      <c r="B33" s="370" t="s">
         <v>172</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D33" s="241"/>
-      <c r="E33" s="241"/>
-      <c r="F33" s="387"/>
+      <c r="C33" s="15">
+        <v>10</v>
+      </c>
+      <c r="D33" s="403"/>
+      <c r="E33" s="245"/>
+      <c r="F33" s="391"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="368"/>
-      <c r="B34" s="367" t="s">
+      <c r="A34" s="371"/>
+      <c r="B34" s="370" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D34" s="241"/>
-      <c r="E34" s="241"/>
-      <c r="F34" s="387"/>
+      <c r="C34" s="15">
+        <v>11</v>
+      </c>
+      <c r="D34" s="403"/>
+      <c r="E34" s="245"/>
+      <c r="F34" s="391"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="369"/>
-      <c r="B35" s="370" t="s">
+      <c r="A35" s="372"/>
+      <c r="B35" s="373" t="s">
         <v>174</v>
       </c>
-      <c r="C35" s="351" t="s">
-        <v>169</v>
-      </c>
-      <c r="D35" s="242"/>
-      <c r="E35" s="242"/>
-      <c r="F35" s="388"/>
+      <c r="C35" s="15">
+        <v>12</v>
+      </c>
+      <c r="D35" s="404"/>
+      <c r="E35" s="246"/>
+      <c r="F35" s="392"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
@@ -29298,179 +32383,179 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="389" t="s">
+      <c r="A39" s="393" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="390" t="s">
+      <c r="B39" s="394" t="s">
         <v>167</v>
       </c>
-      <c r="C39" s="371" t="s">
+      <c r="C39" s="374" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="391" t="s">
+      <c r="D39" s="395" t="s">
         <v>480</v>
       </c>
-      <c r="E39" s="372" t="s">
+      <c r="E39" s="375" t="s">
         <v>481</v>
       </c>
-      <c r="F39" s="373" t="s">
+      <c r="F39" s="376" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="395" t="s">
+      <c r="A40" s="399" t="s">
         <v>171</v>
       </c>
-      <c r="B40" s="392">
+      <c r="B40" s="396">
         <v>90</v>
       </c>
-      <c r="C40" s="350" t="s">
-        <v>169</v>
-      </c>
-      <c r="D40" s="377"/>
-      <c r="E40" s="377"/>
-      <c r="F40" s="377"/>
+      <c r="C40" s="353" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="380"/>
+      <c r="E40" s="380"/>
+      <c r="F40" s="380"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="396"/>
-      <c r="B41" s="393">
+      <c r="A41" s="400"/>
+      <c r="B41" s="397">
         <v>120</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D41" s="241"/>
-      <c r="E41" s="241"/>
-      <c r="F41" s="241"/>
+      <c r="D41" s="245"/>
+      <c r="E41" s="245"/>
+      <c r="F41" s="245"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="397"/>
-      <c r="B42" s="394">
+      <c r="A42" s="401"/>
+      <c r="B42" s="398">
         <v>240</v>
       </c>
-      <c r="C42" s="351" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="242"/>
-      <c r="E42" s="242"/>
-      <c r="F42" s="242"/>
+      <c r="C42" s="354" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="246"/>
+      <c r="E42" s="246"/>
+      <c r="F42" s="246"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="395" t="s">
+      <c r="A43" s="399" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="392">
+      <c r="B43" s="396">
         <v>90</v>
       </c>
-      <c r="C43" s="350" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="377"/>
-      <c r="E43" s="377"/>
-      <c r="F43" s="377"/>
+      <c r="C43" s="353" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="380"/>
+      <c r="E43" s="380"/>
+      <c r="F43" s="380"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="396"/>
-      <c r="B44" s="393">
+      <c r="A44" s="400"/>
+      <c r="B44" s="397">
         <v>120</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D44" s="241"/>
-      <c r="E44" s="241"/>
-      <c r="F44" s="241"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="397"/>
-      <c r="B45" s="394">
+      <c r="A45" s="401"/>
+      <c r="B45" s="398">
         <v>240</v>
       </c>
-      <c r="C45" s="351" t="s">
-        <v>169</v>
-      </c>
-      <c r="D45" s="242"/>
-      <c r="E45" s="242"/>
-      <c r="F45" s="242"/>
+      <c r="C45" s="354" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="246"/>
+      <c r="E45" s="246"/>
+      <c r="F45" s="246"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="395" t="s">
+      <c r="A46" s="399" t="s">
         <v>173</v>
       </c>
-      <c r="B46" s="392">
+      <c r="B46" s="396">
         <v>90</v>
       </c>
-      <c r="C46" s="350" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" s="377"/>
-      <c r="E46" s="377"/>
-      <c r="F46" s="377"/>
+      <c r="C46" s="353" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="380"/>
+      <c r="E46" s="380"/>
+      <c r="F46" s="380"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="396"/>
-      <c r="B47" s="393">
+      <c r="A47" s="400"/>
+      <c r="B47" s="397">
         <v>120</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D47" s="241"/>
-      <c r="E47" s="241"/>
-      <c r="F47" s="241"/>
+      <c r="D47" s="245"/>
+      <c r="E47" s="245"/>
+      <c r="F47" s="245"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="397"/>
-      <c r="B48" s="394">
+      <c r="A48" s="401"/>
+      <c r="B48" s="398">
         <v>240</v>
       </c>
-      <c r="C48" s="351" t="s">
-        <v>169</v>
-      </c>
-      <c r="D48" s="242"/>
-      <c r="E48" s="242"/>
-      <c r="F48" s="242"/>
+      <c r="C48" s="354" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="246"/>
+      <c r="E48" s="246"/>
+      <c r="F48" s="246"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="395" t="s">
+      <c r="A49" s="399" t="s">
         <v>174</v>
       </c>
-      <c r="B49" s="392">
+      <c r="B49" s="396">
         <v>90</v>
       </c>
-      <c r="C49" s="350" t="s">
-        <v>169</v>
-      </c>
-      <c r="D49" s="377"/>
-      <c r="E49" s="377"/>
-      <c r="F49" s="377"/>
+      <c r="C49" s="353" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="380"/>
+      <c r="E49" s="380"/>
+      <c r="F49" s="380"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="396"/>
-      <c r="B50" s="393">
+      <c r="A50" s="400"/>
+      <c r="B50" s="397">
         <v>120</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D50" s="241"/>
-      <c r="E50" s="241"/>
-      <c r="F50" s="241"/>
+      <c r="D50" s="245"/>
+      <c r="E50" s="245"/>
+      <c r="F50" s="245"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="397"/>
-      <c r="B51" s="394">
+      <c r="A51" s="401"/>
+      <c r="B51" s="398">
         <v>240</v>
       </c>
-      <c r="C51" s="351" t="s">
-        <v>169</v>
-      </c>
-      <c r="D51" s="242"/>
-      <c r="E51" s="242"/>
-      <c r="F51" s="242"/>
+      <c r="C51" s="354" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="246"/>
+      <c r="E51" s="246"/>
+      <c r="F51" s="246"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="29">
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A49:A51"/>
@@ -29487,9 +32572,6 @@
     <mergeCell ref="E40:E42"/>
     <mergeCell ref="E43:E45"/>
     <mergeCell ref="F40:F42"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D32:D35"/>
     <mergeCell ref="E24:E27"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E32:E35"/>
@@ -29509,2077 +32591,538 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750BED35-DAB2-4DE3-873B-B8239F54935F}">
-  <dimension ref="A1:S93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01AC4F7-573D-40F2-8A69-DDEC7B9FF045}">
+  <dimension ref="G11:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="F34" workbookViewId="0">
+      <selection activeCell="R51" sqref="R51:V55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="247" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="247" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="247" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" t="s">
+    <row r="11" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="7:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="465" t="s">
+        <v>498</v>
+      </c>
+      <c r="H12" s="466" t="s">
+        <v>455</v>
+      </c>
+      <c r="I12" s="467" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="7:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G13" s="440" t="s">
+        <v>496</v>
+      </c>
+      <c r="H13" s="444">
+        <v>99</v>
+      </c>
+      <c r="I13" s="449" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="14" spans="7:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G14" s="441"/>
+      <c r="H14" s="445"/>
+      <c r="I14" s="453" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="7:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G15" s="441"/>
+      <c r="H15" s="446">
+        <v>264</v>
+      </c>
+      <c r="I15" s="453" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="16" spans="7:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="442"/>
+      <c r="H16" s="447"/>
+      <c r="I16" s="457" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="17" spans="7:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G17" s="440" t="s">
+        <v>497</v>
+      </c>
+      <c r="H17" s="444">
+        <v>99</v>
+      </c>
+      <c r="I17" s="461" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="7:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G18" s="441"/>
+      <c r="H18" s="445"/>
+      <c r="I18" s="453" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="19" spans="7:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G19" s="441"/>
+      <c r="H19" s="446">
+        <v>264</v>
+      </c>
+      <c r="I19" s="453" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20" spans="7:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="442"/>
+      <c r="H20" s="447"/>
+      <c r="I20" s="457" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25"/>
+      <c r="Q25" s="252" t="s">
+        <v>500</v>
+      </c>
+      <c r="R25" s="253"/>
+      <c r="S25" s="253"/>
+      <c r="T25" s="253"/>
+      <c r="U25" s="253"/>
+      <c r="V25" s="254"/>
+    </row>
+    <row r="26" spans="7:22" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26"/>
+      <c r="M26" s="468" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q26" s="465" t="s">
+        <v>498</v>
+      </c>
+      <c r="R26" s="466" t="s">
+        <v>455</v>
+      </c>
+      <c r="S26" s="437" t="s">
+        <v>505</v>
+      </c>
+      <c r="T26" s="438" t="s">
+        <v>506</v>
+      </c>
+      <c r="U26" s="439" t="s">
+        <v>504</v>
+      </c>
+      <c r="V26" s="438" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="27" spans="7:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G27"/>
+      <c r="M27" s="435" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q27" s="440" t="s">
+        <v>496</v>
+      </c>
+      <c r="R27" s="443">
+        <v>99</v>
+      </c>
+      <c r="S27" s="450"/>
+      <c r="T27" s="451"/>
+      <c r="U27" s="452"/>
+      <c r="V27" s="451"/>
+    </row>
+    <row r="28" spans="7:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G28"/>
+      <c r="M28" s="435" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q28" s="441"/>
+      <c r="R28" s="435">
+        <v>120</v>
+      </c>
+      <c r="S28" s="454"/>
+      <c r="T28" s="455"/>
+      <c r="U28" s="456"/>
+      <c r="V28" s="455"/>
+    </row>
+    <row r="29" spans="7:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G29"/>
+      <c r="M29" s="435" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q29" s="441"/>
+      <c r="R29" s="435">
+        <v>240</v>
+      </c>
+      <c r="S29" s="454"/>
+      <c r="T29" s="455"/>
+      <c r="U29" s="456"/>
+      <c r="V29" s="455"/>
+    </row>
+    <row r="30" spans="7:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30"/>
+      <c r="M30" s="435" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q30" s="442"/>
+      <c r="R30" s="436">
+        <v>264</v>
+      </c>
+      <c r="S30" s="458"/>
+      <c r="T30" s="459"/>
+      <c r="U30" s="460"/>
+      <c r="V30" s="459"/>
+    </row>
+    <row r="31" spans="7:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G31"/>
+      <c r="M31" s="435" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q31" s="441" t="s">
+        <v>497</v>
+      </c>
+      <c r="R31" s="448">
+        <v>99</v>
+      </c>
+      <c r="S31" s="462"/>
+      <c r="T31" s="463"/>
+      <c r="U31" s="464"/>
+      <c r="V31" s="463"/>
+    </row>
+    <row r="32" spans="7:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G32"/>
+      <c r="M32" s="435" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q32" s="441"/>
+      <c r="R32" s="435">
+        <v>120</v>
+      </c>
+      <c r="S32" s="454"/>
+      <c r="T32" s="455"/>
+      <c r="U32" s="456"/>
+      <c r="V32" s="455"/>
+    </row>
+    <row r="33" spans="7:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G33"/>
+      <c r="M33" s="435" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q33" s="441"/>
+      <c r="R33" s="435">
+        <v>240</v>
+      </c>
+      <c r="S33" s="454"/>
+      <c r="T33" s="455"/>
+      <c r="U33" s="456"/>
+      <c r="V33" s="455"/>
+    </row>
+    <row r="34" spans="7:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G34"/>
+      <c r="M34" s="435" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q34" s="442"/>
+      <c r="R34" s="436">
+        <v>264</v>
+      </c>
+      <c r="S34" s="458"/>
+      <c r="T34" s="459"/>
+      <c r="U34" s="460"/>
+      <c r="V34" s="459"/>
+    </row>
+    <row r="35" spans="7:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G35"/>
+      <c r="M35" s="469"/>
+    </row>
+    <row r="36" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G36"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="252" t="s">
+        <v>501</v>
+      </c>
+      <c r="R36" s="253"/>
+      <c r="S36" s="253"/>
+      <c r="T36" s="253"/>
+      <c r="U36" s="253"/>
+      <c r="V36" s="254"/>
+    </row>
+    <row r="37" spans="7:22" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G37"/>
+      <c r="M37" s="468" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q37" s="465" t="s">
+        <v>498</v>
+      </c>
+      <c r="R37" s="466" t="s">
+        <v>455</v>
+      </c>
+      <c r="S37" s="437" t="s">
+        <v>505</v>
+      </c>
+      <c r="T37" s="438" t="s">
+        <v>506</v>
+      </c>
+      <c r="U37" s="439" t="s">
+        <v>502</v>
+      </c>
+      <c r="V37" s="438" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="38" spans="7:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G38"/>
+      <c r="M38" s="435" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q38" s="440" t="s">
+        <v>496</v>
+      </c>
+      <c r="R38" s="443">
+        <v>99</v>
+      </c>
+      <c r="S38" s="450"/>
+      <c r="T38" s="451"/>
+      <c r="U38" s="452"/>
+      <c r="V38" s="451"/>
+    </row>
+    <row r="39" spans="7:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="M39" s="435" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q39" s="441"/>
+      <c r="R39" s="435">
+        <v>120</v>
+      </c>
+      <c r="S39" s="454"/>
+      <c r="T39" s="455"/>
+      <c r="U39" s="456"/>
+      <c r="V39" s="455"/>
+    </row>
+    <row r="40" spans="7:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="M40" s="435" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q40" s="441"/>
+      <c r="R40" s="435">
+        <v>240</v>
+      </c>
+      <c r="S40" s="454"/>
+      <c r="T40" s="455"/>
+      <c r="U40" s="456"/>
+      <c r="V40" s="455"/>
+    </row>
+    <row r="41" spans="7:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M41" s="435" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q41" s="442"/>
+      <c r="R41" s="436">
+        <v>264</v>
+      </c>
+      <c r="S41" s="458"/>
+      <c r="T41" s="459"/>
+      <c r="U41" s="460"/>
+      <c r="V41" s="459"/>
+    </row>
+    <row r="42" spans="7:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="M42" s="435" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q42" s="441" t="s">
+        <v>497</v>
+      </c>
+      <c r="R42" s="448">
+        <v>99</v>
+      </c>
+      <c r="S42" s="462"/>
+      <c r="T42" s="463"/>
+      <c r="U42" s="464"/>
+      <c r="V42" s="463"/>
+    </row>
+    <row r="43" spans="7:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="M43" s="435" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q43" s="441"/>
+      <c r="R43" s="435">
+        <v>120</v>
+      </c>
+      <c r="S43" s="454"/>
+      <c r="T43" s="455"/>
+      <c r="U43" s="456"/>
+      <c r="V43" s="455"/>
+    </row>
+    <row r="44" spans="7:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="M44" s="435" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q44" s="441"/>
+      <c r="R44" s="435">
+        <v>240</v>
+      </c>
+      <c r="S44" s="454"/>
+      <c r="T44" s="455"/>
+      <c r="U44" s="456"/>
+      <c r="V44" s="455"/>
+    </row>
+    <row r="45" spans="7:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M45" s="435" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q45" s="442"/>
+      <c r="R45" s="436">
+        <v>264</v>
+      </c>
+      <c r="S45" s="458"/>
+      <c r="T45" s="459"/>
+      <c r="U45" s="460"/>
+      <c r="V45" s="459"/>
+    </row>
+    <row r="50" spans="18:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="18:22" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R51" s="482" t="s">
+        <v>455</v>
+      </c>
+      <c r="S51" s="483" t="s">
+        <v>507</v>
+      </c>
+      <c r="T51" s="483" t="s">
+        <v>508</v>
+      </c>
+      <c r="U51" s="483" t="s">
+        <v>509</v>
+      </c>
+      <c r="V51" s="484" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="52" spans="18:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="R52" s="478">
+        <v>99</v>
+      </c>
+      <c r="S52" s="479">
+        <v>24</v>
+      </c>
+      <c r="T52" s="480">
+        <f>S52/45.83</f>
+        <v>0.52367444905084004</v>
+      </c>
+      <c r="U52" s="479" t="s">
+        <v>511</v>
+      </c>
+      <c r="V52" s="481">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="53" spans="18:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="R53" s="470">
+        <v>120</v>
+      </c>
+      <c r="S53" s="471">
+        <v>57</v>
+      </c>
+      <c r="T53" s="472">
+        <f t="shared" ref="T53:T55" si="0">S53/45.83</f>
+        <v>1.2437268164957451</v>
+      </c>
+      <c r="U53" s="471" t="s">
+        <v>511</v>
+      </c>
+      <c r="V53" s="473">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="18:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="R54" s="470">
+        <v>240</v>
+      </c>
+      <c r="S54" s="471">
         <v>73</v>
       </c>
-      <c r="E4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="122"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="123" t="s">
-        <v>232</v>
-      </c>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="125"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="130" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="131" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="131" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="131"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="293"/>
-      <c r="I11" s="133" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="131"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="58"/>
-      <c r="L12" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="F13" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="H13" s="107"/>
-      <c r="I13" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="J13" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="K13" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="L13" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="M13" s="28" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="J14" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="L14" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="M14" s="59" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="L15" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="M15" s="59" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="123" t="s">
-        <v>232</v>
-      </c>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="295" t="s">
-        <v>228</v>
-      </c>
-      <c r="C20" s="295"/>
-      <c r="D20" s="295"/>
-      <c r="E20" s="295"/>
-      <c r="F20" s="295"/>
-      <c r="G20" s="295"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="295" t="s">
-        <v>228</v>
-      </c>
-      <c r="J20" s="295"/>
-      <c r="K20" s="296"/>
-      <c r="L20" s="46"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="131" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="131"/>
-      <c r="D21" s="294" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="294"/>
-      <c r="F21" s="294" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="132"/>
-      <c r="H21" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="293" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" s="293" t="s">
-        <v>75</v>
-      </c>
-      <c r="L21" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="E23" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="G23" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="L23" s="28" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G24" s="55" t="e">
-        <f>A24*E24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H24" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="L24" s="59" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="55" t="e">
-        <f>A25*E25</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H25" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="L25" s="59" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="123" t="s">
-        <v>232</v>
-      </c>
-      <c r="B28" s="124"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="297" t="s">
-        <v>228</v>
-      </c>
-      <c r="C29" s="297"/>
-      <c r="D29" s="297"/>
-      <c r="E29" s="297"/>
-      <c r="F29" s="297"/>
-      <c r="G29" s="297"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="295" t="s">
-        <v>228</v>
-      </c>
-      <c r="J29" s="295"/>
-      <c r="K29" s="296"/>
-      <c r="L29" s="46"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="290" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="290"/>
-      <c r="D30" s="292" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="292"/>
-      <c r="F30" s="292" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="291"/>
-      <c r="H30" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="I30" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="J30" s="293" t="s">
-        <v>74</v>
-      </c>
-      <c r="K30" s="293" t="s">
-        <v>75</v>
-      </c>
-      <c r="L30" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="297" t="s">
-        <v>228</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D31" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="B32" s="290" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="E32" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="G32" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="K32" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="L32" s="28" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="B33" s="292" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D33" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="E33" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G33" s="55" t="e">
-        <f>A33*E33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H33" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="L33" s="59" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="B34" s="292" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G34" s="55" t="e">
-        <f>A39*E34</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H34" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="J34" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="L34" s="59" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="348"/>
-      <c r="B36" s="348"/>
-      <c r="C36" s="348"/>
-      <c r="D36" s="348"/>
-      <c r="E36" s="348"/>
-      <c r="F36" s="348"/>
-      <c r="G36" s="348"/>
-      <c r="H36" s="348"/>
-      <c r="J36" s="348"/>
-      <c r="K36" s="348"/>
-      <c r="L36" s="348"/>
-      <c r="M36" s="348"/>
-      <c r="N36" s="348"/>
-      <c r="O36" s="348"/>
-      <c r="P36" s="348"/>
-      <c r="Q36" s="348"/>
-    </row>
-    <row r="37" spans="1:17" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="343" t="s">
-        <v>167</v>
-      </c>
-      <c r="B37" s="344" t="s">
-        <v>228</v>
-      </c>
-      <c r="C37" s="345" t="s">
-        <v>229</v>
-      </c>
-      <c r="D37" s="346" t="s">
-        <v>230</v>
-      </c>
-      <c r="E37" s="347" t="s">
-        <v>470</v>
-      </c>
-      <c r="F37" s="344" t="s">
-        <v>228</v>
-      </c>
-      <c r="G37" s="345" t="s">
-        <v>231</v>
-      </c>
-      <c r="H37" s="347" t="s">
-        <v>471</v>
-      </c>
-      <c r="J37" s="343" t="s">
-        <v>68</v>
-      </c>
-      <c r="K37" s="344" t="s">
-        <v>228</v>
-      </c>
-      <c r="L37" s="345" t="s">
-        <v>229</v>
-      </c>
-      <c r="M37" s="346" t="s">
-        <v>230</v>
-      </c>
-      <c r="N37" s="347" t="s">
-        <v>470</v>
-      </c>
-      <c r="O37" s="344" t="s">
-        <v>228</v>
-      </c>
-      <c r="P37" s="345" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q37" s="347" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="338">
-        <v>90</v>
-      </c>
-      <c r="B38" s="342" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="341" t="s">
-        <v>234</v>
-      </c>
-      <c r="E38" s="340" t="s">
-        <v>169</v>
-      </c>
-      <c r="F38" s="342" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="H38" s="340" t="s">
-        <v>169</v>
-      </c>
-      <c r="J38" s="338" t="s">
-        <v>202</v>
-      </c>
-      <c r="K38" s="342" t="s">
-        <v>76</v>
-      </c>
-      <c r="L38" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="M38" s="341" t="s">
-        <v>234</v>
-      </c>
-      <c r="N38" s="340" t="s">
-        <v>169</v>
-      </c>
-      <c r="O38" s="342" t="s">
-        <v>76</v>
-      </c>
-      <c r="P38" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q38" s="340" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="338">
-        <v>90</v>
-      </c>
-      <c r="B39" s="342" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="341" t="s">
-        <v>234</v>
-      </c>
-      <c r="E39" s="340" t="s">
-        <v>169</v>
-      </c>
-      <c r="F39" s="342" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="H39" s="340" t="s">
-        <v>169</v>
-      </c>
-      <c r="J39" s="338" t="s">
-        <v>202</v>
-      </c>
-      <c r="K39" s="342" t="s">
-        <v>74</v>
-      </c>
-      <c r="L39" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="M39" s="341" t="s">
-        <v>234</v>
-      </c>
-      <c r="N39" s="340" t="s">
-        <v>169</v>
-      </c>
-      <c r="O39" s="342" t="s">
-        <v>74</v>
-      </c>
-      <c r="P39" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q39" s="340" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="338">
-        <v>90</v>
-      </c>
-      <c r="B40" s="342" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="D40" s="341" t="s">
-        <v>234</v>
-      </c>
-      <c r="E40" s="340" t="s">
-        <v>169</v>
-      </c>
-      <c r="F40" s="342" t="s">
-        <v>75</v>
-      </c>
-      <c r="G40" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="H40" s="340" t="s">
-        <v>169</v>
-      </c>
-      <c r="J40" s="338" t="s">
-        <v>202</v>
-      </c>
-      <c r="K40" s="342" t="s">
-        <v>75</v>
-      </c>
-      <c r="L40" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="M40" s="341" t="s">
-        <v>234</v>
-      </c>
-      <c r="N40" s="340" t="s">
-        <v>169</v>
-      </c>
-      <c r="O40" s="342" t="s">
-        <v>75</v>
-      </c>
-      <c r="P40" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q40" s="340" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="398" t="s">
-        <v>435</v>
-      </c>
-      <c r="B43" s="398" t="s">
-        <v>474</v>
-      </c>
-      <c r="C43" s="398"/>
-      <c r="D43" s="398" t="e">
-        <f>C45/A45</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E43" s="398"/>
-      <c r="F43" s="398"/>
-      <c r="G43" s="398"/>
-    </row>
-    <row r="44" spans="1:17" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="353" t="s">
-        <v>167</v>
-      </c>
-      <c r="B44" s="357" t="s">
-        <v>228</v>
-      </c>
-      <c r="C44" s="345" t="s">
-        <v>229</v>
-      </c>
-      <c r="D44" s="346" t="s">
-        <v>230</v>
-      </c>
-      <c r="E44" s="347" t="s">
-        <v>470</v>
-      </c>
-      <c r="F44" s="345" t="s">
-        <v>231</v>
-      </c>
-      <c r="G44" s="347" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="354">
-        <v>90</v>
-      </c>
-      <c r="B45" s="365" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="D45" s="341" t="s">
-        <v>234</v>
-      </c>
-      <c r="E45" s="340" t="s">
-        <v>169</v>
-      </c>
-      <c r="F45" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="G45" s="340" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="355"/>
-      <c r="B46" s="365" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" s="341" t="s">
-        <v>234</v>
-      </c>
-      <c r="E46" s="340" t="s">
-        <v>169</v>
-      </c>
-      <c r="F46" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="G46" s="340" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="355"/>
-      <c r="B47" s="365" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="D47" s="341" t="s">
-        <v>234</v>
-      </c>
-      <c r="E47" s="340" t="s">
-        <v>169</v>
-      </c>
-      <c r="F47" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="G47" s="340" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="354" t="s">
-        <v>202</v>
-      </c>
-      <c r="B48" s="365" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="D48" s="341" t="s">
-        <v>234</v>
-      </c>
-      <c r="E48" s="340" t="s">
-        <v>169</v>
-      </c>
-      <c r="F48" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="G48" s="340" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="355"/>
-      <c r="B49" s="365" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="D49" s="341" t="s">
-        <v>234</v>
-      </c>
-      <c r="E49" s="340" t="s">
-        <v>169</v>
-      </c>
-      <c r="F49" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="G49" s="340" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="356"/>
-      <c r="B50" s="365" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="D50" s="341" t="s">
-        <v>234</v>
-      </c>
-      <c r="E50" s="340" t="s">
-        <v>169</v>
-      </c>
-      <c r="F50" s="339" t="s">
-        <v>169</v>
-      </c>
-      <c r="G50" s="340" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B54" s="243"/>
-      <c r="C54" s="243"/>
-      <c r="D54" s="311" t="s">
-        <v>461</v>
-      </c>
-      <c r="E54" s="312"/>
-      <c r="F54" s="312"/>
-      <c r="G54" s="312"/>
-      <c r="H54" s="312"/>
-      <c r="I54" s="313"/>
-      <c r="J54" s="314" t="s">
-        <v>466</v>
-      </c>
-      <c r="K54" s="311" t="s">
-        <v>461</v>
-      </c>
-      <c r="L54" s="312"/>
-      <c r="M54" s="312"/>
-      <c r="N54" s="312"/>
-      <c r="O54" s="312"/>
-      <c r="P54" s="313"/>
-      <c r="Q54" s="314" t="s">
-        <v>466</v>
-      </c>
-      <c r="R54" s="243"/>
-      <c r="S54" s="243"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B55" s="243"/>
-      <c r="C55" s="243"/>
-      <c r="D55" s="315" t="s">
-        <v>462</v>
-      </c>
-      <c r="E55" s="316"/>
-      <c r="F55" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="G55" s="316"/>
-      <c r="H55" s="316" t="s">
-        <v>464</v>
-      </c>
-      <c r="I55" s="317"/>
-      <c r="J55" s="314"/>
-      <c r="K55" s="315" t="s">
-        <v>462</v>
-      </c>
-      <c r="L55" s="316"/>
-      <c r="M55" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="N55" s="316"/>
-      <c r="O55" s="316" t="s">
-        <v>464</v>
-      </c>
-      <c r="P55" s="317"/>
-      <c r="Q55" s="314"/>
-      <c r="R55" s="243"/>
-      <c r="S55" s="243"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B56" s="243"/>
-      <c r="C56" s="243"/>
-      <c r="D56" s="318" t="s">
-        <v>465</v>
-      </c>
-      <c r="E56" s="319" t="s">
-        <v>467</v>
-      </c>
-      <c r="F56" s="319" t="s">
-        <v>465</v>
-      </c>
-      <c r="G56" s="319" t="s">
-        <v>467</v>
-      </c>
-      <c r="H56" s="319" t="s">
-        <v>465</v>
-      </c>
-      <c r="I56" s="320" t="s">
-        <v>467</v>
-      </c>
-      <c r="J56" s="314"/>
-      <c r="K56" s="318" t="s">
-        <v>465</v>
-      </c>
-      <c r="L56" s="319" t="s">
-        <v>467</v>
-      </c>
-      <c r="M56" s="319" t="s">
-        <v>465</v>
-      </c>
-      <c r="N56" s="319" t="s">
-        <v>467</v>
-      </c>
-      <c r="O56" s="319" t="s">
-        <v>465</v>
-      </c>
-      <c r="P56" s="320" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q56" s="314"/>
-      <c r="R56" s="243"/>
-      <c r="S56" s="243"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B57" s="321" t="s">
-        <v>457</v>
-      </c>
-      <c r="C57" s="321" t="s">
-        <v>458</v>
-      </c>
-      <c r="D57" s="322" t="s">
-        <v>354</v>
-      </c>
-      <c r="E57" s="323" t="s">
-        <v>396</v>
-      </c>
-      <c r="F57" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="G57" s="323" t="s">
-        <v>469</v>
-      </c>
-      <c r="H57" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="I57" s="325" t="s">
-        <v>468</v>
-      </c>
-      <c r="J57" s="326" t="s">
-        <v>354</v>
-      </c>
-      <c r="K57" s="322" t="s">
-        <v>354</v>
-      </c>
-      <c r="L57" s="323" t="s">
-        <v>396</v>
-      </c>
-      <c r="M57" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="N57" s="323" t="s">
-        <v>469</v>
-      </c>
-      <c r="O57" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="P57" s="325" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q57" s="326" t="s">
-        <v>354</v>
-      </c>
-      <c r="R57" s="243"/>
-      <c r="S57" s="243"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B58" s="321" t="s">
-        <v>457</v>
-      </c>
-      <c r="C58" s="321" t="s">
-        <v>459</v>
-      </c>
-      <c r="D58" s="322" t="s">
-        <v>354</v>
-      </c>
-      <c r="E58" s="323" t="s">
-        <v>396</v>
-      </c>
-      <c r="F58" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="G58" s="323" t="s">
-        <v>469</v>
-      </c>
-      <c r="H58" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="I58" s="325" t="s">
-        <v>468</v>
-      </c>
-      <c r="J58" s="326" t="s">
-        <v>354</v>
-      </c>
-      <c r="K58" s="322" t="s">
-        <v>354</v>
-      </c>
-      <c r="L58" s="323" t="s">
-        <v>396</v>
-      </c>
-      <c r="M58" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="N58" s="323" t="s">
-        <v>469</v>
-      </c>
-      <c r="O58" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="P58" s="325" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q58" s="326" t="s">
-        <v>354</v>
-      </c>
-      <c r="R58" s="243"/>
-      <c r="S58" s="243"/>
-    </row>
-    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="321" t="s">
-        <v>457</v>
-      </c>
-      <c r="C59" s="321" t="s">
-        <v>460</v>
-      </c>
-      <c r="D59" s="327" t="s">
-        <v>354</v>
-      </c>
-      <c r="E59" s="328" t="s">
-        <v>396</v>
-      </c>
-      <c r="F59" s="329" t="s">
-        <v>354</v>
-      </c>
-      <c r="G59" s="328" t="s">
-        <v>469</v>
-      </c>
-      <c r="H59" s="329" t="s">
-        <v>354</v>
-      </c>
-      <c r="I59" s="330" t="s">
-        <v>468</v>
-      </c>
-      <c r="J59" s="326" t="s">
-        <v>354</v>
-      </c>
-      <c r="K59" s="327" t="s">
-        <v>354</v>
-      </c>
-      <c r="L59" s="328" t="s">
-        <v>396</v>
-      </c>
-      <c r="M59" s="329" t="s">
-        <v>354</v>
-      </c>
-      <c r="N59" s="328" t="s">
-        <v>469</v>
-      </c>
-      <c r="O59" s="329" t="s">
-        <v>354</v>
-      </c>
-      <c r="P59" s="330" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q59" s="326" t="s">
-        <v>354</v>
-      </c>
-      <c r="R59" s="243"/>
-      <c r="S59" s="243"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B60" s="243"/>
-      <c r="C60" s="243"/>
-      <c r="D60" s="243"/>
-      <c r="E60" s="243"/>
-      <c r="F60" s="243"/>
-      <c r="G60" s="243"/>
-      <c r="H60" s="243"/>
-      <c r="I60" s="243"/>
-      <c r="J60" s="243"/>
-      <c r="K60" s="243"/>
-      <c r="L60" s="243"/>
-      <c r="M60" s="243"/>
-      <c r="N60" s="243"/>
-      <c r="O60" s="243"/>
-      <c r="P60" s="243"/>
-      <c r="Q60" s="243"/>
-      <c r="R60" s="243"/>
-      <c r="S60" s="243"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="243"/>
-      <c r="C61" s="243"/>
-      <c r="D61" s="243"/>
-      <c r="E61" s="243"/>
-      <c r="F61" s="243"/>
-      <c r="G61" s="243"/>
-      <c r="H61" s="243"/>
-      <c r="I61" s="243"/>
-      <c r="J61" s="243"/>
-      <c r="K61" s="243"/>
-      <c r="L61" s="243"/>
-      <c r="M61" s="243"/>
-      <c r="N61" s="243"/>
-      <c r="O61" s="243"/>
-      <c r="P61" s="243"/>
-      <c r="Q61" s="243"/>
-      <c r="R61" s="243"/>
-      <c r="S61" s="243"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B62" s="243"/>
-      <c r="C62" s="243"/>
-      <c r="D62" s="243"/>
-      <c r="E62" s="243"/>
-      <c r="F62" s="243"/>
-      <c r="G62" s="243"/>
-      <c r="H62" s="243"/>
-      <c r="I62" s="243"/>
-      <c r="J62" s="243"/>
-      <c r="K62" s="243"/>
-      <c r="L62" s="243"/>
-      <c r="M62" s="243"/>
-      <c r="N62" s="243"/>
-      <c r="O62" s="243"/>
-      <c r="P62" s="243"/>
-      <c r="Q62" s="243"/>
-      <c r="R62" s="243"/>
-      <c r="S62" s="243"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B63" s="243"/>
-      <c r="C63" s="243"/>
-      <c r="D63" s="243"/>
-      <c r="E63" s="243"/>
-      <c r="F63" s="243"/>
-      <c r="G63" s="243"/>
-      <c r="H63" s="243"/>
-      <c r="I63" s="243"/>
-      <c r="J63" s="243"/>
-      <c r="K63" s="243"/>
-      <c r="L63" s="243"/>
-      <c r="M63" s="243"/>
-      <c r="N63" s="243"/>
-      <c r="O63" s="243"/>
-      <c r="P63" s="243"/>
-      <c r="Q63" s="243"/>
-      <c r="R63" s="243"/>
-      <c r="S63" s="243"/>
-    </row>
-    <row r="64" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="243"/>
-      <c r="C64" s="243"/>
-      <c r="D64" s="243"/>
-      <c r="E64" s="243"/>
-      <c r="F64" s="243"/>
-      <c r="G64" s="243"/>
-      <c r="H64" s="243"/>
-      <c r="I64" s="243"/>
-      <c r="J64" s="243"/>
-      <c r="K64" s="243"/>
-      <c r="L64" s="243"/>
-      <c r="M64" s="243"/>
-      <c r="N64" s="243"/>
-      <c r="O64" s="243"/>
-      <c r="P64" s="243"/>
-      <c r="Q64" s="243"/>
-      <c r="R64" s="243"/>
-      <c r="S64" s="243"/>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B65" s="243"/>
-      <c r="C65" s="243"/>
-      <c r="D65" s="331" t="s">
-        <v>461</v>
-      </c>
-      <c r="E65" s="332"/>
-      <c r="F65" s="333" t="s">
-        <v>466</v>
-      </c>
-      <c r="G65" s="331"/>
-      <c r="H65" s="332"/>
-      <c r="I65" s="333" t="s">
-        <v>466</v>
-      </c>
-      <c r="J65" s="331"/>
-      <c r="K65" s="332"/>
-      <c r="L65" s="333" t="s">
-        <v>466</v>
-      </c>
-      <c r="M65" s="311" t="s">
-        <v>461</v>
-      </c>
-      <c r="N65" s="312"/>
-      <c r="O65" s="312"/>
-      <c r="P65" s="312"/>
-      <c r="Q65" s="312"/>
-      <c r="R65" s="313"/>
-      <c r="S65" s="333" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B66" s="243"/>
-      <c r="C66" s="243"/>
-      <c r="D66" s="318" t="s">
-        <v>462</v>
-      </c>
-      <c r="E66" s="320"/>
-      <c r="F66" s="333"/>
-      <c r="G66" s="318" t="s">
-        <v>463</v>
-      </c>
-      <c r="H66" s="320"/>
-      <c r="I66" s="333"/>
-      <c r="J66" s="318" t="s">
-        <v>464</v>
-      </c>
-      <c r="K66" s="320"/>
-      <c r="L66" s="333"/>
-      <c r="M66" s="315" t="s">
-        <v>462</v>
-      </c>
-      <c r="N66" s="316"/>
-      <c r="O66" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="P66" s="316"/>
-      <c r="Q66" s="316" t="s">
-        <v>464</v>
-      </c>
-      <c r="R66" s="317"/>
-      <c r="S66" s="333"/>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B67" s="243"/>
-      <c r="C67" s="243"/>
-      <c r="D67" s="318" t="s">
-        <v>465</v>
-      </c>
-      <c r="E67" s="320" t="s">
-        <v>467</v>
-      </c>
-      <c r="F67" s="333"/>
-      <c r="G67" s="318" t="s">
-        <v>465</v>
-      </c>
-      <c r="H67" s="320" t="s">
-        <v>467</v>
-      </c>
-      <c r="I67" s="333"/>
-      <c r="J67" s="318" t="s">
-        <v>465</v>
-      </c>
-      <c r="K67" s="320" t="s">
-        <v>467</v>
-      </c>
-      <c r="L67" s="333"/>
-      <c r="M67" s="318" t="s">
-        <v>465</v>
-      </c>
-      <c r="N67" s="319" t="s">
-        <v>467</v>
-      </c>
-      <c r="O67" s="319" t="s">
-        <v>465</v>
-      </c>
-      <c r="P67" s="319" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q67" s="319" t="s">
-        <v>465</v>
-      </c>
-      <c r="R67" s="320" t="s">
-        <v>467</v>
-      </c>
-      <c r="S67" s="333"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="321" t="s">
-        <v>457</v>
-      </c>
-      <c r="C68" s="321" t="s">
-        <v>458</v>
-      </c>
-      <c r="D68" s="322" t="s">
-        <v>354</v>
-      </c>
-      <c r="E68" s="325" t="s">
-        <v>396</v>
-      </c>
-      <c r="F68" s="334" t="s">
-        <v>354</v>
-      </c>
-      <c r="G68" s="322" t="s">
-        <v>354</v>
-      </c>
-      <c r="H68" s="325" t="s">
-        <v>469</v>
-      </c>
-      <c r="I68" s="334" t="s">
-        <v>354</v>
-      </c>
-      <c r="J68" s="322" t="s">
-        <v>354</v>
-      </c>
-      <c r="K68" s="325" t="s">
-        <v>468</v>
-      </c>
-      <c r="L68" s="334" t="s">
-        <v>354</v>
-      </c>
-      <c r="M68" s="322" t="s">
-        <v>354</v>
-      </c>
-      <c r="N68" s="323" t="s">
-        <v>396</v>
-      </c>
-      <c r="O68" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="P68" s="323" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q68" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="R68" s="325" t="s">
-        <v>468</v>
-      </c>
-      <c r="S68" s="334" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B69" s="321" t="s">
-        <v>457</v>
-      </c>
-      <c r="C69" s="321" t="s">
-        <v>459</v>
-      </c>
-      <c r="D69" s="322" t="s">
-        <v>354</v>
-      </c>
-      <c r="E69" s="325" t="s">
-        <v>396</v>
-      </c>
-      <c r="F69" s="334" t="s">
-        <v>354</v>
-      </c>
-      <c r="G69" s="322" t="s">
-        <v>354</v>
-      </c>
-      <c r="H69" s="325" t="s">
-        <v>469</v>
-      </c>
-      <c r="I69" s="334" t="s">
-        <v>354</v>
-      </c>
-      <c r="J69" s="322" t="s">
-        <v>354</v>
-      </c>
-      <c r="K69" s="325" t="s">
-        <v>468</v>
-      </c>
-      <c r="L69" s="334" t="s">
-        <v>354</v>
-      </c>
-      <c r="M69" s="322" t="s">
-        <v>354</v>
-      </c>
-      <c r="N69" s="323" t="s">
-        <v>396</v>
-      </c>
-      <c r="O69" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="P69" s="323" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q69" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="R69" s="325" t="s">
-        <v>468</v>
-      </c>
-      <c r="S69" s="334" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="70" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="321" t="s">
-        <v>457</v>
-      </c>
-      <c r="C70" s="321" t="s">
-        <v>460</v>
-      </c>
-      <c r="D70" s="327" t="s">
-        <v>354</v>
-      </c>
-      <c r="E70" s="330" t="s">
-        <v>396</v>
-      </c>
-      <c r="F70" s="334" t="s">
-        <v>354</v>
-      </c>
-      <c r="G70" s="327" t="s">
-        <v>354</v>
-      </c>
-      <c r="H70" s="330" t="s">
-        <v>469</v>
-      </c>
-      <c r="I70" s="334" t="s">
-        <v>354</v>
-      </c>
-      <c r="J70" s="327" t="s">
-        <v>354</v>
-      </c>
-      <c r="K70" s="330" t="s">
-        <v>468</v>
-      </c>
-      <c r="L70" s="334" t="s">
-        <v>354</v>
-      </c>
-      <c r="M70" s="327" t="s">
-        <v>354</v>
-      </c>
-      <c r="N70" s="328" t="s">
-        <v>396</v>
-      </c>
-      <c r="O70" s="329" t="s">
-        <v>354</v>
-      </c>
-      <c r="P70" s="328" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q70" s="329" t="s">
-        <v>354</v>
-      </c>
-      <c r="R70" s="330" t="s">
-        <v>468</v>
-      </c>
-      <c r="S70" s="334" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D74" s="319" t="s">
-        <v>461</v>
-      </c>
-      <c r="E74" s="335"/>
-      <c r="F74" s="335"/>
-      <c r="G74" s="319" t="s">
-        <v>461</v>
-      </c>
-      <c r="H74" s="335"/>
-      <c r="I74" s="335"/>
-      <c r="J74" s="319" t="s">
-        <v>461</v>
-      </c>
-      <c r="K74" s="335"/>
-      <c r="L74" s="335"/>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D75" s="319" t="s">
-        <v>462</v>
-      </c>
-      <c r="E75" s="335"/>
-      <c r="F75" s="335"/>
-      <c r="G75" s="319" t="s">
-        <v>463</v>
-      </c>
-      <c r="H75" s="335"/>
-      <c r="I75" s="335"/>
-      <c r="J75" s="319" t="s">
-        <v>464</v>
-      </c>
-      <c r="K75" s="335"/>
-      <c r="L75" s="335"/>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D76" s="319" t="s">
-        <v>465</v>
-      </c>
-      <c r="E76" s="335"/>
-      <c r="F76" s="335"/>
-      <c r="G76" s="319" t="s">
-        <v>465</v>
-      </c>
-      <c r="H76" s="335"/>
-      <c r="I76" s="335"/>
-      <c r="J76" s="319" t="s">
-        <v>465</v>
-      </c>
-      <c r="K76" s="335"/>
-      <c r="L76" s="335"/>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B77" s="321" t="s">
-        <v>457</v>
-      </c>
-      <c r="C77" s="321" t="s">
-        <v>458</v>
-      </c>
-      <c r="D77" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="E77" s="335"/>
-      <c r="F77" s="335"/>
-      <c r="G77" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="H77" s="335"/>
-      <c r="I77" s="335"/>
-      <c r="J77" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="K77" s="335"/>
-      <c r="L77" s="335"/>
-    </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B78" s="321" t="s">
-        <v>457</v>
-      </c>
-      <c r="C78" s="321" t="s">
-        <v>459</v>
-      </c>
-      <c r="D78" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="E78" s="335"/>
-      <c r="F78" s="335"/>
-      <c r="G78" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="H78" s="335"/>
-      <c r="I78" s="335"/>
-      <c r="J78" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="K78" s="335"/>
-      <c r="L78" s="335"/>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B79" s="321" t="s">
-        <v>457</v>
-      </c>
-      <c r="C79" s="321" t="s">
-        <v>460</v>
-      </c>
-      <c r="D79" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="E79" s="335"/>
-      <c r="F79" s="335"/>
-      <c r="G79" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="H79" s="335"/>
-      <c r="I79" s="335"/>
-      <c r="J79" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="K79" s="335"/>
-      <c r="L79" s="335"/>
-    </row>
-    <row r="81" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D82" s="311" t="s">
-        <v>461</v>
-      </c>
-      <c r="E82" s="312"/>
-      <c r="F82" s="312"/>
-      <c r="G82" s="312"/>
-      <c r="H82" s="312"/>
-      <c r="I82" s="313"/>
-      <c r="K82" s="336"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D83" s="315" t="s">
-        <v>462</v>
-      </c>
-      <c r="E83" s="316"/>
-      <c r="F83" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="G83" s="316"/>
-      <c r="H83" s="316" t="s">
-        <v>464</v>
-      </c>
-      <c r="I83" s="317"/>
-      <c r="K83" s="336"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D84" s="318" t="s">
-        <v>465</v>
-      </c>
-      <c r="E84" s="319" t="s">
-        <v>467</v>
-      </c>
-      <c r="F84" s="319" t="s">
-        <v>465</v>
-      </c>
-      <c r="G84" s="319" t="s">
-        <v>467</v>
-      </c>
-      <c r="H84" s="319" t="s">
-        <v>465</v>
-      </c>
-      <c r="I84" s="320" t="s">
-        <v>467</v>
-      </c>
-      <c r="K84" s="336" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D85" s="322" t="s">
-        <v>354</v>
-      </c>
-      <c r="E85" s="323" t="s">
-        <v>396</v>
-      </c>
-      <c r="F85" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="G85" s="323" t="s">
-        <v>469</v>
-      </c>
-      <c r="H85" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="I85" s="325" t="s">
-        <v>468</v>
-      </c>
-      <c r="K85" s="326" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D86" s="322" t="s">
-        <v>354</v>
-      </c>
-      <c r="E86" s="323" t="s">
-        <v>396</v>
-      </c>
-      <c r="F86" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="G86" s="323" t="s">
-        <v>469</v>
-      </c>
-      <c r="H86" s="324" t="s">
-        <v>354</v>
-      </c>
-      <c r="I86" s="325" t="s">
-        <v>468</v>
-      </c>
-      <c r="K86" s="326" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="87" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D87" s="327" t="s">
-        <v>354</v>
-      </c>
-      <c r="E87" s="328" t="s">
-        <v>396</v>
-      </c>
-      <c r="F87" s="329" t="s">
-        <v>354</v>
-      </c>
-      <c r="G87" s="328" t="s">
-        <v>469</v>
-      </c>
-      <c r="H87" s="329" t="s">
-        <v>354</v>
-      </c>
-      <c r="I87" s="330" t="s">
-        <v>468</v>
-      </c>
-      <c r="K87" s="326" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C89" s="122" t="s">
-        <v>370</v>
-      </c>
-      <c r="D89" s="122"/>
-      <c r="E89" s="122"/>
-      <c r="F89" s="122"/>
-      <c r="G89" s="122"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C90" s="321" t="s">
-        <v>457</v>
-      </c>
-      <c r="D90" s="319" t="s">
-        <v>461</v>
-      </c>
-      <c r="E90" s="319" t="s">
-        <v>465</v>
-      </c>
-      <c r="F90" s="323" t="s">
-        <v>467</v>
-      </c>
-      <c r="G90" s="336" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C91" s="321" t="s">
-        <v>458</v>
-      </c>
-      <c r="D91" s="319" t="s">
-        <v>462</v>
-      </c>
-      <c r="E91" s="337" t="s">
-        <v>354</v>
-      </c>
-      <c r="F91" s="323" t="s">
-        <v>469</v>
-      </c>
-      <c r="G91" s="326" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C92" s="321" t="s">
-        <v>459</v>
-      </c>
-      <c r="D92" s="319" t="s">
-        <v>463</v>
-      </c>
-      <c r="E92" s="337" t="s">
-        <v>354</v>
-      </c>
-      <c r="F92" s="323" t="s">
-        <v>469</v>
-      </c>
-      <c r="G92" s="326" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="93" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="321" t="s">
-        <v>460</v>
-      </c>
-      <c r="D93" s="319" t="s">
-        <v>464</v>
-      </c>
-      <c r="E93" s="337" t="s">
-        <v>354</v>
-      </c>
-      <c r="F93" s="328" t="s">
-        <v>469</v>
-      </c>
-      <c r="G93" s="326" t="s">
-        <v>354</v>
+      <c r="T54" s="472">
+        <f t="shared" si="0"/>
+        <v>1.5928431158629719</v>
+      </c>
+      <c r="U54" s="471" t="s">
+        <v>511</v>
+      </c>
+      <c r="V54" s="473">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="18:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R55" s="474">
+        <v>264</v>
+      </c>
+      <c r="S55" s="475">
+        <v>73</v>
+      </c>
+      <c r="T55" s="477">
+        <f t="shared" si="0"/>
+        <v>1.5928431158629719</v>
+      </c>
+      <c r="U55" s="475" t="s">
+        <v>511</v>
+      </c>
+      <c r="V55" s="476">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="Q54:Q56"/>
-    <mergeCell ref="L65:L67"/>
-    <mergeCell ref="M65:R65"/>
-    <mergeCell ref="S65:S67"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="D54:I54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="K54:P54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="A9:M9"/>
+  <mergeCells count="12">
+    <mergeCell ref="Q38:Q41"/>
+    <mergeCell ref="Q27:Q30"/>
+    <mergeCell ref="Q31:Q34"/>
+    <mergeCell ref="Q42:Q45"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="Q36:V36"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>